--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>191.8</v>
       </c>
       <c r="C2" t="n">
-        <v>193.9</v>
+        <v>191.8</v>
       </c>
       <c r="D2" t="n">
-        <v>193.9</v>
+        <v>191.8</v>
       </c>
       <c r="E2" t="n">
         <v>191.8</v>
       </c>
       <c r="F2" t="n">
-        <v>242.0007</v>
+        <v>424.3764</v>
       </c>
       <c r="G2" t="n">
-        <v>193.4083333333332</v>
+        <v>193.4433333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>193.9</v>
+        <v>191.8</v>
       </c>
       <c r="C3" t="n">
         <v>193.9</v>
@@ -477,13 +477,13 @@
         <v>193.9</v>
       </c>
       <c r="E3" t="n">
-        <v>193.9</v>
+        <v>191.8</v>
       </c>
       <c r="F3" t="n">
-        <v>154.8475</v>
+        <v>242.0007</v>
       </c>
       <c r="G3" t="n">
-        <v>193.4233333333332</v>
+        <v>193.4083333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.8</v>
+        <v>193.9</v>
       </c>
       <c r="C4" t="n">
-        <v>194.7</v>
+        <v>193.9</v>
       </c>
       <c r="D4" t="n">
-        <v>195</v>
+        <v>193.9</v>
       </c>
       <c r="E4" t="n">
-        <v>191.6</v>
+        <v>193.9</v>
       </c>
       <c r="F4" t="n">
-        <v>694.5709000000001</v>
+        <v>154.8475</v>
       </c>
       <c r="G4" t="n">
-        <v>193.4349999999999</v>
+        <v>193.4233333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>194.8</v>
+        <v>191.8</v>
       </c>
       <c r="C5" t="n">
-        <v>195.2</v>
+        <v>194.7</v>
       </c>
       <c r="D5" t="n">
-        <v>195.2</v>
+        <v>195</v>
       </c>
       <c r="E5" t="n">
-        <v>194.7</v>
+        <v>191.6</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>694.5709000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>193.4216666666665</v>
+        <v>193.4349999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C6" t="n">
         <v>195.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>194</v>
       </c>
       <c r="D6" t="n">
         <v>195.2</v>
       </c>
       <c r="E6" t="n">
-        <v>193</v>
+        <v>194.7</v>
       </c>
       <c r="F6" t="n">
-        <v>233.9933</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
         <v>193.4216666666665</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C7" t="n">
         <v>194</v>
       </c>
-      <c r="C7" t="n">
-        <v>195.1</v>
-      </c>
       <c r="D7" t="n">
-        <v>195.1</v>
+        <v>195.2</v>
       </c>
       <c r="E7" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9933</v>
+        <v>233.9933</v>
       </c>
       <c r="G7" t="n">
-        <v>193.4083333333332</v>
+        <v>193.4216666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>195.1</v>
+        <v>194</v>
       </c>
       <c r="C8" t="n">
         <v>195.1</v>
@@ -652,13 +652,13 @@
         <v>195.1</v>
       </c>
       <c r="E8" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" t="n">
-        <v>55.6799</v>
+        <v>182.9933</v>
       </c>
       <c r="G8" t="n">
-        <v>193.3966666666666</v>
+        <v>193.4083333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>193.1</v>
+        <v>195.1</v>
       </c>
       <c r="C9" t="n">
         <v>195.1</v>
       </c>
       <c r="D9" t="n">
-        <v>196.2</v>
+        <v>195.1</v>
       </c>
       <c r="E9" t="n">
-        <v>193.1</v>
+        <v>195</v>
       </c>
       <c r="F9" t="n">
-        <v>186</v>
+        <v>55.6799</v>
       </c>
       <c r="G9" t="n">
-        <v>193.3849999999999</v>
+        <v>193.3966666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>196.1</v>
+        <v>193.1</v>
       </c>
       <c r="C10" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="D10" t="n">
-        <v>196.1</v>
+        <v>196.2</v>
       </c>
       <c r="E10" t="n">
-        <v>193</v>
+        <v>193.1</v>
       </c>
       <c r="F10" t="n">
-        <v>178.726</v>
+        <v>186</v>
       </c>
       <c r="G10" t="n">
-        <v>193.3883333333333</v>
+        <v>193.3849999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>195</v>
+        <v>196.1</v>
       </c>
       <c r="C11" t="n">
         <v>195</v>
       </c>
       <c r="D11" t="n">
-        <v>195</v>
+        <v>196.1</v>
       </c>
       <c r="E11" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F11" t="n">
-        <v>315.726</v>
+        <v>178.726</v>
       </c>
       <c r="G11" t="n">
-        <v>193.3916666666666</v>
+        <v>193.3883333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>195</v>
       </c>
       <c r="F12" t="n">
-        <v>675.8737</v>
+        <v>315.726</v>
       </c>
       <c r="G12" t="n">
-        <v>193.3966666666666</v>
+        <v>193.3916666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="C13" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="D13" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="E13" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="F13" t="n">
-        <v>7180.153</v>
+        <v>675.8737</v>
       </c>
       <c r="G13" t="n">
-        <v>193.4149999999999</v>
+        <v>193.3966666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>195.1</v>
       </c>
       <c r="F14" t="n">
-        <v>422.126</v>
+        <v>7180.153</v>
       </c>
       <c r="G14" t="n">
-        <v>193.4549999999999</v>
+        <v>193.4149999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="C15" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="D15" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="E15" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="F15" t="n">
-        <v>179.2872</v>
+        <v>422.126</v>
       </c>
       <c r="G15" t="n">
-        <v>193.4883333333333</v>
+        <v>193.4549999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>195</v>
       </c>
       <c r="F16" t="n">
-        <v>349.7007</v>
+        <v>179.2872</v>
       </c>
       <c r="G16" t="n">
-        <v>193.5216666666666</v>
+        <v>193.4883333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>195</v>
       </c>
       <c r="F17" t="n">
-        <v>220</v>
+        <v>349.7007</v>
       </c>
       <c r="G17" t="n">
-        <v>193.5566666666666</v>
+        <v>193.5216666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>195</v>
       </c>
       <c r="F18" t="n">
-        <v>785.999</v>
+        <v>220</v>
       </c>
       <c r="G18" t="n">
-        <v>193.5966666666666</v>
+        <v>193.5566666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="C19" t="n">
         <v>195</v>
       </c>
       <c r="D19" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="E19" t="n">
         <v>195</v>
       </c>
       <c r="F19" t="n">
-        <v>13309.4899</v>
+        <v>785.999</v>
       </c>
       <c r="G19" t="n">
-        <v>193.6366666666666</v>
+        <v>193.5966666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>195.1</v>
       </c>
       <c r="C20" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="D20" t="n">
         <v>195.1</v>
       </c>
       <c r="E20" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="F20" t="n">
-        <v>5979.9535</v>
+        <v>13309.4899</v>
       </c>
       <c r="G20" t="n">
-        <v>193.6783333333333</v>
+        <v>193.6366666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>196.3</v>
+        <v>195.1</v>
       </c>
       <c r="C21" t="n">
-        <v>196.4</v>
+        <v>195.1</v>
       </c>
       <c r="D21" t="n">
-        <v>196.4</v>
+        <v>195.1</v>
       </c>
       <c r="E21" t="n">
-        <v>196.3</v>
+        <v>195.1</v>
       </c>
       <c r="F21" t="n">
-        <v>527.852</v>
+        <v>5979.9535</v>
       </c>
       <c r="G21" t="n">
-        <v>193.7433333333333</v>
+        <v>193.6783333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>195</v>
+        <v>196.3</v>
       </c>
       <c r="C22" t="n">
-        <v>195</v>
+        <v>196.4</v>
       </c>
       <c r="D22" t="n">
-        <v>195</v>
+        <v>196.4</v>
       </c>
       <c r="E22" t="n">
-        <v>195</v>
+        <v>196.3</v>
       </c>
       <c r="F22" t="n">
-        <v>513.696</v>
+        <v>527.852</v>
       </c>
       <c r="G22" t="n">
-        <v>193.7933333333332</v>
+        <v>193.7433333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="C23" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="D23" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="E23" t="n">
-        <v>195.1</v>
+        <v>195</v>
       </c>
       <c r="F23" t="n">
-        <v>365.752</v>
+        <v>513.696</v>
       </c>
       <c r="G23" t="n">
-        <v>193.8549999999999</v>
+        <v>193.7933333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>195.1</v>
       </c>
       <c r="C24" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="D24" t="n">
         <v>195.1</v>
       </c>
       <c r="E24" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="F24" t="n">
-        <v>835.622</v>
+        <v>365.752</v>
       </c>
       <c r="G24" t="n">
-        <v>193.9149999999999</v>
+        <v>193.8549999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="C25" t="n">
         <v>195</v>
       </c>
       <c r="D25" t="n">
-        <v>195</v>
+        <v>195.1</v>
       </c>
       <c r="E25" t="n">
         <v>195</v>
       </c>
       <c r="F25" t="n">
-        <v>5070.105</v>
+        <v>835.622</v>
       </c>
       <c r="G25" t="n">
-        <v>193.9499999999999</v>
+        <v>193.9149999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>196.3</v>
+        <v>195</v>
       </c>
       <c r="C26" t="n">
-        <v>196.3</v>
+        <v>195</v>
       </c>
       <c r="D26" t="n">
-        <v>196.3</v>
+        <v>195</v>
       </c>
       <c r="E26" t="n">
-        <v>196.3</v>
+        <v>195</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>5070.105</v>
       </c>
       <c r="G26" t="n">
-        <v>193.9883333333333</v>
+        <v>193.9499999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>195</v>
+        <v>196.3</v>
       </c>
       <c r="C27" t="n">
-        <v>194.1</v>
+        <v>196.3</v>
       </c>
       <c r="D27" t="n">
-        <v>195</v>
+        <v>196.3</v>
       </c>
       <c r="E27" t="n">
-        <v>194.1</v>
+        <v>196.3</v>
       </c>
       <c r="F27" t="n">
-        <v>170.57</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>194.0299999999999</v>
+        <v>193.9883333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>196.3</v>
+        <v>195</v>
       </c>
       <c r="C28" t="n">
-        <v>196.3</v>
+        <v>194.1</v>
       </c>
       <c r="D28" t="n">
-        <v>196.3</v>
+        <v>195</v>
       </c>
       <c r="E28" t="n">
-        <v>196.3</v>
+        <v>194.1</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>170.57</v>
       </c>
       <c r="G28" t="n">
-        <v>194.1083333333332</v>
+        <v>194.0299999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>195.2</v>
+        <v>196.3</v>
       </c>
       <c r="C29" t="n">
-        <v>195.2</v>
+        <v>196.3</v>
       </c>
       <c r="D29" t="n">
-        <v>195.2</v>
+        <v>196.3</v>
       </c>
       <c r="E29" t="n">
-        <v>195.2</v>
+        <v>196.3</v>
       </c>
       <c r="F29" t="n">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>194.1933333333332</v>
+        <v>194.1083333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>196.1</v>
+        <v>195.2</v>
       </c>
       <c r="C30" t="n">
-        <v>196.1</v>
+        <v>195.2</v>
       </c>
       <c r="D30" t="n">
-        <v>196.1</v>
+        <v>195.2</v>
       </c>
       <c r="E30" t="n">
-        <v>196.1</v>
+        <v>195.2</v>
       </c>
       <c r="F30" t="n">
-        <v>101.988</v>
+        <v>281</v>
       </c>
       <c r="G30" t="n">
-        <v>194.2449999999999</v>
+        <v>194.1933333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>194.1</v>
+        <v>196.1</v>
       </c>
       <c r="C31" t="n">
-        <v>194</v>
+        <v>196.1</v>
       </c>
       <c r="D31" t="n">
-        <v>194.1</v>
+        <v>196.1</v>
       </c>
       <c r="E31" t="n">
-        <v>194</v>
+        <v>196.1</v>
       </c>
       <c r="F31" t="n">
-        <v>161.635</v>
+        <v>101.988</v>
       </c>
       <c r="G31" t="n">
-        <v>194.2616666666666</v>
+        <v>194.2449999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>193.1</v>
+        <v>194.1</v>
       </c>
       <c r="C32" t="n">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="D32" t="n">
-        <v>193.1</v>
+        <v>194.1</v>
       </c>
       <c r="E32" t="n">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="F32" t="n">
-        <v>558.127</v>
+        <v>161.635</v>
       </c>
       <c r="G32" t="n">
-        <v>194.2399999999999</v>
+        <v>194.2616666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>193.1</v>
       </c>
       <c r="C33" t="n">
-        <v>192.2</v>
+        <v>193.1</v>
       </c>
       <c r="D33" t="n">
         <v>193.1</v>
       </c>
       <c r="E33" t="n">
-        <v>192.2</v>
+        <v>193.1</v>
       </c>
       <c r="F33" t="n">
-        <v>6179.2067</v>
+        <v>558.127</v>
       </c>
       <c r="G33" t="n">
-        <v>194.1999999999999</v>
+        <v>194.2399999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>191.7</v>
+        <v>193.1</v>
       </c>
       <c r="C34" t="n">
-        <v>191.2</v>
+        <v>192.2</v>
       </c>
       <c r="D34" t="n">
-        <v>191.7</v>
+        <v>193.1</v>
       </c>
       <c r="E34" t="n">
-        <v>191.2</v>
+        <v>192.2</v>
       </c>
       <c r="F34" t="n">
-        <v>9455</v>
+        <v>6179.2067</v>
       </c>
       <c r="G34" t="n">
-        <v>194.1366666666666</v>
+        <v>194.1999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>193.9</v>
+        <v>191.7</v>
       </c>
       <c r="C35" t="n">
-        <v>194</v>
+        <v>191.2</v>
       </c>
       <c r="D35" t="n">
-        <v>194</v>
+        <v>191.7</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9</v>
+        <v>191.2</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>9455</v>
       </c>
       <c r="G35" t="n">
-        <v>194.1199999999999</v>
+        <v>194.1366666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>193.9</v>
       </c>
       <c r="C36" t="n">
-        <v>193.9</v>
+        <v>194</v>
       </c>
       <c r="D36" t="n">
-        <v>193.9</v>
+        <v>194</v>
       </c>
       <c r="E36" t="n">
         <v>193.9</v>
       </c>
       <c r="F36" t="n">
-        <v>2722.3309</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>194.1183333333333</v>
+        <v>194.1199999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>192.1</v>
+        <v>193.9</v>
       </c>
       <c r="C37" t="n">
-        <v>192.1</v>
+        <v>193.9</v>
       </c>
       <c r="D37" t="n">
-        <v>192.1</v>
+        <v>193.9</v>
       </c>
       <c r="E37" t="n">
-        <v>192.1</v>
+        <v>193.9</v>
       </c>
       <c r="F37" t="n">
-        <v>1263.5926</v>
+        <v>2722.3309</v>
       </c>
       <c r="G37" t="n">
-        <v>194.0533333333333</v>
+        <v>194.1183333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>195</v>
+        <v>192.1</v>
       </c>
       <c r="C38" t="n">
-        <v>195</v>
+        <v>192.1</v>
       </c>
       <c r="D38" t="n">
-        <v>195</v>
+        <v>192.1</v>
       </c>
       <c r="E38" t="n">
-        <v>195</v>
+        <v>192.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1263.5926</v>
       </c>
       <c r="G38" t="n">
-        <v>194.07</v>
+        <v>194.0533333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="C39" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="D39" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="E39" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="F39" t="n">
-        <v>180.3627</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0499999999999</v>
+        <v>194.07</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="C40" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="D40" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="E40" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>180.3627</v>
       </c>
       <c r="G40" t="n">
-        <v>194.0666666666666</v>
+        <v>194.0499999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="C41" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="D41" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="E41" t="n">
-        <v>192.8</v>
+        <v>195</v>
       </c>
       <c r="F41" t="n">
-        <v>231.9263</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>194.0199999999999</v>
+        <v>194.0666666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="C42" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="D42" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="E42" t="n">
-        <v>195</v>
+        <v>192.8</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>231.9263</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0033333333332</v>
+        <v>194.0199999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>193.1</v>
+        <v>195</v>
       </c>
       <c r="C43" t="n">
-        <v>193.1</v>
+        <v>195</v>
       </c>
       <c r="D43" t="n">
-        <v>193.1</v>
+        <v>195</v>
       </c>
       <c r="E43" t="n">
-        <v>193.1</v>
+        <v>195</v>
       </c>
       <c r="F43" t="n">
-        <v>911.9272999999999</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>193.9916666666666</v>
+        <v>194.0033333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>192.9</v>
+        <v>193.1</v>
       </c>
       <c r="C44" t="n">
-        <v>192.9</v>
+        <v>193.1</v>
       </c>
       <c r="D44" t="n">
-        <v>192.9</v>
+        <v>193.1</v>
       </c>
       <c r="E44" t="n">
-        <v>192.9</v>
+        <v>193.1</v>
       </c>
       <c r="F44" t="n">
-        <v>10000</v>
+        <v>911.9272999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9433333333333</v>
+        <v>193.9916666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>192.8</v>
+        <v>192.9</v>
       </c>
       <c r="C45" t="n">
-        <v>194.9</v>
+        <v>192.9</v>
       </c>
       <c r="D45" t="n">
-        <v>194.9</v>
+        <v>192.9</v>
       </c>
       <c r="E45" t="n">
-        <v>192.8</v>
+        <v>192.9</v>
       </c>
       <c r="F45" t="n">
-        <v>266</v>
+        <v>10000</v>
       </c>
       <c r="G45" t="n">
-        <v>193.9283333333333</v>
+        <v>193.9433333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>192.8</v>
       </c>
       <c r="C46" t="n">
-        <v>192.8</v>
+        <v>194.9</v>
       </c>
       <c r="D46" t="n">
-        <v>192.8</v>
+        <v>194.9</v>
       </c>
       <c r="E46" t="n">
         <v>192.8</v>
       </c>
       <c r="F46" t="n">
-        <v>906.999</v>
+        <v>266</v>
       </c>
       <c r="G46" t="n">
-        <v>193.9099999999999</v>
+        <v>193.9283333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>192.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1965.9941</v>
+        <v>906.999</v>
       </c>
       <c r="G47" t="n">
-        <v>193.8933333333333</v>
+        <v>193.9099999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>192.8</v>
       </c>
       <c r="D48" t="n">
-        <v>194.8</v>
+        <v>192.8</v>
       </c>
       <c r="E48" t="n">
         <v>192.8</v>
       </c>
       <c r="F48" t="n">
-        <v>367</v>
+        <v>1965.9941</v>
       </c>
       <c r="G48" t="n">
-        <v>193.8766666666666</v>
+        <v>193.8933333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>192.8</v>
       </c>
       <c r="D49" t="n">
-        <v>192.8</v>
+        <v>194.8</v>
       </c>
       <c r="E49" t="n">
         <v>192.8</v>
       </c>
       <c r="F49" t="n">
-        <v>2250.541</v>
+        <v>367</v>
       </c>
       <c r="G49" t="n">
-        <v>193.86</v>
+        <v>193.8766666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>192.8</v>
       </c>
       <c r="C50" t="n">
-        <v>192.2</v>
+        <v>192.8</v>
       </c>
       <c r="D50" t="n">
         <v>192.8</v>
       </c>
       <c r="E50" t="n">
-        <v>192.2</v>
+        <v>192.8</v>
       </c>
       <c r="F50" t="n">
-        <v>5096.386</v>
+        <v>2250.541</v>
       </c>
       <c r="G50" t="n">
-        <v>193.855</v>
+        <v>193.86</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="C51" t="n">
         <v>192.2</v>
       </c>
-      <c r="C51" t="n">
-        <v>192</v>
-      </c>
       <c r="D51" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="E51" t="n">
         <v>192.2</v>
       </c>
-      <c r="E51" t="n">
-        <v>192</v>
-      </c>
       <c r="F51" t="n">
-        <v>111.2221</v>
+        <v>5096.386</v>
       </c>
       <c r="G51" t="n">
-        <v>193.8266666666666</v>
+        <v>193.855</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>191.4</v>
+        <v>192.2</v>
       </c>
       <c r="C52" t="n">
-        <v>191.4</v>
+        <v>192</v>
       </c>
       <c r="D52" t="n">
-        <v>191.4</v>
+        <v>192.2</v>
       </c>
       <c r="E52" t="n">
-        <v>191.4</v>
+        <v>192</v>
       </c>
       <c r="F52" t="n">
-        <v>2368.184</v>
+        <v>111.2221</v>
       </c>
       <c r="G52" t="n">
-        <v>193.8083333333333</v>
+        <v>193.8266666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>192.9</v>
+        <v>191.4</v>
       </c>
       <c r="C53" t="n">
-        <v>192.9</v>
+        <v>191.4</v>
       </c>
       <c r="D53" t="n">
-        <v>192.9</v>
+        <v>191.4</v>
       </c>
       <c r="E53" t="n">
-        <v>192.9</v>
+        <v>191.4</v>
       </c>
       <c r="F53" t="n">
-        <v>11.2277</v>
+        <v>2368.184</v>
       </c>
       <c r="G53" t="n">
-        <v>193.8149999999999</v>
+        <v>193.8083333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="C54" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="D54" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="E54" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="F54" t="n">
-        <v>10.7164</v>
+        <v>11.2277</v>
       </c>
       <c r="G54" t="n">
-        <v>193.8299999999999</v>
+        <v>193.8149999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>191.7</v>
+        <v>192</v>
       </c>
       <c r="C55" t="n">
-        <v>191.3</v>
+        <v>192</v>
       </c>
       <c r="D55" t="n">
-        <v>191.7</v>
+        <v>192</v>
       </c>
       <c r="E55" t="n">
-        <v>191.3</v>
+        <v>192</v>
       </c>
       <c r="F55" t="n">
-        <v>201.5167</v>
+        <v>10.7164</v>
       </c>
       <c r="G55" t="n">
-        <v>193.8499999999999</v>
+        <v>193.8299999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>192.9</v>
+        <v>191.7</v>
       </c>
       <c r="C56" t="n">
         <v>191.3</v>
       </c>
       <c r="D56" t="n">
-        <v>192.9</v>
+        <v>191.7</v>
       </c>
       <c r="E56" t="n">
         <v>191.3</v>
       </c>
       <c r="F56" t="n">
-        <v>14.2734</v>
+        <v>201.5167</v>
       </c>
       <c r="G56" t="n">
-        <v>193.8699999999999</v>
+        <v>193.8499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="C57" t="n">
-        <v>192</v>
+        <v>191.3</v>
       </c>
       <c r="D57" t="n">
-        <v>192</v>
+        <v>192.9</v>
       </c>
       <c r="E57" t="n">
-        <v>192</v>
+        <v>191.3</v>
       </c>
       <c r="F57" t="n">
-        <v>70.4689</v>
+        <v>14.2734</v>
       </c>
       <c r="G57" t="n">
-        <v>193.9016666666666</v>
+        <v>193.8699999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>191.2</v>
+        <v>192</v>
       </c>
       <c r="C58" t="n">
-        <v>191.2</v>
+        <v>192</v>
       </c>
       <c r="D58" t="n">
         <v>192</v>
       </c>
       <c r="E58" t="n">
-        <v>191.2</v>
+        <v>192</v>
       </c>
       <c r="F58" t="n">
-        <v>3746.9744</v>
+        <v>70.4689</v>
       </c>
       <c r="G58" t="n">
-        <v>193.8883333333332</v>
+        <v>193.9016666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="C59" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="D59" t="n">
         <v>192</v>
       </c>
       <c r="E59" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>3746.9744</v>
       </c>
       <c r="G59" t="n">
-        <v>193.8616666666666</v>
+        <v>193.8883333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>192</v>
       </c>
       <c r="F60" t="n">
-        <v>2623.4938</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>193.8683333333332</v>
+        <v>193.8616666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>191.7</v>
+        <v>192</v>
       </c>
       <c r="C61" t="n">
-        <v>191.2</v>
+        <v>192</v>
       </c>
       <c r="D61" t="n">
-        <v>191.7</v>
+        <v>192</v>
       </c>
       <c r="E61" t="n">
-        <v>191.2</v>
+        <v>192</v>
       </c>
       <c r="F61" t="n">
-        <v>9232.8074</v>
+        <v>2623.4938</v>
       </c>
       <c r="G61" t="n">
-        <v>193.8583333333332</v>
+        <v>193.8683333333332</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>191.3</v>
+        <v>191.7</v>
       </c>
       <c r="C62" t="n">
-        <v>191.3</v>
+        <v>191.2</v>
       </c>
       <c r="D62" t="n">
-        <v>191.3</v>
+        <v>191.7</v>
       </c>
       <c r="E62" t="n">
-        <v>191.3</v>
+        <v>191.2</v>
       </c>
       <c r="F62" t="n">
-        <v>2828.7476</v>
+        <v>9232.8074</v>
       </c>
       <c r="G62" t="n">
-        <v>193.8149999999999</v>
+        <v>193.8583333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="C63" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="D63" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="E63" t="n">
-        <v>191.1</v>
+        <v>191.3</v>
       </c>
       <c r="F63" t="n">
-        <v>5657.495</v>
+        <v>2828.7476</v>
       </c>
       <c r="G63" t="n">
-        <v>193.7683333333333</v>
+        <v>193.8149999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>190.7</v>
+        <v>191.1</v>
       </c>
       <c r="C64" t="n">
-        <v>190.7</v>
+        <v>191.1</v>
       </c>
       <c r="D64" t="n">
-        <v>190.7</v>
+        <v>191.1</v>
       </c>
       <c r="E64" t="n">
-        <v>190.7</v>
+        <v>191.1</v>
       </c>
       <c r="F64" t="n">
-        <v>2828.7468</v>
+        <v>5657.495</v>
       </c>
       <c r="G64" t="n">
-        <v>193.7016666666666</v>
+        <v>193.7683333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>190.7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0009</v>
+        <v>2828.7468</v>
       </c>
       <c r="G65" t="n">
-        <v>193.6266666666666</v>
+        <v>193.7016666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="C66" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="D66" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="E66" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="F66" t="n">
-        <v>9730.641</v>
+        <v>0.0009</v>
       </c>
       <c r="G66" t="n">
-        <v>193.5733333333332</v>
+        <v>193.6266666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>190.8</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0003</v>
+        <v>9730.641</v>
       </c>
       <c r="G67" t="n">
-        <v>193.5016666666666</v>
+        <v>193.5733333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>190.8</v>
       </c>
       <c r="F68" t="n">
-        <v>656.9529</v>
+        <v>0.0003</v>
       </c>
       <c r="G68" t="n">
-        <v>193.4299999999999</v>
+        <v>193.5016666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>191.1</v>
+        <v>190.8</v>
       </c>
       <c r="C69" t="n">
-        <v>191.1</v>
+        <v>190.8</v>
       </c>
       <c r="D69" t="n">
-        <v>191.1</v>
+        <v>190.8</v>
       </c>
       <c r="E69" t="n">
-        <v>191.1</v>
+        <v>190.8</v>
       </c>
       <c r="F69" t="n">
-        <v>168.05</v>
+        <v>656.9529</v>
       </c>
       <c r="G69" t="n">
-        <v>193.3633333333332</v>
+        <v>193.4299999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>191.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2445.6469</v>
+        <v>168.05</v>
       </c>
       <c r="G70" t="n">
-        <v>193.2983333333332</v>
+        <v>193.3633333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="C71" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="D71" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="E71" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="F71" t="n">
-        <v>169.204</v>
+        <v>2445.6469</v>
       </c>
       <c r="G71" t="n">
-        <v>193.2483333333332</v>
+        <v>193.2983333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>192</v>
       </c>
       <c r="F72" t="n">
-        <v>482.107</v>
+        <v>169.204</v>
       </c>
       <c r="G72" t="n">
-        <v>193.1983333333332</v>
+        <v>193.2483333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>192</v>
       </c>
       <c r="C73" t="n">
-        <v>191.6</v>
+        <v>192</v>
       </c>
       <c r="D73" t="n">
         <v>192</v>
       </c>
       <c r="E73" t="n">
-        <v>191.6</v>
+        <v>192</v>
       </c>
       <c r="F73" t="n">
-        <v>4786.4182</v>
+        <v>482.107</v>
       </c>
       <c r="G73" t="n">
-        <v>193.1399999999999</v>
+        <v>193.1983333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>192</v>
+      </c>
+      <c r="C74" t="n">
         <v>191.6</v>
-      </c>
-      <c r="C74" t="n">
-        <v>192</v>
       </c>
       <c r="D74" t="n">
         <v>192</v>
@@ -2965,10 +2965,10 @@
         <v>191.6</v>
       </c>
       <c r="F74" t="n">
-        <v>943.282</v>
+        <v>4786.4182</v>
       </c>
       <c r="G74" t="n">
-        <v>193.0883333333332</v>
+        <v>193.1399999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>192</v>
+        <v>191.6</v>
       </c>
       <c r="C75" t="n">
         <v>192</v>
@@ -2997,13 +2997,13 @@
         <v>192</v>
       </c>
       <c r="E75" t="n">
-        <v>192</v>
+        <v>191.6</v>
       </c>
       <c r="F75" t="n">
-        <v>2400</v>
+        <v>943.282</v>
       </c>
       <c r="G75" t="n">
-        <v>193.0383333333332</v>
+        <v>193.0883333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="C76" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="D76" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="E76" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="F76" t="n">
-        <v>4562.5636</v>
+        <v>2400</v>
       </c>
       <c r="G76" t="n">
-        <v>192.9733333333332</v>
+        <v>193.0383333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="C77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="D77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="E77" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>4562.5636</v>
       </c>
       <c r="G77" t="n">
-        <v>192.9233333333332</v>
+        <v>192.9733333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>190.7</v>
+        <v>192</v>
       </c>
       <c r="C78" t="n">
-        <v>190.7</v>
+        <v>192</v>
       </c>
       <c r="D78" t="n">
-        <v>190.7</v>
+        <v>192</v>
       </c>
       <c r="E78" t="n">
-        <v>190.7</v>
+        <v>192</v>
       </c>
       <c r="F78" t="n">
-        <v>2823.654</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>192.8516666666665</v>
+        <v>192.9233333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="C79" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="D79" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="E79" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="F79" t="n">
-        <v>5761.375</v>
+        <v>2823.654</v>
       </c>
       <c r="G79" t="n">
-        <v>192.7816666666666</v>
+        <v>192.8516666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="C80" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="D80" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="E80" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>5761.375</v>
       </c>
       <c r="G80" t="n">
-        <v>192.7299999999999</v>
+        <v>192.7816666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>192</v>
       </c>
       <c r="F81" t="n">
-        <v>326.4297</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>192.6566666666666</v>
+        <v>192.7299999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>192</v>
       </c>
       <c r="F82" t="n">
-        <v>9.1624</v>
+        <v>326.4297</v>
       </c>
       <c r="G82" t="n">
-        <v>192.6066666666665</v>
+        <v>192.6566666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>192</v>
       </c>
       <c r="C83" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="D83" t="n">
         <v>192</v>
       </c>
       <c r="E83" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="F83" t="n">
-        <v>5106.012</v>
+        <v>9.1624</v>
       </c>
       <c r="G83" t="n">
-        <v>192.5233333333332</v>
+        <v>192.6066666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" t="n">
         <v>190.1</v>
       </c>
       <c r="D84" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E84" t="n">
         <v>190.1</v>
       </c>
       <c r="F84" t="n">
-        <v>4054.7265</v>
+        <v>5106.012</v>
       </c>
       <c r="G84" t="n">
-        <v>192.4416666666665</v>
+        <v>192.5233333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>191.9</v>
+        <v>191</v>
       </c>
       <c r="C85" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="D85" t="n">
-        <v>191.9</v>
+        <v>191</v>
       </c>
       <c r="E85" t="n">
-        <v>188.4</v>
+        <v>190.1</v>
       </c>
       <c r="F85" t="n">
-        <v>8649.0309</v>
+        <v>4054.7265</v>
       </c>
       <c r="G85" t="n">
-        <v>192.3583333333332</v>
+        <v>192.4416666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C86" t="n">
         <v>190</v>
       </c>
-      <c r="C86" t="n">
-        <v>189.9</v>
-      </c>
       <c r="D86" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="E86" t="n">
-        <v>188.1</v>
+        <v>188.4</v>
       </c>
       <c r="F86" t="n">
-        <v>501.7076</v>
+        <v>8649.0309</v>
       </c>
       <c r="G86" t="n">
-        <v>192.2516666666666</v>
+        <v>192.3583333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="C87" t="n">
         <v>189.9</v>
       </c>
       <c r="D87" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="E87" t="n">
-        <v>189.9</v>
+        <v>188.1</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>501.7076</v>
       </c>
       <c r="G87" t="n">
-        <v>192.1816666666665</v>
+        <v>192.2516666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>189.9</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>192.0749999999999</v>
+        <v>192.1816666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>189.9</v>
       </c>
       <c r="F89" t="n">
-        <v>1445.2799</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>191.9866666666665</v>
+        <v>192.0749999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>188.5</v>
+        <v>189.9</v>
       </c>
       <c r="C90" t="n">
-        <v>188.5</v>
+        <v>189.9</v>
       </c>
       <c r="D90" t="n">
-        <v>188.5</v>
+        <v>189.9</v>
       </c>
       <c r="E90" t="n">
-        <v>188.5</v>
+        <v>189.9</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1445.2799</v>
       </c>
       <c r="G90" t="n">
-        <v>191.8599999999998</v>
+        <v>191.9866666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>188.5</v>
       </c>
       <c r="C91" t="n">
-        <v>189.8</v>
+        <v>188.5</v>
       </c>
       <c r="D91" t="n">
-        <v>189.8</v>
+        <v>188.5</v>
       </c>
       <c r="E91" t="n">
         <v>188.5</v>
       </c>
       <c r="F91" t="n">
-        <v>6179.618</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>191.7899999999998</v>
+        <v>191.8599999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>189.7</v>
+        <v>188.5</v>
       </c>
       <c r="C92" t="n">
-        <v>189.7</v>
+        <v>189.8</v>
       </c>
       <c r="D92" t="n">
-        <v>189.7</v>
+        <v>189.8</v>
       </c>
       <c r="E92" t="n">
-        <v>189.7</v>
+        <v>188.5</v>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>6179.618</v>
       </c>
       <c r="G92" t="n">
-        <v>191.7333333333332</v>
+        <v>191.7899999999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>30</v>
       </c>
       <c r="G93" t="n">
-        <v>191.6916666666665</v>
+        <v>191.7333333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>189.7</v>
       </c>
       <c r="C94" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="D94" t="n">
         <v>189.7</v>
       </c>
       <c r="E94" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="F94" t="n">
-        <v>255.4838</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>191.6549999999998</v>
+        <v>191.6916666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>188.5</v>
+        <v>189.7</v>
       </c>
       <c r="C95" t="n">
-        <v>189.7</v>
+        <v>189</v>
       </c>
       <c r="D95" t="n">
         <v>189.7</v>
       </c>
       <c r="E95" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="F95" t="n">
-        <v>2772.89703584</v>
+        <v>255.4838</v>
       </c>
       <c r="G95" t="n">
-        <v>191.5833333333332</v>
+        <v>191.6549999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>189.7</v>
+        <v>188.5</v>
       </c>
       <c r="C96" t="n">
         <v>189.7</v>
@@ -3732,13 +3732,13 @@
         <v>189.7</v>
       </c>
       <c r="E96" t="n">
-        <v>189.7</v>
+        <v>188.3</v>
       </c>
       <c r="F96" t="n">
-        <v>9.99</v>
+        <v>2772.89703584</v>
       </c>
       <c r="G96" t="n">
-        <v>191.5133333333332</v>
+        <v>191.5833333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>189.7</v>
       </c>
       <c r="C97" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="D97" t="n">
         <v>189.7</v>
       </c>
       <c r="E97" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="F97" t="n">
-        <v>116.0614</v>
+        <v>9.99</v>
       </c>
       <c r="G97" t="n">
-        <v>191.4499999999998</v>
+        <v>191.5133333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="C98" t="n">
         <v>188.3</v>
       </c>
-      <c r="C98" t="n">
-        <v>189.5</v>
-      </c>
       <c r="D98" t="n">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="E98" t="n">
-        <v>188</v>
+        <v>188.3</v>
       </c>
       <c r="F98" t="n">
-        <v>4512.7266</v>
+        <v>116.0614</v>
       </c>
       <c r="G98" t="n">
-        <v>191.3583333333332</v>
+        <v>191.4499999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="C99" t="n">
         <v>189.5</v>
       </c>
-      <c r="C99" t="n">
-        <v>189.8</v>
-      </c>
       <c r="D99" t="n">
-        <v>189.8</v>
+        <v>189.5</v>
       </c>
       <c r="E99" t="n">
-        <v>189.4</v>
+        <v>188</v>
       </c>
       <c r="F99" t="n">
-        <v>128</v>
+        <v>4512.7266</v>
       </c>
       <c r="G99" t="n">
-        <v>191.3083333333332</v>
+        <v>191.3583333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C100" t="n">
         <v>189.8</v>
       </c>
-      <c r="C100" t="n">
-        <v>190</v>
-      </c>
       <c r="D100" t="n">
-        <v>190</v>
+        <v>189.8</v>
       </c>
       <c r="E100" t="n">
-        <v>189.8</v>
+        <v>189.4</v>
       </c>
       <c r="F100" t="n">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="G100" t="n">
-        <v>191.2249999999999</v>
+        <v>191.3083333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>189.5</v>
+        <v>189.8</v>
       </c>
       <c r="C101" t="n">
-        <v>191.1</v>
+        <v>190</v>
       </c>
       <c r="D101" t="n">
-        <v>191.1</v>
+        <v>190</v>
       </c>
       <c r="E101" t="n">
-        <v>188.1</v>
+        <v>189.8</v>
       </c>
       <c r="F101" t="n">
-        <v>703.2486</v>
+        <v>93</v>
       </c>
       <c r="G101" t="n">
-        <v>191.1966666666665</v>
+        <v>191.2249999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>191.1</v>
+        <v>189.5</v>
       </c>
       <c r="C102" t="n">
         <v>191.1</v>
@@ -3942,13 +3942,13 @@
         <v>191.1</v>
       </c>
       <c r="E102" t="n">
-        <v>191.1</v>
+        <v>188.1</v>
       </c>
       <c r="F102" t="n">
-        <v>30</v>
+        <v>703.2486</v>
       </c>
       <c r="G102" t="n">
-        <v>191.1316666666665</v>
+        <v>191.1966666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>190.9</v>
+        <v>191.1</v>
       </c>
       <c r="C103" t="n">
-        <v>190.9</v>
+        <v>191.1</v>
       </c>
       <c r="D103" t="n">
-        <v>190.9</v>
+        <v>191.1</v>
       </c>
       <c r="E103" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="F103" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G103" t="n">
-        <v>191.0949999999999</v>
+        <v>191.1316666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>189.5</v>
+        <v>190.9</v>
       </c>
       <c r="C104" t="n">
-        <v>188.1</v>
+        <v>190.9</v>
       </c>
       <c r="D104" t="n">
-        <v>189.5</v>
+        <v>190.9</v>
       </c>
       <c r="E104" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="F104" t="n">
-        <v>890.0343</v>
+        <v>42</v>
       </c>
       <c r="G104" t="n">
-        <v>191.0149999999999</v>
+        <v>191.0949999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C105" t="n">
         <v>188.1</v>
       </c>
-      <c r="C105" t="n">
-        <v>189.9</v>
-      </c>
       <c r="D105" t="n">
-        <v>189.9</v>
+        <v>189.5</v>
       </c>
       <c r="E105" t="n">
         <v>188.1</v>
       </c>
       <c r="F105" t="n">
-        <v>92.209</v>
+        <v>890.0343</v>
       </c>
       <c r="G105" t="n">
-        <v>190.9316666666665</v>
+        <v>191.0149999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C106" t="n">
         <v>189.9</v>
       </c>
-      <c r="C106" t="n">
-        <v>190</v>
-      </c>
       <c r="D106" t="n">
-        <v>190</v>
+        <v>189.9</v>
       </c>
       <c r="E106" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="F106" t="n">
-        <v>3688.1438576</v>
+        <v>92.209</v>
       </c>
       <c r="G106" t="n">
-        <v>190.8849999999999</v>
+        <v>190.9316666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C107" t="n">
         <v>190</v>
       </c>
-      <c r="C107" t="n">
-        <v>190.9</v>
-      </c>
       <c r="D107" t="n">
-        <v>192.3</v>
+        <v>190</v>
       </c>
       <c r="E107" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F107" t="n">
-        <v>311</v>
+        <v>3688.1438576</v>
       </c>
       <c r="G107" t="n">
-        <v>190.8533333333332</v>
+        <v>190.8849999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108" t="n">
-        <v>189</v>
+        <v>190.9</v>
       </c>
       <c r="D108" t="n">
-        <v>190</v>
+        <v>192.3</v>
       </c>
       <c r="E108" t="n">
         <v>189</v>
       </c>
       <c r="F108" t="n">
-        <v>100.3572</v>
+        <v>311</v>
       </c>
       <c r="G108" t="n">
-        <v>190.7899999999999</v>
+        <v>190.8533333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>189</v>
       </c>
       <c r="C109" t="n">
-        <v>189.9</v>
+        <v>189</v>
       </c>
       <c r="D109" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="E109" t="n">
         <v>189</v>
       </c>
       <c r="F109" t="n">
-        <v>39.8203</v>
+        <v>100.3572</v>
       </c>
       <c r="G109" t="n">
-        <v>190.7416666666666</v>
+        <v>190.7899999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>189</v>
+      </c>
+      <c r="C110" t="n">
         <v>189.9</v>
       </c>
-      <c r="C110" t="n">
-        <v>190.9</v>
-      </c>
       <c r="D110" t="n">
-        <v>190.9</v>
+        <v>189.9</v>
       </c>
       <c r="E110" t="n">
-        <v>188.2</v>
+        <v>189</v>
       </c>
       <c r="F110" t="n">
-        <v>1768.83533096</v>
+        <v>39.8203</v>
       </c>
       <c r="G110" t="n">
-        <v>190.7199999999999</v>
+        <v>190.7416666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C111" t="n">
         <v>190.9</v>
-      </c>
-      <c r="C111" t="n">
-        <v>188.2</v>
       </c>
       <c r="D111" t="n">
         <v>190.9</v>
@@ -4260,10 +4260,10 @@
         <v>188.2</v>
       </c>
       <c r="F111" t="n">
-        <v>91.6901</v>
+        <v>1768.83533096</v>
       </c>
       <c r="G111" t="n">
-        <v>190.6566666666666</v>
+        <v>190.7199999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="C112" t="n">
-        <v>190.8</v>
+        <v>188.2</v>
       </c>
       <c r="D112" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="E112" t="n">
-        <v>190.8</v>
+        <v>188.2</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>91.6901</v>
       </c>
       <c r="G112" t="n">
-        <v>190.6466666666666</v>
+        <v>190.6566666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>190.8</v>
       </c>
       <c r="F113" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>190.6116666666666</v>
+        <v>190.6466666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>190.8</v>
       </c>
       <c r="C114" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="D114" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="E114" t="n">
         <v>190.8</v>
       </c>
       <c r="F114" t="n">
-        <v>103.3356</v>
+        <v>3.4</v>
       </c>
       <c r="G114" t="n">
-        <v>190.5933333333332</v>
+        <v>190.6116666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="C115" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="D115" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="E115" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="F115" t="n">
-        <v>5</v>
+        <v>103.3356</v>
       </c>
       <c r="G115" t="n">
-        <v>190.5716666666666</v>
+        <v>190.5933333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>190</v>
       </c>
       <c r="F116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>190.5499999999999</v>
+        <v>190.5716666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>190</v>
       </c>
       <c r="C117" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="D117" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="E117" t="n">
         <v>190</v>
       </c>
       <c r="F117" t="n">
-        <v>4621.40038952</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>190.5316666666666</v>
+        <v>190.5499999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>189.6</v>
+        <v>190</v>
       </c>
       <c r="C118" t="n">
-        <v>191.7</v>
+        <v>190.9</v>
       </c>
       <c r="D118" t="n">
-        <v>191.7</v>
+        <v>190.9</v>
       </c>
       <c r="E118" t="n">
-        <v>189.6</v>
+        <v>190</v>
       </c>
       <c r="F118" t="n">
-        <v>103</v>
+        <v>4621.40038952</v>
       </c>
       <c r="G118" t="n">
-        <v>190.5399999999999</v>
+        <v>190.5316666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>189.7</v>
+        <v>189.6</v>
       </c>
       <c r="C119" t="n">
         <v>191.7</v>
@@ -4537,13 +4537,13 @@
         <v>191.7</v>
       </c>
       <c r="E119" t="n">
-        <v>189.7</v>
+        <v>189.6</v>
       </c>
       <c r="F119" t="n">
-        <v>279.2319</v>
+        <v>103</v>
       </c>
       <c r="G119" t="n">
-        <v>190.5349999999999</v>
+        <v>190.5399999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>190</v>
+        <v>189.7</v>
       </c>
       <c r="C120" t="n">
         <v>191.7</v>
@@ -4572,13 +4572,13 @@
         <v>191.7</v>
       </c>
       <c r="E120" t="n">
-        <v>190</v>
+        <v>189.7</v>
       </c>
       <c r="F120" t="n">
-        <v>164.4896</v>
+        <v>279.2319</v>
       </c>
       <c r="G120" t="n">
-        <v>190.5299999999999</v>
+        <v>190.5349999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>189.5</v>
+        <v>190</v>
       </c>
       <c r="C121" t="n">
-        <v>189.1</v>
+        <v>191.7</v>
       </c>
       <c r="D121" t="n">
-        <v>189.5</v>
+        <v>191.7</v>
       </c>
       <c r="E121" t="n">
-        <v>189.1</v>
+        <v>190</v>
       </c>
       <c r="F121" t="n">
-        <v>4724.637</v>
+        <v>164.4896</v>
       </c>
       <c r="G121" t="n">
-        <v>190.4949999999999</v>
+        <v>190.5299999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,28 +4633,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>191.6</v>
+        <v>189.5</v>
       </c>
       <c r="C122" t="n">
-        <v>191.6</v>
+        <v>189.1</v>
       </c>
       <c r="D122" t="n">
-        <v>191.6</v>
+        <v>189.5</v>
       </c>
       <c r="E122" t="n">
-        <v>191.6</v>
+        <v>189.1</v>
       </c>
       <c r="F122" t="n">
-        <v>36.53444676</v>
+        <v>4724.637</v>
       </c>
       <c r="G122" t="n">
-        <v>190.4999999999999</v>
+        <v>190.4949999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>190</v>
+        <v>191.6</v>
       </c>
       <c r="C123" t="n">
-        <v>189</v>
+        <v>191.6</v>
       </c>
       <c r="D123" t="n">
-        <v>190</v>
+        <v>191.6</v>
       </c>
       <c r="E123" t="n">
-        <v>189</v>
+        <v>191.6</v>
       </c>
       <c r="F123" t="n">
-        <v>318.7902</v>
+        <v>36.53444676</v>
       </c>
       <c r="G123" t="n">
-        <v>190.4649999999999</v>
+        <v>190.4999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,25 +4706,25 @@
         <v>190</v>
       </c>
       <c r="C124" t="n">
-        <v>190.9</v>
+        <v>189</v>
       </c>
       <c r="D124" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="E124" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F124" t="n">
-        <v>7302.75</v>
+        <v>318.7902</v>
       </c>
       <c r="G124" t="n">
-        <v>190.4683333333332</v>
+        <v>190.4649999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="C125" t="n">
         <v>190.9</v>
       </c>
       <c r="D125" t="n">
-        <v>191.6</v>
+        <v>190.9</v>
       </c>
       <c r="E125" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="F125" t="n">
-        <v>1418.2181</v>
+        <v>7302.75</v>
       </c>
       <c r="G125" t="n">
-        <v>190.4716666666666</v>
+        <v>190.4683333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>190.9</v>
+        <v>191.6</v>
       </c>
       <c r="C126" t="n">
         <v>190.9</v>
       </c>
       <c r="D126" t="n">
-        <v>190.9</v>
+        <v>191.6</v>
       </c>
       <c r="E126" t="n">
         <v>190.9</v>
       </c>
       <c r="F126" t="n">
-        <v>1347</v>
+        <v>1418.2181</v>
       </c>
       <c r="G126" t="n">
-        <v>190.4733333333332</v>
+        <v>190.4716666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,16 +4820,16 @@
         <v>190.9</v>
       </c>
       <c r="F127" t="n">
-        <v>183.1513</v>
+        <v>1347</v>
       </c>
       <c r="G127" t="n">
-        <v>190.4749999999999</v>
+        <v>190.4733333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4846,25 +4846,25 @@
         <v>190.9</v>
       </c>
       <c r="C128" t="n">
-        <v>189.6</v>
+        <v>190.9</v>
       </c>
       <c r="D128" t="n">
         <v>190.9</v>
       </c>
       <c r="E128" t="n">
-        <v>189.6</v>
+        <v>190.9</v>
       </c>
       <c r="F128" t="n">
-        <v>5180.4076</v>
+        <v>183.1513</v>
       </c>
       <c r="G128" t="n">
-        <v>190.4549999999999</v>
+        <v>190.4749999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="C129" t="n">
-        <v>190</v>
+        <v>189.6</v>
       </c>
       <c r="D129" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="E129" t="n">
-        <v>190</v>
+        <v>189.6</v>
       </c>
       <c r="F129" t="n">
-        <v>60.7179</v>
+        <v>5180.4076</v>
       </c>
       <c r="G129" t="n">
-        <v>190.4366666666666</v>
+        <v>190.4549999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>190</v>
       </c>
       <c r="F130" t="n">
-        <v>193.387</v>
+        <v>60.7179</v>
       </c>
       <c r="G130" t="n">
-        <v>190.4183333333332</v>
+        <v>190.4366666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>190</v>
       </c>
       <c r="F131" t="n">
-        <v>4289.9207</v>
+        <v>193.387</v>
       </c>
       <c r="G131" t="n">
-        <v>190.3849999999999</v>
+        <v>190.4183333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="C132" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="D132" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="E132" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>4289.9207</v>
       </c>
       <c r="G132" t="n">
-        <v>190.3783333333332</v>
+        <v>190.3849999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>191.6</v>
       </c>
       <c r="F133" t="n">
-        <v>7256.6748</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
         <v>190.3783333333332</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>191.5</v>
+        <v>191.6</v>
       </c>
       <c r="C134" t="n">
-        <v>191.7</v>
+        <v>191.6</v>
       </c>
       <c r="D134" t="n">
-        <v>191.7</v>
+        <v>191.6</v>
       </c>
       <c r="E134" t="n">
-        <v>191.5</v>
+        <v>191.6</v>
       </c>
       <c r="F134" t="n">
-        <v>7003</v>
+        <v>7256.6748</v>
       </c>
       <c r="G134" t="n">
-        <v>190.3733333333333</v>
+        <v>190.3783333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,28 +5088,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>191.8</v>
+        <v>191.5</v>
       </c>
       <c r="C135" t="n">
-        <v>191.8</v>
+        <v>191.7</v>
       </c>
       <c r="D135" t="n">
-        <v>191.8</v>
+        <v>191.7</v>
       </c>
       <c r="E135" t="n">
-        <v>191.8</v>
+        <v>191.5</v>
       </c>
       <c r="F135" t="n">
-        <v>2.7</v>
+        <v>7003</v>
       </c>
       <c r="G135" t="n">
-        <v>190.3699999999999</v>
+        <v>190.3733333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5126,19 +5126,19 @@
         <v>191.8</v>
       </c>
       <c r="C136" t="n">
-        <v>192.3</v>
+        <v>191.8</v>
       </c>
       <c r="D136" t="n">
-        <v>192.3</v>
+        <v>191.8</v>
       </c>
       <c r="E136" t="n">
         <v>191.8</v>
       </c>
       <c r="F136" t="n">
-        <v>83.179</v>
+        <v>2.7</v>
       </c>
       <c r="G136" t="n">
-        <v>190.3899999999999</v>
+        <v>190.3699999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,28 +5158,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>191</v>
+        <v>191.8</v>
       </c>
       <c r="C137" t="n">
-        <v>191</v>
+        <v>192.3</v>
       </c>
       <c r="D137" t="n">
-        <v>191</v>
+        <v>192.3</v>
       </c>
       <c r="E137" t="n">
-        <v>191</v>
+        <v>191.8</v>
       </c>
       <c r="F137" t="n">
-        <v>157.5455</v>
+        <v>83.179</v>
       </c>
       <c r="G137" t="n">
-        <v>190.3733333333332</v>
+        <v>190.3899999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C138" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D138" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E138" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F138" t="n">
-        <v>6.7</v>
+        <v>157.5455</v>
       </c>
       <c r="G138" t="n">
-        <v>190.3949999999999</v>
+        <v>190.3733333333332</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,28 +5228,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="C139" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="D139" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="E139" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="F139" t="n">
-        <v>30.7139</v>
+        <v>6.7</v>
       </c>
       <c r="G139" t="n">
-        <v>190.3966666666666</v>
+        <v>190.3949999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5263,19 +5263,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="C140" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="D140" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="E140" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>30.7139</v>
       </c>
       <c r="G140" t="n">
         <v>190.3966666666666</v>
@@ -5298,28 +5298,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C141" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="D141" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E141" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="F141" t="n">
-        <v>326.4297</v>
+        <v>3</v>
       </c>
       <c r="G141" t="n">
-        <v>190.3783333333332</v>
+        <v>190.3966666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5333,19 +5333,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C142" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="D142" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E142" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="F142" t="n">
-        <v>2.7</v>
+        <v>326.4297</v>
       </c>
       <c r="G142" t="n">
         <v>190.3783333333332</v>
@@ -5368,28 +5368,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="C143" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="D143" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="E143" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="F143" t="n">
-        <v>299.7486</v>
+        <v>2.7</v>
       </c>
       <c r="G143" t="n">
-        <v>190.3916666666665</v>
+        <v>190.3783333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="C144" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="D144" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E144" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="F144" t="n">
-        <v>8191.5841</v>
+        <v>299.7486</v>
       </c>
       <c r="G144" t="n">
-        <v>190.4033333333332</v>
+        <v>190.3916666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>190.8</v>
+        <v>191</v>
       </c>
       <c r="C145" t="n">
         <v>190.8</v>
       </c>
       <c r="D145" t="n">
-        <v>190.8</v>
+        <v>191</v>
       </c>
       <c r="E145" t="n">
         <v>190.8</v>
       </c>
       <c r="F145" t="n">
-        <v>492.945</v>
+        <v>8191.5841</v>
       </c>
       <c r="G145" t="n">
-        <v>190.4166666666665</v>
+        <v>190.4033333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>190.3</v>
+        <v>190.8</v>
       </c>
       <c r="C146" t="n">
-        <v>190.3</v>
+        <v>190.8</v>
       </c>
       <c r="D146" t="n">
-        <v>190.3</v>
+        <v>190.8</v>
       </c>
       <c r="E146" t="n">
-        <v>190.3</v>
+        <v>190.8</v>
       </c>
       <c r="F146" t="n">
-        <v>1050</v>
+        <v>492.945</v>
       </c>
       <c r="G146" t="n">
-        <v>190.4233333333332</v>
+        <v>190.4166666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="C147" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="D147" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="E147" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="F147" t="n">
-        <v>9.975</v>
+        <v>1050</v>
       </c>
       <c r="G147" t="n">
-        <v>190.4249999999998</v>
+        <v>190.4233333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="C148" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="D148" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="E148" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="F148" t="n">
-        <v>22.7002</v>
+        <v>9.975</v>
       </c>
       <c r="G148" t="n">
-        <v>190.4583333333332</v>
+        <v>190.4249999999998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>191.8</v>
+        <v>190.2</v>
       </c>
       <c r="C149" t="n">
-        <v>191.8</v>
+        <v>191.9</v>
       </c>
       <c r="D149" t="n">
-        <v>191.8</v>
+        <v>191.9</v>
       </c>
       <c r="E149" t="n">
-        <v>191.8</v>
+        <v>190.2</v>
       </c>
       <c r="F149" t="n">
-        <v>4075.948</v>
+        <v>22.7002</v>
       </c>
       <c r="G149" t="n">
-        <v>190.4899999999998</v>
+        <v>190.4583333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>191.7</v>
+        <v>191.8</v>
       </c>
       <c r="C150" t="n">
-        <v>191.7</v>
+        <v>191.8</v>
       </c>
       <c r="D150" t="n">
-        <v>191.7</v>
+        <v>191.8</v>
       </c>
       <c r="E150" t="n">
-        <v>191.7</v>
+        <v>191.8</v>
       </c>
       <c r="F150" t="n">
-        <v>1705.36254564</v>
+        <v>4075.948</v>
       </c>
       <c r="G150" t="n">
-        <v>190.5433333333332</v>
+        <v>190.4899999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,16 +5660,16 @@
         <v>191.7</v>
       </c>
       <c r="F151" t="n">
-        <v>124</v>
+        <v>1705.36254564</v>
       </c>
       <c r="G151" t="n">
-        <v>190.5749999999999</v>
+        <v>190.5433333333332</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5695,10 +5695,10 @@
         <v>191.7</v>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>124</v>
       </c>
       <c r="G152" t="n">
-        <v>190.6083333333332</v>
+        <v>190.5749999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,16 +5730,16 @@
         <v>191.7</v>
       </c>
       <c r="F153" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="G153" t="n">
-        <v>190.6416666666665</v>
+        <v>190.6083333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5765,16 +5765,16 @@
         <v>191.7</v>
       </c>
       <c r="F154" t="n">
-        <v>31.29890453</v>
+        <v>360</v>
       </c>
       <c r="G154" t="n">
-        <v>190.6866666666666</v>
+        <v>190.6416666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>191.5</v>
+        <v>191.7</v>
       </c>
       <c r="C155" t="n">
-        <v>191.5</v>
+        <v>191.7</v>
       </c>
       <c r="D155" t="n">
-        <v>191.5</v>
+        <v>191.7</v>
       </c>
       <c r="E155" t="n">
-        <v>191.5</v>
+        <v>191.7</v>
       </c>
       <c r="F155" t="n">
-        <v>83.6195</v>
+        <v>31.29890453</v>
       </c>
       <c r="G155" t="n">
-        <v>190.7166666666666</v>
+        <v>190.6866666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>191.3</v>
+        <v>191.5</v>
       </c>
       <c r="C156" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="D156" t="n">
-        <v>191.3</v>
+        <v>191.5</v>
       </c>
       <c r="E156" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="F156" t="n">
-        <v>12108.5399</v>
+        <v>83.6195</v>
       </c>
       <c r="G156" t="n">
-        <v>190.7216666666665</v>
+        <v>190.7166666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,28 +5858,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="C157" t="n">
         <v>190</v>
       </c>
-      <c r="C157" t="n">
-        <v>189.8</v>
-      </c>
       <c r="D157" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="E157" t="n">
         <v>190</v>
       </c>
-      <c r="E157" t="n">
-        <v>189.8</v>
-      </c>
       <c r="F157" t="n">
-        <v>7270.1748</v>
+        <v>12108.5399</v>
       </c>
       <c r="G157" t="n">
-        <v>190.7466666666665</v>
+        <v>190.7216666666665</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="C158" t="n">
-        <v>188.8</v>
+        <v>189.8</v>
       </c>
       <c r="D158" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="E158" t="n">
-        <v>188.8</v>
+        <v>189.8</v>
       </c>
       <c r="F158" t="n">
-        <v>40000</v>
+        <v>7270.1748</v>
       </c>
       <c r="G158" t="n">
-        <v>190.7349999999998</v>
+        <v>190.7466666666665</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>190.5</v>
+        <v>189.9</v>
       </c>
       <c r="C159" t="n">
-        <v>190.5</v>
+        <v>188.8</v>
       </c>
       <c r="D159" t="n">
-        <v>190.5</v>
+        <v>189.9</v>
       </c>
       <c r="E159" t="n">
-        <v>190.5</v>
+        <v>188.8</v>
       </c>
       <c r="F159" t="n">
-        <v>4817.1067</v>
+        <v>40000</v>
       </c>
       <c r="G159" t="n">
-        <v>190.7466666666665</v>
+        <v>190.7349999999998</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>190.5</v>
       </c>
       <c r="F160" t="n">
-        <v>973.331</v>
+        <v>4817.1067</v>
       </c>
       <c r="G160" t="n">
-        <v>190.7549999999999</v>
+        <v>190.7466666666665</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="C161" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="D161" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="E161" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="F161" t="n">
-        <v>304.6756</v>
+        <v>973.331</v>
       </c>
       <c r="G161" t="n">
-        <v>190.7216666666665</v>
+        <v>190.7549999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="C162" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="D162" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="E162" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="F162" t="n">
-        <v>281.084</v>
+        <v>304.6756</v>
       </c>
       <c r="G162" t="n">
-        <v>190.7116666666665</v>
+        <v>190.7216666666665</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="C163" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="D163" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="E163" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="F163" t="n">
-        <v>2424.2938</v>
+        <v>281.084</v>
       </c>
       <c r="G163" t="n">
-        <v>190.6816666666665</v>
+        <v>190.7116666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="C164" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="D164" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="E164" t="n">
-        <v>190.5</v>
+        <v>189.1</v>
       </c>
       <c r="F164" t="n">
-        <v>375</v>
+        <v>2424.2938</v>
       </c>
       <c r="G164" t="n">
-        <v>190.7216666666665</v>
+        <v>190.6816666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>190.5</v>
       </c>
       <c r="F165" t="n">
-        <v>571.133</v>
+        <v>375</v>
       </c>
       <c r="G165" t="n">
-        <v>190.7316666666665</v>
+        <v>190.7216666666665</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>190.5</v>
       </c>
       <c r="F166" t="n">
-        <v>2192.657</v>
+        <v>571.133</v>
       </c>
       <c r="G166" t="n">
-        <v>190.7399999999999</v>
+        <v>190.7316666666665</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>190.5</v>
       </c>
       <c r="F167" t="n">
-        <v>473.536</v>
+        <v>2192.657</v>
       </c>
       <c r="G167" t="n">
-        <v>190.7333333333332</v>
+        <v>190.7399999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>190.5</v>
       </c>
       <c r="F168" t="n">
-        <v>275</v>
+        <v>473.536</v>
       </c>
       <c r="G168" t="n">
-        <v>190.7583333333332</v>
+        <v>190.7333333333332</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="C169" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="D169" t="n">
-        <v>189.1</v>
+        <v>190.5</v>
       </c>
       <c r="E169" t="n">
-        <v>187.2</v>
+        <v>190.5</v>
       </c>
       <c r="F169" t="n">
-        <v>32522.1155</v>
+        <v>275</v>
       </c>
       <c r="G169" t="n">
-        <v>190.7449999999999</v>
+        <v>190.7583333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6322,13 +6322,13 @@
         <v>189.1</v>
       </c>
       <c r="E170" t="n">
-        <v>189.1</v>
+        <v>187.2</v>
       </c>
       <c r="F170" t="n">
-        <v>145.1455</v>
+        <v>32522.1155</v>
       </c>
       <c r="G170" t="n">
-        <v>190.7149999999999</v>
+        <v>190.7449999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>190.4</v>
+        <v>189.1</v>
       </c>
       <c r="C171" t="n">
-        <v>190.4</v>
+        <v>189.1</v>
       </c>
       <c r="D171" t="n">
-        <v>190.4</v>
+        <v>189.1</v>
       </c>
       <c r="E171" t="n">
-        <v>190.4</v>
+        <v>189.1</v>
       </c>
       <c r="F171" t="n">
-        <v>498.587</v>
+        <v>145.1455</v>
       </c>
       <c r="G171" t="n">
-        <v>190.7516666666666</v>
+        <v>190.7149999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>190.4</v>
       </c>
       <c r="F172" t="n">
-        <v>490.131</v>
+        <v>498.587</v>
       </c>
       <c r="G172" t="n">
-        <v>190.7449999999999</v>
+        <v>190.7516666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>189.3</v>
+        <v>190.4</v>
       </c>
       <c r="C173" t="n">
-        <v>189.3</v>
+        <v>190.4</v>
       </c>
       <c r="D173" t="n">
-        <v>189.3</v>
+        <v>190.4</v>
       </c>
       <c r="E173" t="n">
-        <v>189.3</v>
+        <v>190.4</v>
       </c>
       <c r="F173" t="n">
-        <v>6041.3404</v>
+        <v>490.131</v>
       </c>
       <c r="G173" t="n">
-        <v>190.7199999999999</v>
+        <v>190.7449999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>189.3</v>
       </c>
       <c r="F174" t="n">
-        <v>5938.7505</v>
+        <v>6041.3404</v>
       </c>
       <c r="G174" t="n">
-        <v>190.6933333333332</v>
+        <v>190.7199999999999</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>190.9</v>
+        <v>189.3</v>
       </c>
       <c r="C175" t="n">
-        <v>190.9</v>
+        <v>189.3</v>
       </c>
       <c r="D175" t="n">
-        <v>190.9</v>
+        <v>189.3</v>
       </c>
       <c r="E175" t="n">
-        <v>190.9</v>
+        <v>189.3</v>
       </c>
       <c r="F175" t="n">
-        <v>2344</v>
+        <v>5938.7505</v>
       </c>
       <c r="G175" t="n">
-        <v>190.7083333333332</v>
+        <v>190.6933333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>189.4</v>
+        <v>190.9</v>
       </c>
       <c r="C176" t="n">
-        <v>189.4</v>
+        <v>190.9</v>
       </c>
       <c r="D176" t="n">
-        <v>189.4</v>
+        <v>190.9</v>
       </c>
       <c r="E176" t="n">
-        <v>189.4</v>
+        <v>190.9</v>
       </c>
       <c r="F176" t="n">
-        <v>455.8979</v>
+        <v>2344</v>
       </c>
       <c r="G176" t="n">
-        <v>190.6983333333332</v>
+        <v>190.7083333333332</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>189.4</v>
       </c>
       <c r="F177" t="n">
-        <v>5982.3206</v>
+        <v>455.8979</v>
       </c>
       <c r="G177" t="n">
-        <v>190.6733333333332</v>
+        <v>190.6983333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6596,19 @@
         <v>189.4</v>
       </c>
       <c r="C178" t="n">
-        <v>190.9</v>
+        <v>189.4</v>
       </c>
       <c r="D178" t="n">
-        <v>190.9</v>
+        <v>189.4</v>
       </c>
       <c r="E178" t="n">
         <v>189.4</v>
       </c>
       <c r="F178" t="n">
-        <v>7288</v>
+        <v>5982.3206</v>
       </c>
       <c r="G178" t="n">
-        <v>190.6599999999999</v>
+        <v>190.6733333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>189.3</v>
+        <v>189.4</v>
       </c>
       <c r="C179" t="n">
         <v>190.9</v>
@@ -6637,13 +6637,13 @@
         <v>190.9</v>
       </c>
       <c r="E179" t="n">
-        <v>189.3</v>
+        <v>189.4</v>
       </c>
       <c r="F179" t="n">
-        <v>15980</v>
+        <v>7288</v>
       </c>
       <c r="G179" t="n">
-        <v>190.6466666666665</v>
+        <v>190.6599999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>189.2</v>
+        <v>189.3</v>
       </c>
       <c r="C180" t="n">
-        <v>189.2</v>
+        <v>190.9</v>
       </c>
       <c r="D180" t="n">
-        <v>189.2</v>
+        <v>190.9</v>
       </c>
       <c r="E180" t="n">
-        <v>189.2</v>
+        <v>189.3</v>
       </c>
       <c r="F180" t="n">
-        <v>215.9781</v>
+        <v>15980</v>
       </c>
       <c r="G180" t="n">
-        <v>190.6049999999998</v>
+        <v>190.6466666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +6701,19 @@
         <v>189.2</v>
       </c>
       <c r="C181" t="n">
-        <v>190.8</v>
+        <v>189.2</v>
       </c>
       <c r="D181" t="n">
-        <v>190.8</v>
+        <v>189.2</v>
       </c>
       <c r="E181" t="n">
         <v>189.2</v>
       </c>
       <c r="F181" t="n">
-        <v>1628.294</v>
+        <v>215.9781</v>
       </c>
       <c r="G181" t="n">
-        <v>190.6333333333332</v>
+        <v>190.6049999999998</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>188.9</v>
+        <v>189.2</v>
       </c>
       <c r="C182" t="n">
-        <v>188.9</v>
+        <v>190.8</v>
       </c>
       <c r="D182" t="n">
-        <v>188.9</v>
+        <v>190.8</v>
       </c>
       <c r="E182" t="n">
-        <v>188.9</v>
+        <v>189.2</v>
       </c>
       <c r="F182" t="n">
-        <v>85.3125</v>
+        <v>1628.294</v>
       </c>
       <c r="G182" t="n">
-        <v>190.5883333333331</v>
+        <v>190.6333333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>190.8</v>
+        <v>188.9</v>
       </c>
       <c r="C183" t="n">
-        <v>190.8</v>
+        <v>188.9</v>
       </c>
       <c r="D183" t="n">
-        <v>190.9</v>
+        <v>188.9</v>
       </c>
       <c r="E183" t="n">
-        <v>190.8</v>
+        <v>188.9</v>
       </c>
       <c r="F183" t="n">
-        <v>4337.561</v>
+        <v>85.3125</v>
       </c>
       <c r="G183" t="n">
-        <v>190.6183333333331</v>
+        <v>190.5883333333331</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,19 +6803,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="C184" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="D184" t="n">
         <v>190.9</v>
       </c>
       <c r="E184" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="F184" t="n">
-        <v>4688</v>
+        <v>4337.561</v>
       </c>
       <c r="G184" t="n">
         <v>190.6183333333331</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>188.8</v>
+        <v>190.9</v>
       </c>
       <c r="C185" t="n">
-        <v>188.8</v>
+        <v>190.9</v>
       </c>
       <c r="D185" t="n">
-        <v>188.8</v>
+        <v>190.9</v>
       </c>
       <c r="E185" t="n">
-        <v>188.8</v>
+        <v>190.9</v>
       </c>
       <c r="F185" t="n">
-        <v>239.6235</v>
+        <v>4688</v>
       </c>
       <c r="G185" t="n">
-        <v>190.5833333333331</v>
+        <v>190.6183333333331</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,19 +6873,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>190.9</v>
+        <v>188.8</v>
       </c>
       <c r="C186" t="n">
-        <v>190.9</v>
+        <v>188.8</v>
       </c>
       <c r="D186" t="n">
-        <v>190.9</v>
+        <v>188.8</v>
       </c>
       <c r="E186" t="n">
-        <v>190.9</v>
+        <v>188.8</v>
       </c>
       <c r="F186" t="n">
-        <v>2344</v>
+        <v>239.6235</v>
       </c>
       <c r="G186" t="n">
         <v>190.5833333333331</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="C187" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="D187" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E187" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="F187" t="n">
-        <v>1047.12041884</v>
+        <v>2344</v>
       </c>
       <c r="G187" t="n">
-        <v>190.5849999999998</v>
+        <v>190.5833333333331</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C188" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="D188" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="E188" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="F188" t="n">
-        <v>247.6166</v>
+        <v>1047.12041884</v>
       </c>
       <c r="G188" t="n">
-        <v>190.6066666666665</v>
+        <v>190.5849999999998</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>190.9</v>
       </c>
       <c r="F189" t="n">
-        <v>622.8212</v>
+        <v>247.6166</v>
       </c>
       <c r="G189" t="n">
-        <v>190.6216666666664</v>
+        <v>190.6066666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>190.9</v>
       </c>
       <c r="F190" t="n">
-        <v>158.8516</v>
+        <v>622.8212</v>
       </c>
       <c r="G190" t="n">
-        <v>190.6366666666664</v>
+        <v>190.6216666666664</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="C191" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="D191" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E191" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="F191" t="n">
-        <v>2249.5181</v>
+        <v>158.8516</v>
       </c>
       <c r="G191" t="n">
-        <v>190.6533333333331</v>
+        <v>190.6366666666664</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C192" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="D192" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="E192" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="F192" t="n">
-        <v>1500</v>
+        <v>2249.5181</v>
       </c>
       <c r="G192" t="n">
-        <v>190.6416666666664</v>
+        <v>190.6533333333331</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="C193" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="D193" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E193" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="F193" t="n">
-        <v>6.2448</v>
+        <v>1500</v>
       </c>
       <c r="G193" t="n">
-        <v>190.6316666666664</v>
+        <v>190.6416666666664</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>191</v>
       </c>
       <c r="F194" t="n">
-        <v>2179.155</v>
+        <v>6.2448</v>
       </c>
       <c r="G194" t="n">
-        <v>190.6199999999997</v>
+        <v>190.6316666666664</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>191</v>
       </c>
       <c r="F195" t="n">
-        <v>519.155</v>
+        <v>2179.155</v>
       </c>
       <c r="G195" t="n">
-        <v>190.6066666666664</v>
+        <v>190.6199999999997</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>191</v>
       </c>
       <c r="F196" t="n">
-        <v>726.667</v>
+        <v>519.155</v>
       </c>
       <c r="G196" t="n">
-        <v>190.5849999999998</v>
+        <v>190.6066666666664</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>191</v>
       </c>
       <c r="F197" t="n">
-        <v>2019.624</v>
+        <v>726.667</v>
       </c>
       <c r="G197" t="n">
         <v>190.5849999999998</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C198" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="D198" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="E198" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="F198" t="n">
-        <v>436.9144</v>
+        <v>2019.624</v>
       </c>
       <c r="G198" t="n">
-        <v>190.5666666666664</v>
+        <v>190.5849999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>190.9</v>
       </c>
       <c r="C199" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="D199" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E199" t="n">
         <v>190.9</v>
       </c>
       <c r="F199" t="n">
-        <v>2820</v>
+        <v>436.9144</v>
       </c>
       <c r="G199" t="n">
-        <v>190.5683333333331</v>
+        <v>190.5666666666664</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C200" t="n">
         <v>191</v>
       </c>
-      <c r="C200" t="n">
-        <v>191.7</v>
-      </c>
       <c r="D200" t="n">
-        <v>191.7</v>
+        <v>191</v>
       </c>
       <c r="E200" t="n">
-        <v>189.5</v>
+        <v>190.9</v>
       </c>
       <c r="F200" t="n">
-        <v>38049.917</v>
+        <v>2820</v>
       </c>
       <c r="G200" t="n">
-        <v>190.5633333333331</v>
+        <v>190.5683333333331</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>189.4</v>
+        <v>191</v>
       </c>
       <c r="C201" t="n">
-        <v>189.4</v>
+        <v>191.7</v>
       </c>
       <c r="D201" t="n">
-        <v>189.4</v>
+        <v>191.7</v>
       </c>
       <c r="E201" t="n">
-        <v>189.4</v>
+        <v>189.5</v>
       </c>
       <c r="F201" t="n">
-        <v>191.8261</v>
+        <v>38049.917</v>
       </c>
       <c r="G201" t="n">
-        <v>190.5383333333331</v>
+        <v>190.5633333333331</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,10 +7445,10 @@
         <v>189.4</v>
       </c>
       <c r="F202" t="n">
-        <v>705.1950000000001</v>
+        <v>191.8261</v>
       </c>
       <c r="G202" t="n">
-        <v>190.4949999999998</v>
+        <v>190.5383333333331</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7480,10 @@
         <v>189.4</v>
       </c>
       <c r="F203" t="n">
-        <v>6902</v>
+        <v>705.1950000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>190.4699999999998</v>
+        <v>190.4949999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7506,19 +7506,19 @@
         <v>189.4</v>
       </c>
       <c r="C204" t="n">
-        <v>189.3</v>
+        <v>189.4</v>
       </c>
       <c r="D204" t="n">
         <v>189.4</v>
       </c>
       <c r="E204" t="n">
-        <v>189.3</v>
+        <v>189.4</v>
       </c>
       <c r="F204" t="n">
-        <v>867.1351</v>
+        <v>6902</v>
       </c>
       <c r="G204" t="n">
-        <v>190.4449999999998</v>
+        <v>190.4699999999998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>190.4</v>
+        <v>189.4</v>
       </c>
       <c r="C205" t="n">
-        <v>190.4</v>
+        <v>189.3</v>
       </c>
       <c r="D205" t="n">
-        <v>190.4</v>
+        <v>189.4</v>
       </c>
       <c r="E205" t="n">
-        <v>190.4</v>
+        <v>189.3</v>
       </c>
       <c r="F205" t="n">
-        <v>5.25210084</v>
+        <v>867.1351</v>
       </c>
       <c r="G205" t="n">
-        <v>190.4383333333331</v>
+        <v>190.4449999999998</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>188</v>
+        <v>190.4</v>
       </c>
       <c r="C206" t="n">
-        <v>188</v>
+        <v>190.4</v>
       </c>
       <c r="D206" t="n">
-        <v>188</v>
+        <v>190.4</v>
       </c>
       <c r="E206" t="n">
-        <v>188</v>
+        <v>190.4</v>
       </c>
       <c r="F206" t="n">
-        <v>16334.5453</v>
+        <v>5.25210084</v>
       </c>
       <c r="G206" t="n">
-        <v>190.3999999999998</v>
+        <v>190.4383333333331</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>188</v>
       </c>
       <c r="F207" t="n">
-        <v>30317.5882</v>
+        <v>16334.5453</v>
       </c>
       <c r="G207" t="n">
-        <v>190.3666666666664</v>
+        <v>190.3999999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>188</v>
       </c>
       <c r="F208" t="n">
-        <v>4592.9937</v>
+        <v>30317.5882</v>
       </c>
       <c r="G208" t="n">
-        <v>190.3016666666664</v>
+        <v>190.3666666666664</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C209" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D209" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E209" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F209" t="n">
-        <v>10.52631578</v>
+        <v>4592.9937</v>
       </c>
       <c r="G209" t="n">
-        <v>190.2716666666665</v>
+        <v>190.3016666666664</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>190</v>
       </c>
       <c r="C210" t="n">
-        <v>190.1</v>
+        <v>190</v>
       </c>
       <c r="D210" t="n">
-        <v>190.1</v>
+        <v>190</v>
       </c>
       <c r="E210" t="n">
         <v>190</v>
       </c>
       <c r="F210" t="n">
-        <v>3153.436</v>
+        <v>10.52631578</v>
       </c>
       <c r="G210" t="n">
-        <v>190.2449999999998</v>
+        <v>190.2716666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>188.2</v>
+        <v>190</v>
       </c>
       <c r="C211" t="n">
-        <v>188.2</v>
+        <v>190.1</v>
       </c>
       <c r="D211" t="n">
-        <v>188.2</v>
+        <v>190.1</v>
       </c>
       <c r="E211" t="n">
-        <v>188.2</v>
+        <v>190</v>
       </c>
       <c r="F211" t="n">
-        <v>625.3909</v>
+        <v>3153.436</v>
       </c>
       <c r="G211" t="n">
-        <v>190.1866666666665</v>
+        <v>190.2449999999998</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="C212" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="D212" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="E212" t="n">
-        <v>189.7</v>
+        <v>188.2</v>
       </c>
       <c r="F212" t="n">
-        <v>47.8887</v>
+        <v>625.3909</v>
       </c>
       <c r="G212" t="n">
-        <v>190.1533333333331</v>
+        <v>190.1866666666665</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +7830,10 @@
         <v>189.7</v>
       </c>
       <c r="F213" t="n">
-        <v>2709.3713</v>
+        <v>47.8887</v>
       </c>
       <c r="G213" t="n">
-        <v>190.1199999999998</v>
+        <v>190.1533333333331</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>190.6</v>
+        <v>189.7</v>
       </c>
       <c r="C214" t="n">
-        <v>190.6</v>
+        <v>189.7</v>
       </c>
       <c r="D214" t="n">
-        <v>190.6</v>
+        <v>189.7</v>
       </c>
       <c r="E214" t="n">
-        <v>190.6</v>
+        <v>189.7</v>
       </c>
       <c r="F214" t="n">
-        <v>6</v>
+        <v>2709.3713</v>
       </c>
       <c r="G214" t="n">
-        <v>190.1016666666665</v>
+        <v>190.1199999999998</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>189.7</v>
+        <v>190.6</v>
       </c>
       <c r="C215" t="n">
-        <v>189</v>
+        <v>190.6</v>
       </c>
       <c r="D215" t="n">
-        <v>189.7</v>
+        <v>190.6</v>
       </c>
       <c r="E215" t="n">
-        <v>189</v>
+        <v>190.6</v>
       </c>
       <c r="F215" t="n">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="G215" t="n">
-        <v>190.0599999999998</v>
+        <v>190.1016666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>188.4</v>
+        <v>189.7</v>
       </c>
       <c r="C216" t="n">
-        <v>188.4</v>
+        <v>189</v>
       </c>
       <c r="D216" t="n">
-        <v>188.4</v>
+        <v>189.7</v>
       </c>
       <c r="E216" t="n">
-        <v>188.4</v>
+        <v>189</v>
       </c>
       <c r="F216" t="n">
-        <v>4242.8801</v>
+        <v>125</v>
       </c>
       <c r="G216" t="n">
-        <v>190.0333333333331</v>
+        <v>190.0599999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>188.4</v>
       </c>
       <c r="F217" t="n">
-        <v>145.5211</v>
+        <v>4242.8801</v>
       </c>
       <c r="G217" t="n">
-        <v>190.0099999999998</v>
+        <v>190.0333333333331</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>188.4</v>
       </c>
       <c r="F218" t="n">
-        <v>145.3719</v>
+        <v>145.5211</v>
       </c>
       <c r="G218" t="n">
-        <v>190.0033333333331</v>
+        <v>190.0099999999998</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>188.2</v>
+        <v>188.4</v>
       </c>
       <c r="C219" t="n">
-        <v>187</v>
+        <v>188.4</v>
       </c>
       <c r="D219" t="n">
-        <v>188.2</v>
+        <v>188.4</v>
       </c>
       <c r="E219" t="n">
-        <v>187</v>
+        <v>188.4</v>
       </c>
       <c r="F219" t="n">
-        <v>5520</v>
+        <v>145.3719</v>
       </c>
       <c r="G219" t="n">
-        <v>189.9449999999998</v>
+        <v>190.0033333333331</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="C220" t="n">
         <v>187</v>
       </c>
-      <c r="C220" t="n">
-        <v>188.8</v>
-      </c>
       <c r="D220" t="n">
-        <v>188.8</v>
+        <v>188.2</v>
       </c>
       <c r="E220" t="n">
         <v>187</v>
       </c>
       <c r="F220" t="n">
-        <v>1646.5907</v>
+        <v>5520</v>
       </c>
       <c r="G220" t="n">
-        <v>189.9166666666665</v>
+        <v>189.9449999999998</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="C221" t="n">
-        <v>185.2</v>
+        <v>188.8</v>
       </c>
       <c r="D221" t="n">
-        <v>187.1</v>
+        <v>188.8</v>
       </c>
       <c r="E221" t="n">
-        <v>185.2</v>
+        <v>187</v>
       </c>
       <c r="F221" t="n">
-        <v>20465.96</v>
+        <v>1646.5907</v>
       </c>
       <c r="G221" t="n">
-        <v>189.8516666666665</v>
+        <v>189.9166666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>186.1</v>
+        <v>187.1</v>
       </c>
       <c r="C222" t="n">
-        <v>185.8</v>
+        <v>185.2</v>
       </c>
       <c r="D222" t="n">
-        <v>186.1</v>
+        <v>187.1</v>
       </c>
       <c r="E222" t="n">
-        <v>185.8</v>
+        <v>185.2</v>
       </c>
       <c r="F222" t="n">
-        <v>8335.6036</v>
+        <v>20465.96</v>
       </c>
       <c r="G222" t="n">
-        <v>189.7733333333331</v>
+        <v>189.8516666666665</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>185.7</v>
+        <v>186.1</v>
       </c>
       <c r="C223" t="n">
-        <v>185.7</v>
+        <v>185.8</v>
       </c>
       <c r="D223" t="n">
-        <v>185.7</v>
+        <v>186.1</v>
       </c>
       <c r="E223" t="n">
-        <v>185.7</v>
+        <v>185.8</v>
       </c>
       <c r="F223" t="n">
-        <v>1860.147</v>
+        <v>8335.6036</v>
       </c>
       <c r="G223" t="n">
-        <v>189.7166666666664</v>
+        <v>189.7733333333331</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>185.6</v>
+        <v>185.7</v>
       </c>
       <c r="C224" t="n">
-        <v>185.6</v>
+        <v>185.7</v>
       </c>
       <c r="D224" t="n">
-        <v>185.6</v>
+        <v>185.7</v>
       </c>
       <c r="E224" t="n">
-        <v>185.6</v>
+        <v>185.7</v>
       </c>
       <c r="F224" t="n">
-        <v>1302.058</v>
+        <v>1860.147</v>
       </c>
       <c r="G224" t="n">
-        <v>189.6349999999998</v>
+        <v>189.7166666666664</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>187.8</v>
+        <v>185.6</v>
       </c>
       <c r="C225" t="n">
-        <v>187.8</v>
+        <v>185.6</v>
       </c>
       <c r="D225" t="n">
-        <v>187.8</v>
+        <v>185.6</v>
       </c>
       <c r="E225" t="n">
-        <v>187.8</v>
+        <v>185.6</v>
       </c>
       <c r="F225" t="n">
-        <v>3</v>
+        <v>1302.058</v>
       </c>
       <c r="G225" t="n">
-        <v>189.5899999999998</v>
+        <v>189.6349999999998</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>186.2</v>
+        <v>187.8</v>
       </c>
       <c r="C226" t="n">
-        <v>186.2</v>
+        <v>187.8</v>
       </c>
       <c r="D226" t="n">
-        <v>186.2</v>
+        <v>187.8</v>
       </c>
       <c r="E226" t="n">
-        <v>186.2</v>
+        <v>187.8</v>
       </c>
       <c r="F226" t="n">
-        <v>2357.8</v>
+        <v>3</v>
       </c>
       <c r="G226" t="n">
-        <v>189.5183333333331</v>
+        <v>189.5899999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8311,19 +8311,19 @@
         <v>186.2</v>
       </c>
       <c r="C227" t="n">
-        <v>187.8</v>
+        <v>186.2</v>
       </c>
       <c r="D227" t="n">
-        <v>187.8</v>
+        <v>186.2</v>
       </c>
       <c r="E227" t="n">
         <v>186.2</v>
       </c>
       <c r="F227" t="n">
-        <v>316.271</v>
+        <v>2357.8</v>
       </c>
       <c r="G227" t="n">
-        <v>189.4733333333331</v>
+        <v>189.5183333333331</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>187.8</v>
+        <v>186.2</v>
       </c>
       <c r="C228" t="n">
         <v>187.8</v>
@@ -8352,13 +8352,13 @@
         <v>187.8</v>
       </c>
       <c r="E228" t="n">
-        <v>187.8</v>
+        <v>186.2</v>
       </c>
       <c r="F228" t="n">
-        <v>111.8769</v>
+        <v>316.271</v>
       </c>
       <c r="G228" t="n">
-        <v>189.4283333333331</v>
+        <v>189.4733333333331</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="C229" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="D229" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="E229" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="F229" t="n">
-        <v>2344</v>
+        <v>111.8769</v>
       </c>
       <c r="G229" t="n">
-        <v>189.4083333333331</v>
+        <v>189.4283333333331</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8425,10 @@
         <v>187.9</v>
       </c>
       <c r="F230" t="n">
-        <v>3776.443</v>
+        <v>2344</v>
       </c>
       <c r="G230" t="n">
-        <v>189.3883333333331</v>
+        <v>189.4083333333331</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="C231" t="n">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="D231" t="n">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="E231" t="n">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="F231" t="n">
-        <v>3000</v>
+        <v>3776.443</v>
       </c>
       <c r="G231" t="n">
-        <v>189.3483333333331</v>
+        <v>189.3883333333331</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8495,10 @@
         <v>188</v>
       </c>
       <c r="F232" t="n">
-        <v>1197.947</v>
+        <v>3000</v>
       </c>
       <c r="G232" t="n">
-        <v>189.3083333333331</v>
+        <v>189.3483333333331</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="C233" t="n">
         <v>188</v>
@@ -8527,13 +8527,13 @@
         <v>188</v>
       </c>
       <c r="E233" t="n">
-        <v>187.9</v>
+        <v>188</v>
       </c>
       <c r="F233" t="n">
-        <v>5278.715</v>
+        <v>1197.947</v>
       </c>
       <c r="G233" t="n">
-        <v>189.2866666666664</v>
+        <v>189.3083333333331</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="C234" t="n">
-        <v>187.8</v>
+        <v>188</v>
       </c>
       <c r="D234" t="n">
-        <v>187.8</v>
+        <v>188</v>
       </c>
       <c r="E234" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="F234" t="n">
-        <v>8241.9</v>
+        <v>5278.715</v>
       </c>
       <c r="G234" t="n">
-        <v>189.2616666666664</v>
+        <v>189.2866666666664</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="C235" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="D235" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="E235" t="n">
-        <v>189</v>
+        <v>187.8</v>
       </c>
       <c r="F235" t="n">
-        <v>8465.712</v>
+        <v>8241.9</v>
       </c>
       <c r="G235" t="n">
-        <v>189.2299999999998</v>
+        <v>189.2616666666664</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>187.8</v>
+        <v>189</v>
       </c>
       <c r="C236" t="n">
-        <v>189.8</v>
+        <v>189</v>
       </c>
       <c r="D236" t="n">
-        <v>189.8</v>
+        <v>189</v>
       </c>
       <c r="E236" t="n">
-        <v>187.8</v>
+        <v>189</v>
       </c>
       <c r="F236" t="n">
-        <v>80.0005</v>
+        <v>8465.712</v>
       </c>
       <c r="G236" t="n">
-        <v>189.2366666666664</v>
+        <v>189.2299999999998</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>189.7</v>
+        <v>187.8</v>
       </c>
       <c r="C237" t="n">
-        <v>189.7</v>
+        <v>189.8</v>
       </c>
       <c r="D237" t="n">
-        <v>189.7</v>
+        <v>189.8</v>
       </c>
       <c r="E237" t="n">
-        <v>189.7</v>
+        <v>187.8</v>
       </c>
       <c r="F237" t="n">
-        <v>100</v>
+        <v>80.0005</v>
       </c>
       <c r="G237" t="n">
-        <v>189.2416666666664</v>
+        <v>189.2366666666664</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>187.8</v>
+        <v>189.7</v>
       </c>
       <c r="C238" t="n">
-        <v>186.8</v>
+        <v>189.7</v>
       </c>
       <c r="D238" t="n">
-        <v>187.8</v>
+        <v>189.7</v>
       </c>
       <c r="E238" t="n">
-        <v>186.8</v>
+        <v>189.7</v>
       </c>
       <c r="F238" t="n">
-        <v>3480.7905</v>
+        <v>100</v>
       </c>
       <c r="G238" t="n">
-        <v>189.1733333333331</v>
+        <v>189.2416666666664</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>188</v>
+        <v>187.8</v>
       </c>
       <c r="C239" t="n">
         <v>186.8</v>
       </c>
       <c r="D239" t="n">
-        <v>188</v>
+        <v>187.8</v>
       </c>
       <c r="E239" t="n">
         <v>186.8</v>
       </c>
       <c r="F239" t="n">
-        <v>4234.3055</v>
+        <v>3480.7905</v>
       </c>
       <c r="G239" t="n">
-        <v>189.1049999999998</v>
+        <v>189.1733333333331</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>186.9</v>
+        <v>188</v>
       </c>
       <c r="C240" t="n">
-        <v>186.9</v>
+        <v>186.8</v>
       </c>
       <c r="D240" t="n">
-        <v>186.9</v>
+        <v>188</v>
       </c>
       <c r="E240" t="n">
-        <v>186.9</v>
+        <v>186.8</v>
       </c>
       <c r="F240" t="n">
-        <v>3.2733</v>
+        <v>4234.3055</v>
       </c>
       <c r="G240" t="n">
-        <v>189.0666666666664</v>
+        <v>189.1049999999998</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>189</v>
+        <v>186.9</v>
       </c>
       <c r="C241" t="n">
-        <v>189</v>
+        <v>186.9</v>
       </c>
       <c r="D241" t="n">
-        <v>189</v>
+        <v>186.9</v>
       </c>
       <c r="E241" t="n">
-        <v>189</v>
+        <v>186.9</v>
       </c>
       <c r="F241" t="n">
-        <v>3.2155</v>
+        <v>3.2733</v>
       </c>
       <c r="G241" t="n">
-        <v>189.0366666666664</v>
+        <v>189.0666666666664</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="C242" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="D242" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="E242" t="n">
-        <v>186.9</v>
+        <v>189</v>
       </c>
       <c r="F242" t="n">
-        <v>3706.7642</v>
+        <v>3.2155</v>
       </c>
       <c r="G242" t="n">
-        <v>189.0033333333331</v>
+        <v>189.0366666666664</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>187.1</v>
+        <v>186.9</v>
       </c>
       <c r="C243" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="D243" t="n">
-        <v>187.1</v>
+        <v>186.9</v>
       </c>
       <c r="E243" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="F243" t="n">
-        <v>9734.0273</v>
+        <v>3706.7642</v>
       </c>
       <c r="G243" t="n">
-        <v>188.9399999999998</v>
+        <v>189.0033333333331</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="C244" t="n">
         <v>187</v>
       </c>
       <c r="D244" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="E244" t="n">
         <v>187</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0005999999999999999</v>
+        <v>9734.0273</v>
       </c>
       <c r="G244" t="n">
-        <v>188.8749999999998</v>
+        <v>188.9399999999998</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>186.9</v>
+        <v>187</v>
       </c>
       <c r="C245" t="n">
-        <v>186.8</v>
+        <v>187</v>
       </c>
       <c r="D245" t="n">
-        <v>186.9</v>
+        <v>187</v>
       </c>
       <c r="E245" t="n">
-        <v>186.8</v>
+        <v>187</v>
       </c>
       <c r="F245" t="n">
-        <v>1500</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G245" t="n">
-        <v>188.8416666666664</v>
+        <v>188.8749999999998</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="C246" t="n">
         <v>186.8</v>
       </c>
       <c r="D246" t="n">
-        <v>187</v>
+        <v>186.9</v>
       </c>
       <c r="E246" t="n">
         <v>186.8</v>
       </c>
       <c r="F246" t="n">
-        <v>514.4629</v>
+        <v>1500</v>
       </c>
       <c r="G246" t="n">
-        <v>188.7733333333331</v>
+        <v>188.8416666666664</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>186.8</v>
+        <v>187</v>
       </c>
       <c r="C247" t="n">
         <v>186.8</v>
       </c>
       <c r="D247" t="n">
-        <v>186.8</v>
+        <v>187</v>
       </c>
       <c r="E247" t="n">
         <v>186.8</v>
       </c>
       <c r="F247" t="n">
-        <v>193.1305</v>
+        <v>514.4629</v>
       </c>
       <c r="G247" t="n">
-        <v>188.7033333333331</v>
+        <v>188.7733333333331</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="C248" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="D248" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="E248" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="F248" t="n">
-        <v>43.8981</v>
+        <v>193.1305</v>
       </c>
       <c r="G248" t="n">
-        <v>188.6383333333331</v>
+        <v>188.7033333333331</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="C249" t="n">
         <v>187</v>
       </c>
       <c r="D249" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="E249" t="n">
         <v>187</v>
       </c>
       <c r="F249" t="n">
-        <v>7620</v>
+        <v>43.8981</v>
       </c>
       <c r="G249" t="n">
-        <v>188.5733333333331</v>
+        <v>188.6383333333331</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>187.2</v>
+        <v>187.1</v>
       </c>
       <c r="C250" t="n">
         <v>187</v>
       </c>
       <c r="D250" t="n">
-        <v>187.2</v>
+        <v>187.1</v>
       </c>
       <c r="E250" t="n">
         <v>187</v>
       </c>
       <c r="F250" t="n">
-        <v>1236</v>
+        <v>7620</v>
       </c>
       <c r="G250" t="n">
-        <v>188.5083333333331</v>
+        <v>188.5733333333331</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>187.8</v>
+        <v>187.2</v>
       </c>
       <c r="C251" t="n">
-        <v>187.8</v>
+        <v>187</v>
       </c>
       <c r="D251" t="n">
-        <v>187.8</v>
+        <v>187.2</v>
       </c>
       <c r="E251" t="n">
-        <v>187.8</v>
+        <v>187</v>
       </c>
       <c r="F251" t="n">
-        <v>2.7</v>
+        <v>1236</v>
       </c>
       <c r="G251" t="n">
-        <v>188.4549999999998</v>
+        <v>188.5083333333331</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9195,10 +9195,10 @@
         <v>187.8</v>
       </c>
       <c r="F252" t="n">
-        <v>10.8827</v>
+        <v>2.7</v>
       </c>
       <c r="G252" t="n">
-        <v>188.4033333333331</v>
+        <v>188.4549999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>187.2</v>
+        <v>187.8</v>
       </c>
       <c r="C253" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="D253" t="n">
-        <v>187.2</v>
+        <v>187.8</v>
       </c>
       <c r="E253" t="n">
-        <v>187</v>
+        <v>187.8</v>
       </c>
       <c r="F253" t="n">
-        <v>7236.9207</v>
+        <v>10.8827</v>
       </c>
       <c r="G253" t="n">
-        <v>188.3366666666664</v>
+        <v>188.4033333333331</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="C254" t="n">
-        <v>183.6</v>
+        <v>187</v>
       </c>
       <c r="D254" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="E254" t="n">
-        <v>183.6</v>
+        <v>187</v>
       </c>
       <c r="F254" t="n">
-        <v>53050.713</v>
+        <v>7236.9207</v>
       </c>
       <c r="G254" t="n">
-        <v>188.2133333333331</v>
+        <v>188.3366666666664</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>187.5</v>
+        <v>186.8</v>
       </c>
       <c r="C255" t="n">
-        <v>187.5</v>
+        <v>183.6</v>
       </c>
       <c r="D255" t="n">
-        <v>187.6</v>
+        <v>186.8</v>
       </c>
       <c r="E255" t="n">
-        <v>187.4</v>
+        <v>183.6</v>
       </c>
       <c r="F255" t="n">
-        <v>20444.8797</v>
+        <v>53050.713</v>
       </c>
       <c r="G255" t="n">
-        <v>188.1549999999998</v>
+        <v>188.2133333333331</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>185.2</v>
+        <v>187.5</v>
       </c>
       <c r="C256" t="n">
-        <v>185</v>
+        <v>187.5</v>
       </c>
       <c r="D256" t="n">
-        <v>185.2</v>
+        <v>187.6</v>
       </c>
       <c r="E256" t="n">
-        <v>185</v>
+        <v>187.4</v>
       </c>
       <c r="F256" t="n">
-        <v>2547.4262</v>
+        <v>20444.8797</v>
       </c>
       <c r="G256" t="n">
-        <v>188.0549999999998</v>
+        <v>188.1549999999998</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>183.9</v>
+        <v>185.2</v>
       </c>
       <c r="C257" t="n">
-        <v>183.9</v>
+        <v>185</v>
       </c>
       <c r="D257" t="n">
-        <v>183.9</v>
+        <v>185.2</v>
       </c>
       <c r="E257" t="n">
-        <v>183.9</v>
+        <v>185</v>
       </c>
       <c r="F257" t="n">
-        <v>8362.9488</v>
+        <v>2547.4262</v>
       </c>
       <c r="G257" t="n">
-        <v>187.9366666666664</v>
+        <v>188.0549999999998</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="C258" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="D258" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="E258" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="F258" t="n">
-        <v>2993.8878</v>
+        <v>8362.9488</v>
       </c>
       <c r="G258" t="n">
-        <v>187.8366666666664</v>
+        <v>187.9366666666664</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="C259" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="D259" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="E259" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="F259" t="n">
-        <v>576.8537</v>
+        <v>2993.8878</v>
       </c>
       <c r="G259" t="n">
-        <v>187.7366666666664</v>
+        <v>187.8366666666664</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C260" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D260" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E260" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F260" t="n">
-        <v>2993.8878</v>
+        <v>576.8537</v>
       </c>
       <c r="G260" t="n">
-        <v>187.6083333333331</v>
+        <v>187.7366666666664</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9510,10 +9510,10 @@
         <v>184</v>
       </c>
       <c r="F261" t="n">
-        <v>3436.0212</v>
+        <v>2993.8878</v>
       </c>
       <c r="G261" t="n">
-        <v>187.5183333333331</v>
+        <v>187.6083333333331</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>185.7</v>
+        <v>184</v>
       </c>
       <c r="C262" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="D262" t="n">
-        <v>185.7</v>
+        <v>184</v>
       </c>
       <c r="E262" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="F262" t="n">
-        <v>2937.031</v>
+        <v>3436.0212</v>
       </c>
       <c r="G262" t="n">
-        <v>187.4266666666664</v>
+        <v>187.5183333333331</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>183.9</v>
+        <v>185.7</v>
       </c>
       <c r="C263" t="n">
         <v>183.9</v>
       </c>
       <c r="D263" t="n">
-        <v>184</v>
+        <v>185.7</v>
       </c>
       <c r="E263" t="n">
-        <v>183.4</v>
+        <v>183.9</v>
       </c>
       <c r="F263" t="n">
-        <v>19731.0444</v>
+        <v>2937.031</v>
       </c>
       <c r="G263" t="n">
-        <v>187.3349999999998</v>
+        <v>187.4266666666664</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9609,16 +9609,16 @@
         <v>183.9</v>
       </c>
       <c r="D264" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="E264" t="n">
-        <v>183.9</v>
+        <v>183.4</v>
       </c>
       <c r="F264" t="n">
-        <v>34.8206</v>
+        <v>19731.0444</v>
       </c>
       <c r="G264" t="n">
-        <v>187.2449999999998</v>
+        <v>187.3349999999998</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9641,19 +9641,19 @@
         <v>183.9</v>
       </c>
       <c r="C265" t="n">
-        <v>183.4</v>
+        <v>183.9</v>
       </c>
       <c r="D265" t="n">
         <v>183.9</v>
       </c>
       <c r="E265" t="n">
-        <v>183.4</v>
+        <v>183.9</v>
       </c>
       <c r="F265" t="n">
-        <v>165.8237</v>
+        <v>34.8206</v>
       </c>
       <c r="G265" t="n">
-        <v>187.1283333333331</v>
+        <v>187.2449999999998</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="C266" t="n">
         <v>183.4</v>
       </c>
       <c r="D266" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="E266" t="n">
         <v>183.4</v>
       </c>
       <c r="F266" t="n">
-        <v>7838.1067</v>
+        <v>165.8237</v>
       </c>
       <c r="G266" t="n">
-        <v>187.0516666666664</v>
+        <v>187.1283333333331</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>183.5</v>
+        <v>184</v>
       </c>
       <c r="C267" t="n">
-        <v>183.5</v>
+        <v>183.4</v>
       </c>
       <c r="D267" t="n">
-        <v>183.5</v>
+        <v>184</v>
       </c>
       <c r="E267" t="n">
-        <v>183.5</v>
+        <v>183.4</v>
       </c>
       <c r="F267" t="n">
-        <v>691.2954</v>
+        <v>7838.1067</v>
       </c>
       <c r="G267" t="n">
-        <v>186.9766666666664</v>
+        <v>187.0516666666664</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,7 +9743,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>183.4</v>
+        <v>183.5</v>
       </c>
       <c r="C268" t="n">
         <v>183.5</v>
@@ -9752,13 +9752,13 @@
         <v>183.5</v>
       </c>
       <c r="E268" t="n">
-        <v>183.4</v>
+        <v>183.5</v>
       </c>
       <c r="F268" t="n">
-        <v>650.0915</v>
+        <v>691.2954</v>
       </c>
       <c r="G268" t="n">
-        <v>186.9016666666664</v>
+        <v>186.9766666666664</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>184.9</v>
+        <v>183.4</v>
       </c>
       <c r="C269" t="n">
-        <v>184.9</v>
+        <v>183.5</v>
       </c>
       <c r="D269" t="n">
-        <v>184.9</v>
+        <v>183.5</v>
       </c>
       <c r="E269" t="n">
-        <v>184.9</v>
+        <v>183.4</v>
       </c>
       <c r="F269" t="n">
-        <v>446.5121</v>
+        <v>650.0915</v>
       </c>
       <c r="G269" t="n">
-        <v>186.8166666666664</v>
+        <v>186.9016666666664</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>184.4</v>
+        <v>184.9</v>
       </c>
       <c r="C270" t="n">
-        <v>184.4</v>
+        <v>184.9</v>
       </c>
       <c r="D270" t="n">
-        <v>184.4</v>
+        <v>184.9</v>
       </c>
       <c r="E270" t="n">
-        <v>184.4</v>
+        <v>184.9</v>
       </c>
       <c r="F270" t="n">
-        <v>1897</v>
+        <v>446.5121</v>
       </c>
       <c r="G270" t="n">
-        <v>186.7216666666664</v>
+        <v>186.8166666666664</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,22 +9848,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>183.5</v>
+        <v>184.4</v>
       </c>
       <c r="C271" t="n">
-        <v>184.9</v>
+        <v>184.4</v>
       </c>
       <c r="D271" t="n">
-        <v>184.9</v>
+        <v>184.4</v>
       </c>
       <c r="E271" t="n">
-        <v>183.5</v>
+        <v>184.4</v>
       </c>
       <c r="F271" t="n">
-        <v>10215.823</v>
+        <v>1897</v>
       </c>
       <c r="G271" t="n">
-        <v>186.6666666666664</v>
+        <v>186.7216666666664</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>184</v>
+        <v>183.5</v>
       </c>
       <c r="C272" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="D272" t="n">
-        <v>184</v>
+        <v>184.9</v>
       </c>
       <c r="E272" t="n">
-        <v>184</v>
+        <v>183.5</v>
       </c>
       <c r="F272" t="n">
-        <v>81</v>
+        <v>10215.823</v>
       </c>
       <c r="G272" t="n">
-        <v>186.5716666666664</v>
+        <v>186.6666666666664</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C273" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D273" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E273" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F273" t="n">
-        <v>2343.6052</v>
+        <v>81</v>
       </c>
       <c r="G273" t="n">
-        <v>186.493333333333</v>
+        <v>186.5716666666664</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>183.5</v>
+        <v>185</v>
       </c>
       <c r="C274" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D274" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E274" t="n">
-        <v>183.4</v>
+        <v>185</v>
       </c>
       <c r="F274" t="n">
-        <v>3491.5897</v>
+        <v>2343.6052</v>
       </c>
       <c r="G274" t="n">
-        <v>186.383333333333</v>
+        <v>186.493333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>183.4</v>
+        <v>183.5</v>
       </c>
       <c r="C275" t="n">
-        <v>183.4</v>
+        <v>184</v>
       </c>
       <c r="D275" t="n">
-        <v>183.4</v>
+        <v>184</v>
       </c>
       <c r="E275" t="n">
         <v>183.4</v>
       </c>
       <c r="F275" t="n">
-        <v>150.9233</v>
+        <v>3491.5897</v>
       </c>
       <c r="G275" t="n">
-        <v>186.2899999999997</v>
+        <v>186.383333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>183.4</v>
       </c>
       <c r="F276" t="n">
-        <v>1182.9939</v>
+        <v>150.9233</v>
       </c>
       <c r="G276" t="n">
-        <v>186.2066666666664</v>
+        <v>186.2899999999997</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>182.8</v>
+        <v>183.4</v>
       </c>
       <c r="C277" t="n">
-        <v>182.1</v>
+        <v>183.4</v>
       </c>
       <c r="D277" t="n">
-        <v>182.8</v>
+        <v>183.4</v>
       </c>
       <c r="E277" t="n">
-        <v>182.1</v>
+        <v>183.4</v>
       </c>
       <c r="F277" t="n">
-        <v>6079.028</v>
+        <v>1182.9939</v>
       </c>
       <c r="G277" t="n">
-        <v>186.1016666666664</v>
+        <v>186.2066666666664</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10093,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>182.3</v>
+        <v>182.8</v>
       </c>
       <c r="C278" t="n">
-        <v>182.3</v>
+        <v>182.1</v>
       </c>
       <c r="D278" t="n">
-        <v>182.3</v>
+        <v>182.8</v>
       </c>
       <c r="E278" t="n">
-        <v>182.3</v>
+        <v>182.1</v>
       </c>
       <c r="F278" t="n">
-        <v>755</v>
+        <v>6079.028</v>
       </c>
       <c r="G278" t="n">
-        <v>185.9999999999997</v>
+        <v>186.1016666666664</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>183.9</v>
+        <v>182.3</v>
       </c>
       <c r="C279" t="n">
-        <v>183.9</v>
+        <v>182.3</v>
       </c>
       <c r="D279" t="n">
-        <v>183.9</v>
+        <v>182.3</v>
       </c>
       <c r="E279" t="n">
-        <v>183.9</v>
+        <v>182.3</v>
       </c>
       <c r="F279" t="n">
-        <v>1877.7319</v>
+        <v>755</v>
       </c>
       <c r="G279" t="n">
-        <v>185.948333333333</v>
+        <v>185.9999999999997</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="C280" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="D280" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="E280" t="n">
-        <v>183.8</v>
+        <v>183.9</v>
       </c>
       <c r="F280" t="n">
-        <v>48.96626768</v>
+        <v>1877.7319</v>
       </c>
       <c r="G280" t="n">
-        <v>185.8649999999997</v>
+        <v>185.948333333333</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>182.3</v>
+        <v>183.8</v>
       </c>
       <c r="C281" t="n">
-        <v>182.2</v>
+        <v>183.8</v>
       </c>
       <c r="D281" t="n">
-        <v>182.3</v>
+        <v>183.8</v>
       </c>
       <c r="E281" t="n">
-        <v>182.2</v>
+        <v>183.8</v>
       </c>
       <c r="F281" t="n">
-        <v>1868.1121</v>
+        <v>48.96626768</v>
       </c>
       <c r="G281" t="n">
-        <v>185.8149999999997</v>
+        <v>185.8649999999997</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>182.2</v>
+        <v>182.3</v>
       </c>
       <c r="C282" t="n">
         <v>182.2</v>
       </c>
       <c r="D282" t="n">
-        <v>182.2</v>
+        <v>182.3</v>
       </c>
       <c r="E282" t="n">
         <v>182.2</v>
       </c>
       <c r="F282" t="n">
-        <v>239.6235</v>
+        <v>1868.1121</v>
       </c>
       <c r="G282" t="n">
-        <v>185.7549999999997</v>
+        <v>185.8149999999997</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10280,10 +10280,10 @@
         <v>182.2</v>
       </c>
       <c r="F283" t="n">
-        <v>2338.4878</v>
+        <v>239.6235</v>
       </c>
       <c r="G283" t="n">
-        <v>185.6966666666664</v>
+        <v>185.7549999999997</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10306,19 +10306,19 @@
         <v>182.2</v>
       </c>
       <c r="C284" t="n">
-        <v>181.1</v>
+        <v>182.2</v>
       </c>
       <c r="D284" t="n">
         <v>182.2</v>
       </c>
       <c r="E284" t="n">
-        <v>181.1</v>
+        <v>182.2</v>
       </c>
       <c r="F284" t="n">
-        <v>3986.7393</v>
+        <v>2338.4878</v>
       </c>
       <c r="G284" t="n">
-        <v>185.6216666666664</v>
+        <v>185.6966666666664</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10338,358 +10338,318 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>183.3</v>
+        <v>182.2</v>
       </c>
       <c r="C285" t="n">
         <v>181.1</v>
       </c>
       <c r="D285" t="n">
-        <v>183.3</v>
+        <v>182.2</v>
       </c>
       <c r="E285" t="n">
         <v>181.1</v>
       </c>
       <c r="F285" t="n">
+        <v>3986.7393</v>
+      </c>
+      <c r="G285" t="n">
+        <v>185.6216666666664</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="C286" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="E286" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="F286" t="n">
         <v>8.45553737</v>
       </c>
-      <c r="G285" t="n">
+      <c r="G286" t="n">
         <v>185.5099999999997</v>
       </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="n">
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
         <v>181.1</v>
       </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+      <c r="C287" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G287" t="n">
+        <v>185.4249999999997</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>181</v>
+      </c>
+      <c r="D288" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>181</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3642</v>
+      </c>
+      <c r="G288" t="n">
+        <v>185.3116666666664</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>181</v>
+      </c>
+      <c r="C289" t="n">
+        <v>181</v>
+      </c>
+      <c r="D289" t="n">
+        <v>181</v>
+      </c>
+      <c r="E289" t="n">
+        <v>181</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3</v>
+      </c>
+      <c r="G289" t="n">
+        <v>185.1983333333331</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>181</v>
+      </c>
+      <c r="C290" t="n">
+        <v>181</v>
+      </c>
+      <c r="D290" t="n">
+        <v>181</v>
+      </c>
+      <c r="E290" t="n">
+        <v>181</v>
+      </c>
+      <c r="F290" t="n">
+        <v>10</v>
+      </c>
+      <c r="G290" t="n">
+        <v>185.0833333333331</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>181</v>
+      </c>
+      <c r="C291" t="n">
+        <v>181</v>
+      </c>
+      <c r="D291" t="n">
+        <v>181</v>
+      </c>
+      <c r="E291" t="n">
+        <v>181</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3</v>
+      </c>
+      <c r="G291" t="n">
+        <v>184.9683333333331</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>181</v>
+      </c>
+      <c r="C292" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="D292" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E292" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F292" t="n">
+        <v>10869.6085</v>
+      </c>
+      <c r="G292" t="n">
+        <v>184.8749999999997</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C293" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="D293" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E293" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F293" t="n">
+        <v>13240.5636</v>
+      </c>
+      <c r="G293" t="n">
+        <v>184.7466666666664</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="C286" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="D286" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="E286" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G286" t="n">
-        <v>185.4249999999997</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="C287" t="n">
-        <v>181</v>
-      </c>
-      <c r="D287" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="E287" t="n">
-        <v>181</v>
-      </c>
-      <c r="F287" t="n">
-        <v>3642</v>
-      </c>
-      <c r="G287" t="n">
-        <v>185.3116666666664</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>181</v>
-      </c>
-      <c r="C288" t="n">
-        <v>181</v>
-      </c>
-      <c r="D288" t="n">
-        <v>181</v>
-      </c>
-      <c r="E288" t="n">
-        <v>181</v>
-      </c>
-      <c r="F288" t="n">
-        <v>3</v>
-      </c>
-      <c r="G288" t="n">
-        <v>185.1983333333331</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="n">
-        <v>181</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>181</v>
-      </c>
-      <c r="C289" t="n">
-        <v>181</v>
-      </c>
-      <c r="D289" t="n">
-        <v>181</v>
-      </c>
-      <c r="E289" t="n">
-        <v>181</v>
-      </c>
-      <c r="F289" t="n">
-        <v>10</v>
-      </c>
-      <c r="G289" t="n">
-        <v>185.0833333333331</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="n">
-        <v>181</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>181</v>
-      </c>
-      <c r="C290" t="n">
-        <v>181</v>
-      </c>
-      <c r="D290" t="n">
-        <v>181</v>
-      </c>
-      <c r="E290" t="n">
-        <v>181</v>
-      </c>
-      <c r="F290" t="n">
-        <v>3</v>
-      </c>
-      <c r="G290" t="n">
-        <v>184.9683333333331</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>181</v>
-      </c>
-      <c r="C291" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="D291" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E291" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="F291" t="n">
-        <v>10869.6085</v>
-      </c>
-      <c r="G291" t="n">
-        <v>184.8749999999997</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="C292" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="D292" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E292" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="F292" t="n">
-        <v>13240.5636</v>
-      </c>
-      <c r="G292" t="n">
-        <v>184.7466666666664</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C293" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="D293" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="E293" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="F293" t="n">
-        <v>3</v>
-      </c>
-      <c r="G293" t="n">
-        <v>184.6183333333331</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10702,19 +10662,19 @@
         <v>180.3</v>
       </c>
       <c r="C294" t="n">
-        <v>180.2</v>
+        <v>180.3</v>
       </c>
       <c r="D294" t="n">
-        <v>182.2</v>
+        <v>180.3</v>
       </c>
       <c r="E294" t="n">
-        <v>180.2</v>
+        <v>180.3</v>
       </c>
       <c r="F294" t="n">
-        <v>8130.2222</v>
+        <v>3</v>
       </c>
       <c r="G294" t="n">
-        <v>184.4916666666664</v>
+        <v>184.6183333333331</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10738,22 +10698,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>180.2</v>
+        <v>180.3</v>
       </c>
       <c r="C295" t="n">
         <v>180.2</v>
       </c>
       <c r="D295" t="n">
-        <v>180.2</v>
+        <v>182.2</v>
       </c>
       <c r="E295" t="n">
         <v>180.2</v>
       </c>
       <c r="F295" t="n">
-        <v>6.2448</v>
+        <v>8130.2222</v>
       </c>
       <c r="G295" t="n">
-        <v>184.3449999999998</v>
+        <v>184.4916666666664</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10789,10 +10749,10 @@
         <v>180.2</v>
       </c>
       <c r="F296" t="n">
-        <v>3</v>
+        <v>6.2448</v>
       </c>
       <c r="G296" t="n">
-        <v>184.1849999999998</v>
+        <v>184.3449999999998</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10816,30 +10776,32 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="C297" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="D297" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="E297" t="n">
-        <v>181.8</v>
+        <v>180.2</v>
       </c>
       <c r="F297" t="n">
-        <v>793.237</v>
+        <v>3</v>
       </c>
       <c r="G297" t="n">
-        <v>184.0533333333331</v>
+        <v>184.1849999999998</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>180.2</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -10855,30 +10817,32 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>793.237</v>
+      </c>
+      <c r="G298" t="n">
+        <v>184.0533333333331</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
         <v>180.2</v>
       </c>
-      <c r="C298" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D298" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E298" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1416.0998</v>
-      </c>
-      <c r="G298" t="n">
-        <v>183.9433333333331</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -10894,30 +10858,32 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1416.0998</v>
+      </c>
+      <c r="G299" t="n">
+        <v>183.9433333333331</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
         <v>181.8</v>
       </c>
-      <c r="C299" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D299" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E299" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F299" t="n">
-        <v>182.053</v>
-      </c>
-      <c r="G299" t="n">
-        <v>183.8599999999998</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -10933,7 +10899,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>181.6</v>
+        <v>181.8</v>
       </c>
       <c r="C300" t="n">
         <v>181.8</v>
@@ -10942,13 +10908,13 @@
         <v>181.8</v>
       </c>
       <c r="E300" t="n">
-        <v>181.6</v>
+        <v>181.8</v>
       </c>
       <c r="F300" t="n">
-        <v>663.364</v>
+        <v>182.053</v>
       </c>
       <c r="G300" t="n">
-        <v>183.7749999999998</v>
+        <v>183.8599999999998</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10972,7 +10938,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>181.8</v>
+        <v>181.6</v>
       </c>
       <c r="C301" t="n">
         <v>181.8</v>
@@ -10981,13 +10947,13 @@
         <v>181.8</v>
       </c>
       <c r="E301" t="n">
-        <v>181.8</v>
+        <v>181.6</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0005999999999999999</v>
+        <v>663.364</v>
       </c>
       <c r="G301" t="n">
-        <v>183.6549999999998</v>
+        <v>183.7749999999998</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11011,22 +10977,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="C302" t="n">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="D302" t="n">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="E302" t="n">
-        <v>182.1</v>
+        <v>181.8</v>
       </c>
       <c r="F302" t="n">
-        <v>898.681</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G302" t="n">
-        <v>183.5749999999998</v>
+        <v>183.6549999999998</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11050,22 +11016,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>181.8</v>
+        <v>182.1</v>
       </c>
       <c r="C303" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
       </c>
       <c r="D303" t="n">
-        <v>182.5</v>
+        <v>182.1</v>
       </c>
       <c r="E303" t="n">
-        <v>181.8</v>
+        <v>182.1</v>
       </c>
       <c r="F303" t="n">
-        <v>2669.8716</v>
+        <v>898.681</v>
       </c>
       <c r="G303" t="n">
-        <v>183.4999999999998</v>
+        <v>183.5749999999998</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11092,19 +11058,19 @@
         <v>181.8</v>
       </c>
       <c r="C304" t="n">
-        <v>181.8</v>
+        <v>182.5</v>
       </c>
       <c r="D304" t="n">
-        <v>181.8</v>
+        <v>182.5</v>
       </c>
       <c r="E304" t="n">
         <v>181.8</v>
       </c>
       <c r="F304" t="n">
-        <v>1526.3783</v>
+        <v>2669.8716</v>
       </c>
       <c r="G304" t="n">
-        <v>183.4133333333331</v>
+        <v>183.4999999999998</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11140,18 +11106,20 @@
         <v>181.8</v>
       </c>
       <c r="F305" t="n">
-        <v>2385.3018</v>
+        <v>1526.3783</v>
       </c>
       <c r="G305" t="n">
-        <v>183.3299999999998</v>
+        <v>183.4133333333331</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>182.5</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11167,22 +11135,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>182.5</v>
+        <v>181.8</v>
       </c>
       <c r="C306" t="n">
-        <v>184.8</v>
+        <v>181.8</v>
       </c>
       <c r="D306" t="n">
-        <v>184.8</v>
+        <v>181.8</v>
       </c>
       <c r="E306" t="n">
-        <v>182.5</v>
+        <v>181.8</v>
       </c>
       <c r="F306" t="n">
-        <v>3345.294</v>
+        <v>2385.3018</v>
       </c>
       <c r="G306" t="n">
-        <v>183.2966666666665</v>
+        <v>183.3299999999998</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11201,6 +11169,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="C307" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D307" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E307" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3345.294</v>
+      </c>
+      <c r="G307" t="n">
+        <v>183.2966666666665</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>424.3764</v>
       </c>
       <c r="G2" t="n">
+        <v>192.2000000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>193.4433333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>242.0007</v>
       </c>
       <c r="G3" t="n">
+        <v>192.2066666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>193.4083333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>154.8475</v>
       </c>
       <c r="G4" t="n">
+        <v>192.2133333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>193.4233333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>694.5709000000001</v>
       </c>
       <c r="G5" t="n">
+        <v>192.2733333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>193.4349999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>66</v>
       </c>
       <c r="G6" t="n">
+        <v>192.4533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>193.4216666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>233.9933</v>
       </c>
       <c r="G7" t="n">
+        <v>192.4733333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>193.4216666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>182.9933</v>
       </c>
       <c r="G8" t="n">
+        <v>192.6466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>193.4083333333332</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>55.6799</v>
       </c>
       <c r="G9" t="n">
+        <v>192.82</v>
+      </c>
+      <c r="H9" t="n">
         <v>193.3966666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>186</v>
       </c>
       <c r="G10" t="n">
+        <v>193.0866666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>193.3849999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>178.726</v>
       </c>
       <c r="G11" t="n">
+        <v>193.4133333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>193.3883333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>315.726</v>
       </c>
       <c r="G12" t="n">
+        <v>193.74</v>
+      </c>
+      <c r="H12" t="n">
         <v>193.3916666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>675.8737</v>
       </c>
       <c r="G13" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>193.3966666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>7180.153</v>
       </c>
       <c r="G14" t="n">
+        <v>194.2733333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>193.4149999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>422.126</v>
       </c>
       <c r="G15" t="n">
+        <v>194.3733333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>193.4549999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>179.2872</v>
       </c>
       <c r="G16" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>193.4883333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>349.7007</v>
       </c>
       <c r="G17" t="n">
+        <v>194.8133333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>193.5216666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>220</v>
       </c>
       <c r="G18" t="n">
+        <v>194.8866666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>193.5566666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>785.999</v>
       </c>
       <c r="G19" t="n">
+        <v>194.96</v>
+      </c>
+      <c r="H19" t="n">
         <v>193.5966666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>13309.4899</v>
       </c>
       <c r="G20" t="n">
+        <v>194.98</v>
+      </c>
+      <c r="H20" t="n">
         <v>193.6366666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>5979.9535</v>
       </c>
       <c r="G21" t="n">
+        <v>194.9733333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>193.6783333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>527.852</v>
       </c>
       <c r="G22" t="n">
+        <v>195.1333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>193.7433333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>513.696</v>
       </c>
       <c r="G23" t="n">
+        <v>195.1266666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>193.7933333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>365.752</v>
       </c>
       <c r="G24" t="n">
+        <v>195.1266666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>193.8549999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>835.622</v>
       </c>
       <c r="G25" t="n">
+        <v>195.12</v>
+      </c>
+      <c r="H25" t="n">
         <v>193.9149999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>5070.105</v>
       </c>
       <c r="G26" t="n">
+        <v>195.12</v>
+      </c>
+      <c r="H26" t="n">
         <v>193.9499999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>9</v>
       </c>
       <c r="G27" t="n">
+        <v>195.2066666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>193.9883333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>170.57</v>
       </c>
       <c r="G28" t="n">
+        <v>195.1466666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>194.0299999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>3</v>
       </c>
       <c r="G29" t="n">
+        <v>195.2266666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>194.1083333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>281</v>
       </c>
       <c r="G30" t="n">
+        <v>195.2333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>194.1933333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>101.988</v>
       </c>
       <c r="G31" t="n">
+        <v>195.3066666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>194.2449999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>161.635</v>
       </c>
       <c r="G32" t="n">
+        <v>195.2400000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>194.2616666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>558.127</v>
       </c>
       <c r="G33" t="n">
+        <v>195.1133333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>194.2399999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>6179.2067</v>
       </c>
       <c r="G34" t="n">
+        <v>194.9266666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>194.1999999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>9455</v>
       </c>
       <c r="G35" t="n">
+        <v>194.6733333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>194.1366666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="H36" t="n">
         <v>194.1199999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2722.3309</v>
       </c>
       <c r="G37" t="n">
+        <v>194.4333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>194.1183333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1263.5926</v>
       </c>
       <c r="G38" t="n">
+        <v>194.24</v>
+      </c>
+      <c r="H38" t="n">
         <v>194.0533333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>3</v>
       </c>
       <c r="G39" t="n">
+        <v>194.2333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>194.07</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>180.3627</v>
       </c>
       <c r="G40" t="n">
+        <v>194.0866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>194.0499999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
+        <v>194.0866666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>194.0666666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>231.9263</v>
       </c>
       <c r="G42" t="n">
+        <v>193.8533333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>194.0199999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
+        <v>193.9133333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>194.0033333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>911.9272999999999</v>
       </c>
       <c r="G44" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="H44" t="n">
         <v>193.9916666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>10000</v>
       </c>
       <c r="G45" t="n">
+        <v>193.5466666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>193.9433333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>266</v>
       </c>
       <c r="G46" t="n">
+        <v>193.4666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>193.9283333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>906.999</v>
       </c>
       <c r="G47" t="n">
+        <v>193.3866666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>193.9099999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1965.9941</v>
       </c>
       <c r="G48" t="n">
+        <v>193.3666666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>193.8933333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>367</v>
       </c>
       <c r="G49" t="n">
+        <v>193.4066666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>193.8766666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2250.541</v>
       </c>
       <c r="G50" t="n">
+        <v>193.5133333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>193.86</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5096.386</v>
       </c>
       <c r="G51" t="n">
+        <v>193.3933333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>193.855</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>111.2221</v>
       </c>
       <c r="G52" t="n">
+        <v>193.2666666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>193.8266666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>2368.184</v>
       </c>
       <c r="G53" t="n">
+        <v>193.2200000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>193.8083333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>11.2277</v>
       </c>
       <c r="G54" t="n">
+        <v>193.0800000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>193.8149999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>10.7164</v>
       </c>
       <c r="G55" t="n">
+        <v>193.0266666666668</v>
+      </c>
+      <c r="H55" t="n">
         <v>193.8299999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>201.5167</v>
       </c>
       <c r="G56" t="n">
+        <v>192.7800000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>193.8499999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>14.2734</v>
       </c>
       <c r="G57" t="n">
+        <v>192.6800000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>193.8699999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>70.4689</v>
       </c>
       <c r="G58" t="n">
+        <v>192.4800000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>193.9016666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>3746.9744</v>
       </c>
       <c r="G59" t="n">
+        <v>192.3533333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>193.8883333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
+        <v>192.2933333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>193.8616666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>2623.4938</v>
       </c>
       <c r="G61" t="n">
+        <v>192.1000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>193.8683333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>9232.8074</v>
       </c>
       <c r="G62" t="n">
+        <v>191.9933333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>193.8583333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2828.7476</v>
       </c>
       <c r="G63" t="n">
+        <v>191.8933333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>193.8149999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>5657.495</v>
       </c>
       <c r="G64" t="n">
+        <v>191.7800000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>193.7683333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>2828.7468</v>
       </c>
       <c r="G65" t="n">
+        <v>191.64</v>
+      </c>
+      <c r="H65" t="n">
         <v>193.7016666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>0.0009</v>
       </c>
       <c r="G66" t="n">
+        <v>191.54</v>
+      </c>
+      <c r="H66" t="n">
         <v>193.6266666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>9730.641</v>
       </c>
       <c r="G67" t="n">
+        <v>191.4600000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>193.5733333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>0.0003</v>
       </c>
       <c r="G68" t="n">
+        <v>191.4200000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>193.5016666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>656.9529</v>
       </c>
       <c r="G69" t="n">
+        <v>191.2800000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>193.4299999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>168.05</v>
       </c>
       <c r="G70" t="n">
+        <v>191.2200000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>193.3633333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2445.6469</v>
       </c>
       <c r="G71" t="n">
+        <v>191.2066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>193.2983333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>169.204</v>
       </c>
       <c r="G72" t="n">
+        <v>191.2533333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>193.2483333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>482.107</v>
       </c>
       <c r="G73" t="n">
+        <v>191.2533333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>193.1983333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>4786.4182</v>
       </c>
       <c r="G74" t="n">
+        <v>191.2800000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>193.1399999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>943.282</v>
       </c>
       <c r="G75" t="n">
+        <v>191.2800000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>193.0883333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>2400</v>
       </c>
       <c r="G76" t="n">
+        <v>191.2800000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>193.0383333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>4562.5636</v>
       </c>
       <c r="G77" t="n">
+        <v>191.2733333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>192.9733333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>3</v>
       </c>
       <c r="G78" t="n">
+        <v>191.3200000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>192.9233333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>2823.654</v>
       </c>
       <c r="G79" t="n">
+        <v>191.2933333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>192.8516666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>5761.375</v>
       </c>
       <c r="G80" t="n">
+        <v>191.3000000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>192.7816666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
+        <v>191.3866666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>192.7299999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>326.4297</v>
       </c>
       <c r="G82" t="n">
+        <v>191.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>192.6566666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>9.1624</v>
       </c>
       <c r="G83" t="n">
+        <v>191.5466666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>192.6066666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>5106.012</v>
       </c>
       <c r="G84" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H84" t="n">
         <v>192.5233333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>4054.7265</v>
       </c>
       <c r="G85" t="n">
+        <v>191.4333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>192.4416666666665</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>8649.0309</v>
       </c>
       <c r="G86" t="n">
+        <v>191.36</v>
+      </c>
+      <c r="H86" t="n">
         <v>192.3583333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>501.7076</v>
       </c>
       <c r="G87" t="n">
+        <v>191.2200000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>192.2516666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>3</v>
       </c>
       <c r="G88" t="n">
+        <v>191.08</v>
+      </c>
+      <c r="H88" t="n">
         <v>192.1816666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>15</v>
       </c>
       <c r="G89" t="n">
+        <v>190.9666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>192.0749999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1445.2799</v>
       </c>
       <c r="G90" t="n">
+        <v>190.8266666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>191.9866666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>3</v>
       </c>
       <c r="G91" t="n">
+        <v>190.5933333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>191.8599999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>6179.618</v>
       </c>
       <c r="G92" t="n">
+        <v>190.5066666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>191.7899999999998</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>30</v>
       </c>
       <c r="G93" t="n">
+        <v>190.3533333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>191.7333333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>30</v>
       </c>
       <c r="G94" t="n">
+        <v>190.2866666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>191.6916666666665</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>255.4838</v>
       </c>
       <c r="G95" t="n">
+        <v>190.1666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>191.6549999999998</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>2772.89703584</v>
       </c>
       <c r="G96" t="n">
+        <v>190.0133333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>191.5833333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>9.99</v>
       </c>
       <c r="G97" t="n">
+        <v>189.86</v>
+      </c>
+      <c r="H97" t="n">
         <v>191.5133333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>116.0614</v>
       </c>
       <c r="G98" t="n">
+        <v>189.6133333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>191.4499999999998</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>4512.7266</v>
       </c>
       <c r="G99" t="n">
+        <v>189.5733333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>191.3583333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>128</v>
       </c>
       <c r="G100" t="n">
+        <v>189.5533333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>191.3083333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>93</v>
       </c>
       <c r="G101" t="n">
+        <v>189.5533333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>191.2249999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>703.2486</v>
       </c>
       <c r="G102" t="n">
+        <v>189.6333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>191.1966666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>30</v>
       </c>
       <c r="G103" t="n">
+        <v>189.7133333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>191.1316666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>42</v>
       </c>
       <c r="G104" t="n">
+        <v>189.7800000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>191.0949999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>890.0343</v>
       </c>
       <c r="G105" t="n">
+        <v>189.66</v>
+      </c>
+      <c r="H105" t="n">
         <v>191.0149999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>92.209</v>
       </c>
       <c r="G106" t="n">
+        <v>189.7533333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>190.9316666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>3688.1438576</v>
       </c>
       <c r="G107" t="n">
+        <v>189.7666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>190.8849999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>311</v>
       </c>
       <c r="G108" t="n">
+        <v>189.8466666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>190.8533333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>100.3572</v>
       </c>
       <c r="G109" t="n">
+        <v>189.8000000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>190.7899999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>39.8203</v>
       </c>
       <c r="G110" t="n">
+        <v>189.8600000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>190.7416666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1768.83533096</v>
       </c>
       <c r="G111" t="n">
+        <v>189.9400000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>190.7199999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>91.6901</v>
       </c>
       <c r="G112" t="n">
+        <v>189.8400000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>190.6566666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>3</v>
       </c>
       <c r="G113" t="n">
+        <v>190.0066666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>190.6466666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>3.4</v>
       </c>
       <c r="G114" t="n">
+        <v>190.0933333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>190.6116666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>103.3356</v>
       </c>
       <c r="G115" t="n">
+        <v>190.1666666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>190.5933333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>5</v>
       </c>
       <c r="G116" t="n">
+        <v>190.1666666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>190.5716666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>6</v>
       </c>
       <c r="G117" t="n">
+        <v>190.0933333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>190.5499999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>4621.40038952</v>
       </c>
       <c r="G118" t="n">
+        <v>190.0800000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>190.5316666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>103</v>
       </c>
       <c r="G119" t="n">
+        <v>190.1333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>190.5399999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>279.2319</v>
       </c>
       <c r="G120" t="n">
+        <v>190.3733333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>190.5349999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>164.4896</v>
       </c>
       <c r="G121" t="n">
+        <v>190.4933333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>190.5299999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>4724.637</v>
       </c>
       <c r="G122" t="n">
+        <v>190.4333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>190.4949999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>36.53444676</v>
       </c>
       <c r="G123" t="n">
+        <v>190.48</v>
+      </c>
+      <c r="H123" t="n">
         <v>190.4999999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>318.7902</v>
       </c>
       <c r="G124" t="n">
+        <v>190.48</v>
+      </c>
+      <c r="H124" t="n">
         <v>190.4649999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>7302.75</v>
       </c>
       <c r="G125" t="n">
+        <v>190.5466666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>190.4683333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>1418.2181</v>
       </c>
       <c r="G126" t="n">
+        <v>190.5466666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>190.4716666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>1347</v>
       </c>
       <c r="G127" t="n">
+        <v>190.7266666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>190.4733333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>183.1513</v>
       </c>
       <c r="G128" t="n">
+        <v>190.7333333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>190.4749999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>5180.4076</v>
       </c>
       <c r="G129" t="n">
+        <v>190.6533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>190.4549999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>60.7179</v>
       </c>
       <c r="G130" t="n">
+        <v>190.5933333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>190.4366666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>193.387</v>
       </c>
       <c r="G131" t="n">
+        <v>190.5933333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>190.4183333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>4289.9207</v>
       </c>
       <c r="G132" t="n">
+        <v>190.5933333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>190.3849999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>3</v>
       </c>
       <c r="G133" t="n">
+        <v>190.64</v>
+      </c>
+      <c r="H133" t="n">
         <v>190.3783333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>7256.6748</v>
       </c>
       <c r="G134" t="n">
+        <v>190.6333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>190.3783333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>7003</v>
       </c>
       <c r="G135" t="n">
+        <v>190.6333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>190.3733333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>2.7</v>
       </c>
       <c r="G136" t="n">
+        <v>190.64</v>
+      </c>
+      <c r="H136" t="n">
         <v>190.3699999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>83.179</v>
       </c>
       <c r="G137" t="n">
+        <v>190.8533333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>190.3899999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>157.5455</v>
       </c>
       <c r="G138" t="n">
+        <v>190.8133333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>190.3733333333332</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>6.7</v>
       </c>
       <c r="G139" t="n">
+        <v>191.0133333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>190.3949999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>30.7139</v>
       </c>
       <c r="G140" t="n">
+        <v>191.0133333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>190.3966666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>3</v>
       </c>
       <c r="G141" t="n">
+        <v>191.0866666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>190.3966666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>326.4297</v>
       </c>
       <c r="G142" t="n">
+        <v>191.0866666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>190.3783333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>2.7</v>
       </c>
       <c r="G143" t="n">
+        <v>191.1600000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>190.3783333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>299.7486</v>
       </c>
       <c r="G144" t="n">
+        <v>191.2466666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>190.3916666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>8191.5841</v>
       </c>
       <c r="G145" t="n">
+        <v>191.3000000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>190.4033333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>492.945</v>
       </c>
       <c r="G146" t="n">
+        <v>191.3533333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>190.4166666666665</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1050</v>
       </c>
       <c r="G147" t="n">
+        <v>191.3733333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>190.4233333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>9.975</v>
       </c>
       <c r="G148" t="n">
+        <v>191.2666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>190.4249999999998</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>22.7002</v>
       </c>
       <c r="G149" t="n">
+        <v>191.2866666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>190.4583333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>4075.948</v>
       </c>
       <c r="G150" t="n">
+        <v>191.2933333333335</v>
+      </c>
+      <c r="H150" t="n">
         <v>190.4899999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>1705.36254564</v>
       </c>
       <c r="G151" t="n">
+        <v>191.2866666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>190.5433333333332</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>124</v>
       </c>
       <c r="G152" t="n">
+        <v>191.2466666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>190.5749999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>500</v>
       </c>
       <c r="G153" t="n">
+        <v>191.2933333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>190.6083333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>360</v>
       </c>
       <c r="G154" t="n">
+        <v>191.2733333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>190.6416666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>31.29890453</v>
       </c>
       <c r="G155" t="n">
+        <v>191.3266666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>190.6866666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>83.6195</v>
       </c>
       <c r="G156" t="n">
+        <v>191.2933333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>190.7166666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>12108.5399</v>
       </c>
       <c r="G157" t="n">
+        <v>191.2333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>190.7216666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>7270.1748</v>
       </c>
       <c r="G158" t="n">
+        <v>191.0866666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>190.7466666666665</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>40000</v>
       </c>
       <c r="G159" t="n">
+        <v>190.9466666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>190.7349999999998</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>4817.1067</v>
       </c>
       <c r="G160" t="n">
+        <v>190.9266666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>190.7466666666665</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>973.331</v>
       </c>
       <c r="G161" t="n">
+        <v>190.9066666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>190.7549999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>304.6756</v>
       </c>
       <c r="G162" t="n">
+        <v>190.8266666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>190.7216666666665</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>281.084</v>
       </c>
       <c r="G163" t="n">
+        <v>190.86</v>
+      </c>
+      <c r="H163" t="n">
         <v>190.7116666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>2424.2938</v>
       </c>
       <c r="G164" t="n">
+        <v>190.6733333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>190.6816666666665</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>375</v>
       </c>
       <c r="G165" t="n">
+        <v>190.5866666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>190.7216666666665</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>571.133</v>
       </c>
       <c r="G166" t="n">
+        <v>190.5066666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>190.7316666666665</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>2192.657</v>
       </c>
       <c r="G167" t="n">
+        <v>190.4266666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>190.7399999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>473.536</v>
       </c>
       <c r="G168" t="n">
+        <v>190.3466666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>190.7333333333332</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>275</v>
       </c>
       <c r="G169" t="n">
+        <v>190.2666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>190.7583333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>32522.1155</v>
       </c>
       <c r="G170" t="n">
+        <v>190.0933333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>190.7449999999999</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>145.1455</v>
       </c>
       <c r="G171" t="n">
+        <v>189.9333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>190.7149999999999</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>498.587</v>
       </c>
       <c r="G172" t="n">
+        <v>189.9600000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>190.7516666666666</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>490.131</v>
       </c>
       <c r="G173" t="n">
+        <v>190.0000000000001</v>
+      </c>
+      <c r="H173" t="n">
         <v>190.7449999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>6041.3404</v>
       </c>
       <c r="G174" t="n">
+        <v>190.0333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>190.7199999999999</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>5938.7505</v>
       </c>
       <c r="G175" t="n">
+        <v>189.9533333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>190.6933333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>2344</v>
       </c>
       <c r="G176" t="n">
+        <v>189.9800000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>190.7083333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>455.8979</v>
       </c>
       <c r="G177" t="n">
+        <v>190.0000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>190.6983333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>5982.3206</v>
       </c>
       <c r="G178" t="n">
+        <v>189.9266666666668</v>
+      </c>
+      <c r="H178" t="n">
         <v>190.6733333333332</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>7288</v>
       </c>
       <c r="G179" t="n">
+        <v>190.0466666666668</v>
+      </c>
+      <c r="H179" t="n">
         <v>190.6599999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>15980</v>
       </c>
       <c r="G180" t="n">
+        <v>190.0733333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>190.6466666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>215.9781</v>
       </c>
       <c r="G181" t="n">
+        <v>189.9866666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>190.6049999999998</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>1628.294</v>
       </c>
       <c r="G182" t="n">
+        <v>190.0066666666668</v>
+      </c>
+      <c r="H182" t="n">
         <v>190.6333333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>85.3125</v>
       </c>
       <c r="G183" t="n">
+        <v>189.9000000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>190.5883333333331</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>4337.561</v>
       </c>
       <c r="G184" t="n">
+        <v>189.9200000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>190.6183333333331</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>4688</v>
       </c>
       <c r="G185" t="n">
+        <v>190.0400000000001</v>
+      </c>
+      <c r="H185" t="n">
         <v>190.6183333333331</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>239.6235</v>
       </c>
       <c r="G186" t="n">
+        <v>190.0200000000002</v>
+      </c>
+      <c r="H186" t="n">
         <v>190.5833333333331</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>2344</v>
       </c>
       <c r="G187" t="n">
+        <v>190.0533333333335</v>
+      </c>
+      <c r="H187" t="n">
         <v>190.5833333333331</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>1047.12041884</v>
       </c>
       <c r="G188" t="n">
+        <v>190.0933333333335</v>
+      </c>
+      <c r="H188" t="n">
         <v>190.5849999999998</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>247.6166</v>
       </c>
       <c r="G189" t="n">
+        <v>190.2000000000002</v>
+      </c>
+      <c r="H189" t="n">
         <v>190.6066666666665</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>622.8212</v>
       </c>
       <c r="G190" t="n">
+        <v>190.3066666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>190.6216666666664</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>158.8516</v>
       </c>
       <c r="G191" t="n">
+        <v>190.3066666666668</v>
+      </c>
+      <c r="H191" t="n">
         <v>190.6366666666664</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>2249.5181</v>
       </c>
       <c r="G192" t="n">
+        <v>190.4133333333335</v>
+      </c>
+      <c r="H192" t="n">
         <v>190.6533333333331</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>1500</v>
       </c>
       <c r="G193" t="n">
+        <v>190.5133333333335</v>
+      </c>
+      <c r="H193" t="n">
         <v>190.6416666666664</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>6.2448</v>
       </c>
       <c r="G194" t="n">
+        <v>190.5200000000001</v>
+      </c>
+      <c r="H194" t="n">
         <v>190.6316666666664</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>2179.155</v>
       </c>
       <c r="G195" t="n">
+        <v>190.5266666666668</v>
+      </c>
+      <c r="H195" t="n">
         <v>190.6199999999997</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>519.155</v>
       </c>
       <c r="G196" t="n">
+        <v>190.6466666666668</v>
+      </c>
+      <c r="H196" t="n">
         <v>190.6066666666664</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>726.667</v>
       </c>
       <c r="G197" t="n">
+        <v>190.6600000000001</v>
+      </c>
+      <c r="H197" t="n">
         <v>190.5849999999998</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>2019.624</v>
       </c>
       <c r="G198" t="n">
+        <v>190.8000000000001</v>
+      </c>
+      <c r="H198" t="n">
         <v>190.5849999999998</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>436.9144</v>
       </c>
       <c r="G199" t="n">
+        <v>190.8066666666668</v>
+      </c>
+      <c r="H199" t="n">
         <v>190.5666666666664</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>2820</v>
       </c>
       <c r="G200" t="n">
+        <v>190.8133333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>190.5683333333331</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>38049.917</v>
       </c>
       <c r="G201" t="n">
+        <v>191.0066666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>190.5633333333331</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>191.8261</v>
       </c>
       <c r="G202" t="n">
+        <v>190.9066666666668</v>
+      </c>
+      <c r="H202" t="n">
         <v>190.5383333333331</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>705.1950000000001</v>
       </c>
       <c r="G203" t="n">
+        <v>190.8000000000001</v>
+      </c>
+      <c r="H203" t="n">
         <v>190.4949999999998</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>6902</v>
       </c>
       <c r="G204" t="n">
+        <v>190.7000000000001</v>
+      </c>
+      <c r="H204" t="n">
         <v>190.4699999999998</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>867.1351</v>
       </c>
       <c r="G205" t="n">
+        <v>190.5933333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>190.4449999999998</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>5.25210084</v>
       </c>
       <c r="G206" t="n">
+        <v>190.5600000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>190.4383333333331</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>16334.5453</v>
       </c>
       <c r="G207" t="n">
+        <v>190.3600000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>190.3999999999998</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>30317.5882</v>
       </c>
       <c r="G208" t="n">
+        <v>190.1666666666668</v>
+      </c>
+      <c r="H208" t="n">
         <v>190.3666666666664</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>4592.9937</v>
       </c>
       <c r="G209" t="n">
+        <v>189.9666666666668</v>
+      </c>
+      <c r="H209" t="n">
         <v>190.3016666666664</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>10.52631578</v>
       </c>
       <c r="G210" t="n">
+        <v>189.9000000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>190.2716666666665</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>3153.436</v>
       </c>
       <c r="G211" t="n">
+        <v>189.8400000000001</v>
+      </c>
+      <c r="H211" t="n">
         <v>190.2449999999998</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>625.3909</v>
       </c>
       <c r="G212" t="n">
+        <v>189.6533333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>190.1866666666665</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>47.8887</v>
       </c>
       <c r="G213" t="n">
+        <v>189.5666666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>190.1533333333331</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>2709.3713</v>
       </c>
       <c r="G214" t="n">
+        <v>189.4866666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>190.1199999999998</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>6</v>
       </c>
       <c r="G215" t="n">
+        <v>189.46</v>
+      </c>
+      <c r="H215" t="n">
         <v>190.1016666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>125</v>
       </c>
       <c r="G216" t="n">
+        <v>189.2800000000001</v>
+      </c>
+      <c r="H216" t="n">
         <v>190.0599999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>4242.8801</v>
       </c>
       <c r="G217" t="n">
+        <v>189.2133333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>190.0333333333331</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>145.5211</v>
       </c>
       <c r="G218" t="n">
+        <v>189.1466666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>190.0099999999998</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>145.3719</v>
       </c>
       <c r="G219" t="n">
+        <v>189.08</v>
+      </c>
+      <c r="H219" t="n">
         <v>190.0033333333331</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>5520</v>
       </c>
       <c r="G220" t="n">
+        <v>188.9266666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>189.9449999999998</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>1646.5907</v>
       </c>
       <c r="G221" t="n">
+        <v>188.8200000000001</v>
+      </c>
+      <c r="H221" t="n">
         <v>189.9166666666665</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>20465.96</v>
       </c>
       <c r="G222" t="n">
+        <v>188.6333333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>189.8516666666665</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>8335.6036</v>
       </c>
       <c r="G223" t="n">
+        <v>188.4866666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>189.7733333333331</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>1860.147</v>
       </c>
       <c r="G224" t="n">
+        <v>188.3333333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>189.7166666666664</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>1302.058</v>
       </c>
       <c r="G225" t="n">
+        <v>188.04</v>
+      </c>
+      <c r="H225" t="n">
         <v>189.6349999999998</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>3</v>
       </c>
       <c r="G226" t="n">
+        <v>187.8866666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>189.5899999999998</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>2357.8</v>
       </c>
       <c r="G227" t="n">
+        <v>187.7533333333334</v>
+      </c>
+      <c r="H227" t="n">
         <v>189.5183333333331</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>316.271</v>
       </c>
       <c r="G228" t="n">
+        <v>187.6266666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>189.4733333333331</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,21 @@
         <v>111.8769</v>
       </c>
       <c r="G229" t="n">
+        <v>187.5000000000001</v>
+      </c>
+      <c r="H229" t="n">
         <v>189.4283333333331</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9117,21 @@
         <v>2344</v>
       </c>
       <c r="G230" t="n">
+        <v>187.3200000000001</v>
+      </c>
+      <c r="H230" t="n">
         <v>189.4083333333331</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9155,21 @@
         <v>3776.443</v>
       </c>
       <c r="G231" t="n">
+        <v>187.2466666666668</v>
+      </c>
+      <c r="H231" t="n">
         <v>189.3883333333331</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9193,21 @@
         <v>3000</v>
       </c>
       <c r="G232" t="n">
+        <v>187.2200000000001</v>
+      </c>
+      <c r="H232" t="n">
         <v>189.3483333333331</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9231,21 @@
         <v>1197.947</v>
       </c>
       <c r="G233" t="n">
+        <v>187.1933333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>189.3083333333331</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9269,21 @@
         <v>5278.715</v>
       </c>
       <c r="G234" t="n">
+        <v>187.1666666666668</v>
+      </c>
+      <c r="H234" t="n">
         <v>189.2866666666664</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9307,21 @@
         <v>8241.9</v>
       </c>
       <c r="G235" t="n">
+        <v>187.2200000000001</v>
+      </c>
+      <c r="H235" t="n">
         <v>189.2616666666664</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9345,21 @@
         <v>8465.712</v>
       </c>
       <c r="G236" t="n">
+        <v>187.2333333333334</v>
+      </c>
+      <c r="H236" t="n">
         <v>189.2299999999998</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9383,21 @@
         <v>80.0005</v>
       </c>
       <c r="G237" t="n">
+        <v>187.5400000000001</v>
+      </c>
+      <c r="H237" t="n">
         <v>189.2366666666664</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9421,21 @@
         <v>100</v>
       </c>
       <c r="G238" t="n">
+        <v>187.8000000000001</v>
+      </c>
+      <c r="H238" t="n">
         <v>189.2416666666664</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9459,21 @@
         <v>3480.7905</v>
       </c>
       <c r="G239" t="n">
+        <v>187.8733333333334</v>
+      </c>
+      <c r="H239" t="n">
         <v>189.1733333333331</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9497,21 @@
         <v>4234.3055</v>
       </c>
       <c r="G240" t="n">
+        <v>187.9533333333335</v>
+      </c>
+      <c r="H240" t="n">
         <v>189.1049999999998</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9535,21 @@
         <v>3.2733</v>
       </c>
       <c r="G241" t="n">
+        <v>187.8933333333335</v>
+      </c>
+      <c r="H241" t="n">
         <v>189.0666666666664</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +9573,21 @@
         <v>3.2155</v>
       </c>
       <c r="G242" t="n">
+        <v>188.0800000000001</v>
+      </c>
+      <c r="H242" t="n">
         <v>189.0366666666664</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +9611,21 @@
         <v>3706.7642</v>
       </c>
       <c r="G243" t="n">
+        <v>188.0200000000001</v>
+      </c>
+      <c r="H243" t="n">
         <v>189.0033333333331</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +9649,21 @@
         <v>9734.0273</v>
       </c>
       <c r="G244" t="n">
+        <v>187.9666666666668</v>
+      </c>
+      <c r="H244" t="n">
         <v>188.9399999999998</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +9687,21 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G245" t="n">
+        <v>187.9066666666668</v>
+      </c>
+      <c r="H245" t="n">
         <v>188.8749999999998</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +9725,21 @@
         <v>1500</v>
       </c>
       <c r="G246" t="n">
+        <v>187.8333333333335</v>
+      </c>
+      <c r="H246" t="n">
         <v>188.8416666666664</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +9763,21 @@
         <v>514.4629</v>
       </c>
       <c r="G247" t="n">
+        <v>187.7533333333335</v>
+      </c>
+      <c r="H247" t="n">
         <v>188.7733333333331</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +9801,21 @@
         <v>193.1305</v>
       </c>
       <c r="G248" t="n">
+        <v>187.6733333333335</v>
+      </c>
+      <c r="H248" t="n">
         <v>188.7033333333331</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +9839,21 @@
         <v>43.8981</v>
       </c>
       <c r="G249" t="n">
+        <v>187.6066666666668</v>
+      </c>
+      <c r="H249" t="n">
         <v>188.6383333333331</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +9877,21 @@
         <v>7620</v>
       </c>
       <c r="G250" t="n">
+        <v>187.5533333333335</v>
+      </c>
+      <c r="H250" t="n">
         <v>188.5733333333331</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +9915,21 @@
         <v>1236</v>
       </c>
       <c r="G251" t="n">
+        <v>187.4200000000001</v>
+      </c>
+      <c r="H251" t="n">
         <v>188.5083333333331</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +9953,21 @@
         <v>2.7</v>
       </c>
       <c r="G252" t="n">
+        <v>187.2866666666668</v>
+      </c>
+      <c r="H252" t="n">
         <v>188.4549999999998</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +9991,21 @@
         <v>10.8827</v>
       </c>
       <c r="G253" t="n">
+        <v>187.1600000000002</v>
+      </c>
+      <c r="H253" t="n">
         <v>188.4033333333331</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10029,21 @@
         <v>7236.9207</v>
       </c>
       <c r="G254" t="n">
+        <v>187.1733333333335</v>
+      </c>
+      <c r="H254" t="n">
         <v>188.3366666666664</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10067,21 @@
         <v>53050.713</v>
       </c>
       <c r="G255" t="n">
+        <v>186.9600000000001</v>
+      </c>
+      <c r="H255" t="n">
         <v>188.2133333333331</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10105,21 @@
         <v>20444.8797</v>
       </c>
       <c r="G256" t="n">
+        <v>187.0000000000001</v>
+      </c>
+      <c r="H256" t="n">
         <v>188.1549999999998</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10143,21 @@
         <v>2547.4262</v>
       </c>
       <c r="G257" t="n">
+        <v>186.7333333333335</v>
+      </c>
+      <c r="H257" t="n">
         <v>188.0549999999998</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10181,21 @@
         <v>8362.9488</v>
       </c>
       <c r="G258" t="n">
+        <v>186.5333333333334</v>
+      </c>
+      <c r="H258" t="n">
         <v>187.9366666666664</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10219,21 @@
         <v>2993.8878</v>
       </c>
       <c r="G259" t="n">
+        <v>186.3933333333335</v>
+      </c>
+      <c r="H259" t="n">
         <v>187.8366666666664</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10257,21 @@
         <v>576.8537</v>
       </c>
       <c r="G260" t="n">
+        <v>186.2600000000001</v>
+      </c>
+      <c r="H260" t="n">
         <v>187.7366666666664</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10295,21 @@
         <v>2993.8878</v>
       </c>
       <c r="G261" t="n">
+        <v>186.0733333333334</v>
+      </c>
+      <c r="H261" t="n">
         <v>187.6083333333331</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10333,21 @@
         <v>3436.0212</v>
       </c>
       <c r="G262" t="n">
+        <v>185.8866666666668</v>
+      </c>
+      <c r="H262" t="n">
         <v>187.5183333333331</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10371,21 @@
         <v>2937.031</v>
       </c>
       <c r="G263" t="n">
+        <v>185.6933333333334</v>
+      </c>
+      <c r="H263" t="n">
         <v>187.4266666666664</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10409,21 @@
         <v>19731.0444</v>
       </c>
       <c r="G264" t="n">
+        <v>185.4866666666668</v>
+      </c>
+      <c r="H264" t="n">
         <v>187.3349999999998</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10447,21 @@
         <v>34.8206</v>
       </c>
       <c r="G265" t="n">
+        <v>185.2800000000001</v>
+      </c>
+      <c r="H265" t="n">
         <v>187.2449999999998</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10485,21 @@
         <v>165.8237</v>
       </c>
       <c r="G266" t="n">
+        <v>185.0400000000001</v>
+      </c>
+      <c r="H266" t="n">
         <v>187.1283333333331</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +10523,21 @@
         <v>7838.1067</v>
       </c>
       <c r="G267" t="n">
+        <v>184.7466666666668</v>
+      </c>
+      <c r="H267" t="n">
         <v>187.0516666666664</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +10561,21 @@
         <v>691.2954</v>
       </c>
       <c r="G268" t="n">
+        <v>184.4600000000001</v>
+      </c>
+      <c r="H268" t="n">
         <v>186.9766666666664</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +10599,21 @@
         <v>650.0915</v>
       </c>
       <c r="G269" t="n">
+        <v>184.2266666666668</v>
+      </c>
+      <c r="H269" t="n">
         <v>186.9016666666664</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +10637,21 @@
         <v>446.5121</v>
       </c>
       <c r="G270" t="n">
+        <v>184.3133333333334</v>
+      </c>
+      <c r="H270" t="n">
         <v>186.8166666666664</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +10675,21 @@
         <v>1897</v>
       </c>
       <c r="G271" t="n">
+        <v>184.1066666666668</v>
+      </c>
+      <c r="H271" t="n">
         <v>186.7216666666664</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +10713,21 @@
         <v>10215.823</v>
       </c>
       <c r="G272" t="n">
+        <v>184.1000000000001</v>
+      </c>
+      <c r="H272" t="n">
         <v>186.6666666666664</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +10751,21 @@
         <v>81</v>
       </c>
       <c r="G273" t="n">
+        <v>184.1066666666668</v>
+      </c>
+      <c r="H273" t="n">
         <v>186.5716666666664</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +10789,21 @@
         <v>2343.6052</v>
       </c>
       <c r="G274" t="n">
+        <v>184.1133333333334</v>
+      </c>
+      <c r="H274" t="n">
         <v>186.493333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +10827,21 @@
         <v>3491.5897</v>
       </c>
       <c r="G275" t="n">
+        <v>184.0466666666668</v>
+      </c>
+      <c r="H275" t="n">
         <v>186.383333333333</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +10865,21 @@
         <v>150.9233</v>
       </c>
       <c r="G276" t="n">
+        <v>184.0066666666668</v>
+      </c>
+      <c r="H276" t="n">
         <v>186.2899999999997</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +10903,21 @@
         <v>1182.9939</v>
       </c>
       <c r="G277" t="n">
+        <v>183.9666666666668</v>
+      </c>
+      <c r="H277" t="n">
         <v>186.2066666666664</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +10941,21 @@
         <v>6079.028</v>
       </c>
       <c r="G278" t="n">
+        <v>183.8466666666668</v>
+      </c>
+      <c r="H278" t="n">
         <v>186.1016666666664</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +10979,21 @@
         <v>755</v>
       </c>
       <c r="G279" t="n">
+        <v>183.7400000000001</v>
+      </c>
+      <c r="H279" t="n">
         <v>185.9999999999997</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11017,21 @@
         <v>1877.7319</v>
       </c>
       <c r="G280" t="n">
+        <v>183.7400000000001</v>
+      </c>
+      <c r="H280" t="n">
         <v>185.948333333333</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11055,21 @@
         <v>48.96626768</v>
       </c>
       <c r="G281" t="n">
+        <v>183.7666666666668</v>
+      </c>
+      <c r="H281" t="n">
         <v>185.8649999999997</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11093,21 @@
         <v>1868.1121</v>
       </c>
       <c r="G282" t="n">
+        <v>183.6866666666668</v>
+      </c>
+      <c r="H282" t="n">
         <v>185.8149999999997</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11131,21 @@
         <v>239.6235</v>
       </c>
       <c r="G283" t="n">
+        <v>183.6000000000001</v>
+      </c>
+      <c r="H283" t="n">
         <v>185.7549999999997</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,18 +11169,21 @@
         <v>2338.4878</v>
       </c>
       <c r="G284" t="n">
+        <v>183.5133333333334</v>
+      </c>
+      <c r="H284" t="n">
         <v>185.6966666666664</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,18 +11207,21 @@
         <v>3986.7393</v>
       </c>
       <c r="G285" t="n">
+        <v>183.2600000000001</v>
+      </c>
+      <c r="H285" t="n">
         <v>185.6216666666664</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,18 +11245,21 @@
         <v>8.45553737</v>
       </c>
       <c r="G286" t="n">
+        <v>183.04</v>
+      </c>
+      <c r="H286" t="n">
         <v>185.5099999999997</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10423,18 +11283,21 @@
         <v>1200</v>
       </c>
       <c r="G287" t="n">
+        <v>182.7866666666667</v>
+      </c>
+      <c r="H287" t="n">
         <v>185.4249999999997</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10458,18 +11321,21 @@
         <v>3642</v>
       </c>
       <c r="G288" t="n">
+        <v>182.5866666666667</v>
+      </c>
+      <c r="H288" t="n">
         <v>185.3116666666664</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,18 +11359,21 @@
         <v>3</v>
       </c>
       <c r="G289" t="n">
+        <v>182.3200000000001</v>
+      </c>
+      <c r="H289" t="n">
         <v>185.1983333333331</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10528,18 +11397,21 @@
         <v>10</v>
       </c>
       <c r="G290" t="n">
+        <v>182.12</v>
+      </c>
+      <c r="H290" t="n">
         <v>185.0833333333331</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,18 +11435,21 @@
         <v>3</v>
       </c>
       <c r="G291" t="n">
+        <v>181.96</v>
+      </c>
+      <c r="H291" t="n">
         <v>184.9683333333331</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10598,18 +11473,21 @@
         <v>10869.6085</v>
       </c>
       <c r="G292" t="n">
+        <v>181.8933333333334</v>
+      </c>
+      <c r="H292" t="n">
         <v>184.8749999999997</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,578 +11511,1073 @@
         <v>13240.5636</v>
       </c>
       <c r="G293" t="n">
+        <v>181.7733333333334</v>
+      </c>
+      <c r="H293" t="n">
         <v>184.7466666666664</v>
       </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>182.4</v>
+        <v>0</v>
       </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C294" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="D294" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="E294" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3</v>
+      </c>
+      <c r="G294" t="n">
+        <v>181.64</v>
+      </c>
+      <c r="H294" t="n">
+        <v>184.6183333333331</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C295" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D295" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="E295" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F295" t="n">
+        <v>8130.2222</v>
+      </c>
+      <c r="G295" t="n">
+        <v>181.3933333333334</v>
+      </c>
+      <c r="H295" t="n">
+        <v>184.4916666666664</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C296" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E296" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F296" t="n">
+        <v>6.2448</v>
+      </c>
+      <c r="G296" t="n">
+        <v>181.1533333333333</v>
+      </c>
+      <c r="H296" t="n">
+        <v>184.3449999999998</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C297" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E297" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G297" t="n">
+        <v>181.02</v>
+      </c>
+      <c r="H297" t="n">
+        <v>184.1849999999998</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E298" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>793.237</v>
+      </c>
+      <c r="G298" t="n">
+        <v>180.9933333333334</v>
+      </c>
+      <c r="H298" t="n">
+        <v>184.0533333333331</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="L298" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1416.0998</v>
+      </c>
+      <c r="G299" t="n">
+        <v>180.86</v>
+      </c>
+      <c r="H299" t="n">
+        <v>183.9433333333331</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="L299" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C300" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D300" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F300" t="n">
+        <v>182.053</v>
+      </c>
+      <c r="G300" t="n">
+        <v>180.9066666666667</v>
+      </c>
+      <c r="H300" t="n">
+        <v>183.8599999999998</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="L300" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="C301" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D301" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E301" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="F301" t="n">
+        <v>663.364</v>
+      </c>
+      <c r="G301" t="n">
+        <v>180.9533333333334</v>
+      </c>
+      <c r="H301" t="n">
+        <v>183.7749999999998</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="L301" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M301" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C294" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="D294" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="E294" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="F294" t="n">
-        <v>3</v>
-      </c>
-      <c r="G294" t="n">
-        <v>184.6183333333331</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C302" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E302" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="G302" t="n">
+        <v>181.0000000000001</v>
+      </c>
+      <c r="H302" t="n">
+        <v>183.6549999999998</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="L302" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C295" t="n">
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>898.681</v>
+      </c>
+      <c r="G303" t="n">
+        <v>181.0733333333334</v>
+      </c>
+      <c r="H303" t="n">
+        <v>183.5749999999998</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="L303" t="n">
         <v>180.2</v>
       </c>
-      <c r="D295" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="E295" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F295" t="n">
-        <v>8130.2222</v>
-      </c>
-      <c r="G295" t="n">
-        <v>184.4916666666664</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+      <c r="M303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C304" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D304" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="E304" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2669.8716</v>
+      </c>
+      <c r="G304" t="n">
+        <v>181.1733333333334</v>
+      </c>
+      <c r="H304" t="n">
+        <v>183.4999999999998</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L304" t="n">
         <v>180.2</v>
       </c>
-      <c r="C296" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D296" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E296" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F296" t="n">
-        <v>6.2448</v>
-      </c>
-      <c r="G296" t="n">
-        <v>184.3449999999998</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+      <c r="M304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C305" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D305" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E305" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1526.3783</v>
+      </c>
+      <c r="G305" t="n">
+        <v>181.2266666666668</v>
+      </c>
+      <c r="H305" t="n">
+        <v>183.4133333333331</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="L305" t="n">
         <v>180.2</v>
       </c>
-      <c r="C297" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D297" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E297" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F297" t="n">
-        <v>3</v>
-      </c>
-      <c r="G297" t="n">
-        <v>184.1849999999998</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+      <c r="M305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
         <v>181.8</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C306" t="n">
         <v>181.8</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D306" t="n">
         <v>181.8</v>
       </c>
-      <c r="E298" t="n">
+      <c r="E306" t="n">
         <v>181.8</v>
       </c>
-      <c r="F298" t="n">
-        <v>793.237</v>
-      </c>
-      <c r="G298" t="n">
-        <v>184.0533333333331</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="n">
+      <c r="F306" t="n">
+        <v>2385.3018</v>
+      </c>
+      <c r="G306" t="n">
+        <v>181.2800000000001</v>
+      </c>
+      <c r="H306" t="n">
+        <v>183.3299999999998</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="L306" t="n">
         <v>180.2</v>
       </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+      <c r="M306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="C307" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D307" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E307" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3345.294</v>
+      </c>
+      <c r="G307" t="n">
+        <v>181.4400000000001</v>
+      </c>
+      <c r="H307" t="n">
+        <v>183.2966666666665</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="L307" t="n">
         <v>180.2</v>
       </c>
-      <c r="C299" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D299" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E299" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1416.0998</v>
-      </c>
-      <c r="G299" t="n">
-        <v>183.9433333333331</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+      <c r="M307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C300" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D300" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E300" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F300" t="n">
-        <v>182.053</v>
-      </c>
-      <c r="G300" t="n">
-        <v>183.8599999999998</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C308" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E308" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>27576.384</v>
+      </c>
+      <c r="G308" t="n">
+        <v>181.6266666666668</v>
+      </c>
+      <c r="H308" t="n">
+        <v>183.2349999999998</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="L308" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="C301" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D301" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E301" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="F301" t="n">
-        <v>663.364</v>
-      </c>
-      <c r="G301" t="n">
-        <v>183.7749999999998</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="E309" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F309" t="n">
+        <v>17940.8404</v>
+      </c>
+      <c r="G309" t="n">
+        <v>181.8133333333334</v>
+      </c>
+      <c r="H309" t="n">
+        <v>183.1699999999998</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C302" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D302" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E302" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="G302" t="n">
-        <v>183.6549999999998</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="C310" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D310" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="E310" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F310" t="n">
+        <v>7087.2178</v>
+      </c>
+      <c r="G310" t="n">
+        <v>182.0133333333334</v>
+      </c>
+      <c r="H310" t="n">
+        <v>183.1066666666665</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="C303" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E303" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F303" t="n">
-        <v>898.681</v>
-      </c>
-      <c r="G303" t="n">
-        <v>183.5749999999998</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C311" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D311" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E311" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F311" t="n">
+        <v>48</v>
+      </c>
+      <c r="G311" t="n">
+        <v>182.3266666666668</v>
+      </c>
+      <c r="H311" t="n">
+        <v>183.0716666666665</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C304" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="D304" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="E304" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F304" t="n">
-        <v>2669.8716</v>
-      </c>
-      <c r="G304" t="n">
-        <v>183.4999999999998</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C312" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E312" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F312" t="n">
+        <v>215.823</v>
+      </c>
+      <c r="G312" t="n">
+        <v>182.6800000000001</v>
+      </c>
+      <c r="H312" t="n">
+        <v>183.0333333333332</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C305" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D305" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E305" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1526.3783</v>
-      </c>
-      <c r="G305" t="n">
-        <v>183.4133333333331</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C313" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D313" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E313" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.1251</v>
+      </c>
+      <c r="G313" t="n">
+        <v>182.9266666666668</v>
+      </c>
+      <c r="H313" t="n">
+        <v>182.9949999999998</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C306" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D306" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E306" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F306" t="n">
-        <v>2385.3018</v>
-      </c>
-      <c r="G306" t="n">
-        <v>183.3299999999998</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C314" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D314" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E314" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>4401.9549</v>
+      </c>
+      <c r="G314" t="n">
+        <v>183.2133333333335</v>
+      </c>
+      <c r="H314" t="n">
+        <v>182.9533333333332</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="C307" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D307" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E307" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="F307" t="n">
-        <v>3345.294</v>
-      </c>
-      <c r="G307" t="n">
-        <v>183.2966666666665</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C315" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>203</v>
+      </c>
+      <c r="G315" t="n">
+        <v>183.5000000000001</v>
+      </c>
+      <c r="H315" t="n">
+        <v>182.9949999999998</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>186</v>
+      </c>
+      <c r="D316" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E316" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F316" t="n">
+        <v>273.3688</v>
+      </c>
+      <c r="G316" t="n">
+        <v>183.7800000000001</v>
+      </c>
+      <c r="H316" t="n">
+        <v>182.9699999999998</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="L316" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>186</v>
+      </c>
+      <c r="C317" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="D317" t="n">
+        <v>186</v>
+      </c>
+      <c r="E317" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>196</v>
+      </c>
+      <c r="G317" t="n">
+        <v>184.0533333333334</v>
+      </c>
+      <c r="H317" t="n">
+        <v>182.9849999999998</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N375"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>34322.61667197</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>1982.024171970003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>2437.552771970003</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>15949.21697197</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>16477.06897197</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>15963.37297197</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>16329.12497197</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>15493.50297197</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>15493.50297197</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>15502.50297197</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>15331.93297197</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>15053.93297197</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>15155.92097197</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>14994.28597197</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>14436.15897197</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-1192.047728029997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-3914.378628029996</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-5177.971228029996</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-5174.971228029996</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-5584.260228029996</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-24709.46732803</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>-37817.29692802999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>-34988.54932802999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-43474.79112803</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>-43474.79112803</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>-33576.10012803</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>-33576.10012803</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>-33406.89612803</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-33406.89612803</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>-38193.31432803</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>-37250.03232803</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>-41812.59592803</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,15 @@
         <v>-41809.59592803</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4906,15 @@
         <v>-44633.24992803</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>-38861.87492803</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5005,15 @@
         <v>-38861.87492803</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>-53121.62542803001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +6919,15 @@
         <v>-25445.53036735001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7800,18 +7183,15 @@
         <v>-35317.56776735</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8196,18 +7546,15 @@
         <v>-100538.51231299</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10254,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10287,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10320,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10353,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10386,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11330,16 +10419,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11366,16 +10452,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10485,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10518,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10551,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10584,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +10617,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10650,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11618,16 +10683,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11654,16 +10716,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +10749,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10782,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11762,16 +10815,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11798,16 +10848,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11834,16 +10881,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11870,16 +10914,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11906,16 +10947,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11942,16 +10980,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11978,16 +11013,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12014,16 +11046,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12050,16 +11079,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12086,16 +11112,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12122,16 +11145,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12158,16 +11178,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12194,16 +11211,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12230,16 +11244,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12266,16 +11277,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12302,16 +11310,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12338,16 +11343,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12374,16 +11376,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12410,16 +11409,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12446,16 +11442,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12482,16 +11475,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12518,16 +11508,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12554,16 +11541,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12590,16 +11574,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12626,16 +11607,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12662,16 +11640,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12698,16 +11673,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12734,16 +11706,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12770,16 +11739,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12806,16 +11772,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12842,16 +11805,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12878,16 +11838,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12914,16 +11871,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12950,16 +11904,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12986,16 +11937,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13020,1012 +11968,943 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="n">
-        <v>182.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="D352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="E352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F352" t="n">
+        <v>3</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-166524.12584521</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C353" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="E353" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>8130.2222</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-174654.3480452099</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F354" t="n">
+        <v>6.2448</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-174654.3480452099</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F355" t="n">
+        <v>3</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-174654.3480452099</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2</v>
+      </c>
+      <c r="I355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F356" t="n">
+        <v>793.237</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-173861.11104521</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2</v>
+      </c>
+      <c r="I356" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1416.0998</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-175277.2108452099</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2</v>
+      </c>
+      <c r="I357" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>182.053</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-175095.1578452099</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2</v>
+      </c>
+      <c r="I358" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="C359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E359" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="F359" t="n">
+        <v>663.364</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-175095.1578452099</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2</v>
+      </c>
+      <c r="I359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J359" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C360" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D360" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E360" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-175095.1578452099</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>898.681</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-174196.4768452099</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2</v>
+      </c>
+      <c r="I361" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J361" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C362" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D362" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="E362" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F362" t="n">
+        <v>2669.8716</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-171526.6052452099</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2</v>
+      </c>
+      <c r="I362" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K362" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="D352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="E352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="F352" t="n">
-        <v>3</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-166524.12584521</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C363" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D363" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E363" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1526.3783</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-173052.9835452099</v>
+      </c>
+      <c r="H363" t="n">
+        <v>2</v>
+      </c>
+      <c r="I363" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="J363" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C353" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D353" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="E353" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F353" t="n">
-        <v>8130.2222</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C364" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D364" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E364" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F364" t="n">
+        <v>2385.3018</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-173052.9835452099</v>
+      </c>
+      <c r="H364" t="n">
+        <v>2</v>
+      </c>
+      <c r="I364" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J364" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F354" t="n">
-        <v>6.2448</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
-      <c r="J354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="C365" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D365" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E365" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F365" t="n">
+        <v>3345.294</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-169707.6895452099</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2</v>
+      </c>
+      <c r="I365" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J365" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F355" t="n">
-        <v>3</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C366" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="E366" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F366" t="n">
+        <v>27576.384</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-197284.0735452099</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="C367" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="E367" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>17940.8404</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-197284.0735452099</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
         <v>181.8</v>
       </c>
-      <c r="C356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F356" t="n">
-        <v>793.237</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-173861.11104521</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
-      <c r="J356" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F357" t="n">
-        <v>1416.0998</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-175277.2108452099</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="n">
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="C368" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D368" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="E368" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F368" t="n">
+        <v>7087.2178</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-190196.8557452099</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
         <v>181.8</v>
       </c>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="C369" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D369" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E369" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="F369" t="n">
+        <v>48</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-190148.8557452099</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
         <v>181.8</v>
       </c>
-      <c r="C358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F358" t="n">
-        <v>182.053</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-175095.1578452099</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="C359" t="n">
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C370" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D370" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E370" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F370" t="n">
+        <v>215.823</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-189933.0327452099</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
         <v>181.8</v>
       </c>
-      <c r="D359" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E359" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="F359" t="n">
-        <v>663.364</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-175095.1578452099</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
-      <c r="J359" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C371" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D371" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E371" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.1251</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-189933.0327452099</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
         <v>181.8</v>
       </c>
-      <c r="C360" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D360" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E360" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F360" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-175095.1578452099</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
-      <c r="J360" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
+      <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="C361" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D361" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E361" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F361" t="n">
-        <v>898.681</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-174196.4768452099</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
-      <c r="J361" t="n">
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C372" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D372" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E372" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F372" t="n">
+        <v>4401.9549</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-194334.9876452099</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
         <v>181.8</v>
       </c>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="E373" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F373" t="n">
+        <v>203</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-194131.9876452099</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
         <v>181.8</v>
       </c>
-      <c r="C362" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="D362" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="E362" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F362" t="n">
-        <v>2669.8716</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-171526.6052452099</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
+      <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C374" t="n">
+        <v>186</v>
+      </c>
+      <c r="D374" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E374" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F374" t="n">
+        <v>273.3688</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-194405.3564452099</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
         <v>181.8</v>
       </c>
-      <c r="C363" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D363" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E363" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F363" t="n">
-        <v>1526.3783</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-173052.9835452099</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
+      <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>186</v>
+      </c>
+      <c r="C375" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="D375" t="n">
+        <v>186</v>
+      </c>
+      <c r="E375" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F375" t="n">
+        <v>196</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-194601.3564452099</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
         <v>181.8</v>
       </c>
-      <c r="C364" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D364" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E364" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F364" t="n">
-        <v>2385.3018</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-173052.9835452099</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
+      <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="C365" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D365" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E365" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="F365" t="n">
-        <v>3345.294</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-169707.6895452099</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
-      <c r="J365" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C366" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="D366" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="E366" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="F366" t="n">
-        <v>27576.384</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-197284.0735452099</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="C367" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="D367" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="E367" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="F367" t="n">
-        <v>17940.8404</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-197284.0735452099</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="C368" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D368" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="E368" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F368" t="n">
-        <v>7087.2178</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-190196.8557452099</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="C369" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D369" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E369" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="F369" t="n">
-        <v>48</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-190148.8557452099</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C370" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D370" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E370" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F370" t="n">
-        <v>215.823</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-189933.0327452099</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C371" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D371" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E371" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F371" t="n">
-        <v>0.1251</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-189933.0327452099</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C372" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D372" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E372" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F372" t="n">
-        <v>4401.9549</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-194334.9876452099</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C373" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="D373" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="E373" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F373" t="n">
-        <v>203</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-194131.9876452099</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="C374" t="n">
-        <v>186</v>
-      </c>
-      <c r="D374" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="E374" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F374" t="n">
-        <v>273.3688</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-194405.3564452099</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>186</v>
-      </c>
-      <c r="C375" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="D375" t="n">
-        <v>186</v>
-      </c>
-      <c r="E375" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F375" t="n">
-        <v>196</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-194601.3564452099</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5085.018428029995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3067.246571970006</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3234.861571970006</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2942.921571970006</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3940.587471970005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3924.731771970005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3774.224571970005</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1114.302328029995</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>15643.11267197001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>13560.23897197001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>6920.784771970006</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>34322.61667197</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>34452.61667197</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>20651.70517197</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>20827.70517197</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>21644.70517197</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>22483.13717197</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>22598.98437197</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>22368.23877197001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>22427.29627197</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>22427.29627197</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>22216.61977197</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>4116.759971970003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4125.331071970003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3931.042671970003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3931.042671970003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2130.822171970003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1976.063771970003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1976.063771970003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1976.063771970003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1979.063771970003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1982.024171970003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1771.175671970003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2195.552071970003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2437.552771970003</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2437.552771970003</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3198.123671970003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2964.130371970003</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>15949.21697197</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>16477.06897197</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>15963.37297197</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>16329.12497197</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>15502.50297197</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15331.93297197</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>15334.93297197</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>15053.93297197</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>15155.92097197</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>14994.28597197</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>14436.15897197</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>8256.952271970003</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1198.047728029997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1192.047728029997</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3914.378628029996</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-5177.971228029996</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-5174.971228029996</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5355.333928029996</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-5352.333928029996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-5584.260228029996</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-5581.260228029996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6493.187528029996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16493.18752803</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16227.18752803</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22230.57252803</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22341.79462802999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-24709.97862803</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-24698.75092803</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-24709.46732803</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-24910.98402803</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-24910.98402803</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-24840.51512803</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-28587.48952803</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-28584.48952803</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-28584.48952803</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-37817.29692802999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-34988.54932802999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-40646.04432803</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-43474.79112803</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-43474.79112803</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-33576.10012803</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-33576.10012803</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-33406.89612803</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-33406.89612803</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-38193.31432803</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-37250.03232803</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-41812.59592803</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41809.59592803</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-44633.24992803</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-38861.87492803</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-38861.87492803</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-53118.62542803001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-53118.62542803001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-53118.62542803001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-53121.62542803001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-25445.53036735001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-35317.56776735</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-100538.51231299</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -11671,10 +11671,14 @@
         <v>-156524.43144521</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="J342" t="n">
+        <v>182.2</v>
+      </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
@@ -11707,8 +11711,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11747,19 @@
         <v>-160511.17074521</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="J344" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +11791,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +11830,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +11869,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +11908,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +11944,19 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>181</v>
+      </c>
+      <c r="J349" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +11985,19 @@
         <v>-153283.56224521</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>181</v>
+      </c>
+      <c r="J350" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12026,19 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="J351" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12070,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12109,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12148,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,15 +12184,17 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>180.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K355" t="inlineStr"/>
+        <v>182.2</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,17 +12223,17 @@
         <v>-173861.11104521</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>180.2</v>
       </c>
       <c r="J356" t="n">
-        <v>180.2</v>
+        <v>182.2</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L356" t="n">
@@ -12178,17 +12264,17 @@
         <v>-175277.2108452099</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>181.8</v>
       </c>
       <c r="J357" t="n">
-        <v>180.2</v>
+        <v>182.2</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
@@ -12219,15 +12305,19 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>180.2</v>
       </c>
       <c r="J358" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K358" t="inlineStr"/>
+        <v>182.2</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12256,17 +12346,17 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>181.8</v>
       </c>
       <c r="J359" t="n">
-        <v>180.2</v>
+        <v>182.2</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -12297,15 +12387,17 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>181.8</v>
+      </c>
       <c r="J360" t="n">
-        <v>180.2</v>
+        <v>182.2</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12336,15 +12428,19 @@
         <v>-174196.4768452099</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>181.8</v>
       </c>
       <c r="J361" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K361" t="inlineStr"/>
+        <v>182.2</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12373,17 +12469,17 @@
         <v>-171526.6052452099</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>182.1</v>
       </c>
       <c r="J362" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12414,13 +12510,13 @@
         <v>-173052.9835452099</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>182.5</v>
       </c>
       <c r="J363" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12455,13 +12551,13 @@
         <v>-173052.9835452099</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>181.8</v>
       </c>
       <c r="J364" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12496,13 +12592,13 @@
         <v>-169707.6895452099</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>181.8</v>
       </c>
       <c r="J365" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12541,7 +12637,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12580,7 +12676,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12619,7 +12715,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12658,7 +12754,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12697,7 +12793,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12736,7 +12832,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12775,7 +12871,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12814,7 +12910,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12853,7 +12949,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12892,7 +12988,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>181.8</v>
+        <v>182.2</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12905,6 +13001,6 @@
       <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5085.018428029995</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3067.246571970006</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3234.861571970006</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2942.921571970006</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3940.587471970005</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3924.731771970005</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3774.224571970005</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1114.302328029995</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>15643.11267197001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>13560.23897197001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>6920.784771970006</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>34322.61667197</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>34452.61667197</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>20651.70517197</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>20827.70517197</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>21644.70517197</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>22483.13717197</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>22598.98437197</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>22368.23877197001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>22427.29627197</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>22427.29627197</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>22216.61977197</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>4116.759971970003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4125.331071970003</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3931.042671970003</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3931.042671970003</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2130.822171970003</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1976.063771970003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1976.063771970003</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1976.063771970003</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1979.063771970003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1982.024171970003</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1771.175671970003</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2195.552071970003</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2437.552771970003</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2437.552771970003</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>3198.123671970003</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2964.130371970003</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>15963.37297197</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>16329.12497197</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>15502.50297197</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15331.93297197</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>15334.93297197</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>15053.93297197</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>15155.92097197</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>14994.28597197</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>14436.15897197</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>8256.952271970003</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1198.047728029997</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1192.047728029997</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3914.378628029996</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-5177.971228029996</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-5174.971228029996</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5355.333928029996</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-5352.333928029996</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-5584.260228029996</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-5581.260228029996</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6493.187528029996</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16493.18752803</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-16227.18752803</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-22230.57252803</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-22341.79462802999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-24709.97862803</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-24698.75092803</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-24709.46732803</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-24910.98402803</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-24910.98402803</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-24840.51512803</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-28587.48952803</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-28584.48952803</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-28584.48952803</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-37817.29692802999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-34988.54932802999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-40646.04432803</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-43474.79112803</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-43474.79112803</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-33744.15012803</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-33576.10012803</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-33576.10012803</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-33406.89612803</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-33406.89612803</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-41812.59592803</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-44633.24992803</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-53118.62542803001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-53118.62542803001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-53118.62542803001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-40065.71469219001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-35974.36183459</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-34266.06340363</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-34357.75350363</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-34251.41790363</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-29532.01751411</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-34538.91026735001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-32355.84996735001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-25349.84996735001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-25347.14996735001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-25263.97096735001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-25421.51646735001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-25414.81646735001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-25445.53036735001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-25442.53036735001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-25768.96006735001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-25766.26006735001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-26066.00866735</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-35307.59276735</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-35317.56776735</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-35294.86756735</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-39370.81556735</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-41159.79761299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-53268.33751298999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-60538.51231298999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-100538.51231299</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-96026.08121299</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-95744.99721299</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-98169.29101299</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-97794.29101299</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-130316.40651299</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-135859.15991299</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-133971.05781299</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-126899.03591299</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-125270.74191299</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-125356.05441299</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-113426.61309415</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-111177.09499415</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-112677.09499415</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-113107.76459415</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-110287.76459415</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-72237.84759414999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-73296.80879415</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-89626.10199330999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-89615.57567753</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-86462.13967752999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-87087.53057752999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-87033.64187753</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-87158.64187753</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-91401.52197752999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-115740.89127753</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11671,14 +11671,10 @@
         <v>-156524.43144521</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="J342" t="n">
-        <v>182.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
@@ -11711,293 +11707,267 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K343" t="inlineStr">
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="C344" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="D344" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="E344" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="F344" t="n">
+        <v>8.45553737</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-160511.17074521</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="C345" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-160511.17074521</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="C346" t="n">
+        <v>181</v>
+      </c>
+      <c r="D346" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="E346" t="n">
+        <v>181</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3642</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-164153.17074521</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>181</v>
+      </c>
+      <c r="C347" t="n">
+        <v>181</v>
+      </c>
+      <c r="D347" t="n">
+        <v>181</v>
+      </c>
+      <c r="E347" t="n">
+        <v>181</v>
+      </c>
+      <c r="F347" t="n">
+        <v>3</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-164153.17074521</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>181</v>
+      </c>
+      <c r="J347" t="n">
+        <v>181</v>
+      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>181</v>
+      </c>
+      <c r="C348" t="n">
+        <v>181</v>
+      </c>
+      <c r="D348" t="n">
+        <v>181</v>
+      </c>
+      <c r="E348" t="n">
+        <v>181</v>
+      </c>
+      <c r="F348" t="n">
+        <v>10</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-164153.17074521</v>
+      </c>
+      <c r="H348" t="n">
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>181</v>
+      </c>
+      <c r="J348" t="n">
+        <v>181</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>181</v>
+      </c>
+      <c r="C349" t="n">
+        <v>181</v>
+      </c>
+      <c r="D349" t="n">
+        <v>181</v>
+      </c>
+      <c r="E349" t="n">
+        <v>181</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-164153.17074521</v>
+      </c>
+      <c r="H349" t="n">
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>181</v>
+      </c>
+      <c r="J349" t="n">
+        <v>181</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>181</v>
+      </c>
+      <c r="C350" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="D350" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E350" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10869.6085</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-153283.56224521</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>181</v>
+      </c>
+      <c r="J350" t="n">
+        <v>181</v>
+      </c>
+      <c r="K350" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="C344" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="D344" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="E344" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="F344" t="n">
-        <v>8.45553737</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-160511.17074521</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="J344" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="C345" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="D345" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="E345" t="n">
-        <v>181.1</v>
-      </c>
-      <c r="F345" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-160511.17074521</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="C346" t="n">
-        <v>181</v>
-      </c>
-      <c r="D346" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="E346" t="n">
-        <v>181</v>
-      </c>
-      <c r="F346" t="n">
-        <v>3642</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>181</v>
-      </c>
-      <c r="C347" t="n">
-        <v>181</v>
-      </c>
-      <c r="D347" t="n">
-        <v>181</v>
-      </c>
-      <c r="E347" t="n">
-        <v>181</v>
-      </c>
-      <c r="F347" t="n">
-        <v>3</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>181</v>
-      </c>
-      <c r="C348" t="n">
-        <v>181</v>
-      </c>
-      <c r="D348" t="n">
-        <v>181</v>
-      </c>
-      <c r="E348" t="n">
-        <v>181</v>
-      </c>
-      <c r="F348" t="n">
-        <v>10</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>181</v>
-      </c>
-      <c r="C349" t="n">
-        <v>181</v>
-      </c>
-      <c r="D349" t="n">
-        <v>181</v>
-      </c>
-      <c r="E349" t="n">
-        <v>181</v>
-      </c>
-      <c r="F349" t="n">
-        <v>3</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>181</v>
-      </c>
-      <c r="J349" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>181</v>
-      </c>
-      <c r="C350" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="D350" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E350" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="F350" t="n">
-        <v>10869.6085</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-153283.56224521</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>181</v>
-      </c>
-      <c r="J350" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12032,7 +12002,7 @@
         <v>182.4</v>
       </c>
       <c r="J351" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12067,11 +12037,13 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>180.3</v>
+      </c>
       <c r="J352" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12106,11 +12078,13 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>180.3</v>
+      </c>
       <c r="J353" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12145,11 +12119,13 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>180.2</v>
+      </c>
       <c r="J354" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12184,11 +12160,13 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>180.2</v>
+      </c>
       <c r="J355" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12229,7 +12207,7 @@
         <v>180.2</v>
       </c>
       <c r="J356" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12270,7 +12248,7 @@
         <v>181.8</v>
       </c>
       <c r="J357" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12311,7 +12289,7 @@
         <v>180.2</v>
       </c>
       <c r="J358" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12352,7 +12330,7 @@
         <v>181.8</v>
       </c>
       <c r="J359" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12387,13 +12365,11 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>181.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12434,7 +12410,7 @@
         <v>181.8</v>
       </c>
       <c r="J361" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12475,7 +12451,7 @@
         <v>182.1</v>
       </c>
       <c r="J362" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12516,7 +12492,7 @@
         <v>182.5</v>
       </c>
       <c r="J363" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12557,7 +12533,7 @@
         <v>181.8</v>
       </c>
       <c r="J364" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12598,7 +12574,7 @@
         <v>181.8</v>
       </c>
       <c r="J365" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12637,7 +12613,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12676,7 +12652,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12715,7 +12691,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12750,11 +12726,13 @@
         <v>-190148.8557452099</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>183.2</v>
+      </c>
       <c r="J369" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12793,7 +12771,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12832,7 +12810,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12871,7 +12849,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12910,7 +12888,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12949,7 +12927,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12988,7 +12966,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>182.2</v>
+        <v>181</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13001,6 +12979,6 @@
       <c r="M375" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -451,7 +451,7 @@
         <v>-5085.018428029995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3067.246571970006</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3234.861571970006</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2942.921571970006</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3940.587471970005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3924.731771970005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3774.224571970005</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1114.302328029995</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>15643.11267197001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>13560.23897197001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>6920.784771970006</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>34452.61667197</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>22483.13717197</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>22505.27607197001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>22598.98437197</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>22368.23877197001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>22216.61977197</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10148.55067197</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>10148.55067197</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>15949.21697197</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>16477.06897197</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>15963.37297197</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>16329.12497197</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>15502.50297197</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15331.93297197</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>15334.93297197</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>15053.93297197</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>15155.92097197</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>14994.28597197</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>14436.15897197</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>8256.952271970003</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1198.047728029997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3914.378628029996</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-5177.971228029996</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5355.333928029996</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-5352.333928029996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-5584.260228029996</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-5581.260228029996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6493.187528029996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16493.18752803</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-40065.71469219001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-35974.36183459</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-34266.06340363</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-34357.75350363</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-34251.41790363</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-29532.01751411</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-34538.91026735001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-32355.84996735001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-25349.84996735001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-25347.14996735001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-25263.97096735001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-25421.51646735001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-25414.81646735001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-25445.53036735001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-25442.53036735001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-25768.96006735001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-25766.26006735001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-26066.00866735</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-35307.59276735</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-35317.56776735</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-35294.86756735</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-39370.81556735</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-41159.79761299</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-53268.33751298999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-60538.51231298999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-100538.51231299</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-96026.08121299</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-95744.99721299</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-98169.29101299</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-97794.29101299</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-130316.40651299</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-135859.15991299</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-133971.05781299</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-126899.03591299</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-125270.74191299</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-125356.05441299</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-113426.61309415</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-111177.09499415</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-112677.09499415</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-113107.76459415</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-110287.76459415</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-72237.84759414999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-73296.80879415</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-89626.10199330999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-89615.57567753</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-86462.13967752999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-87087.53057752999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-87033.64187753</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-87158.64187753</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-91401.52197752999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-115740.89127753</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11836,14 +11836,10 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>181</v>
-      </c>
-      <c r="J347" t="n">
-        <v>181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
@@ -11873,470 +11869,394 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
         <v>181</v>
       </c>
-      <c r="J348" t="n">
+      <c r="C349" t="n">
         <v>181</v>
       </c>
-      <c r="K348" t="inlineStr">
+      <c r="D349" t="n">
+        <v>181</v>
+      </c>
+      <c r="E349" t="n">
+        <v>181</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-164153.17074521</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>181</v>
+      </c>
+      <c r="C350" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="D350" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E350" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10869.6085</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-153283.56224521</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="D351" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E351" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F351" t="n">
+        <v>13240.5636</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-166524.12584521</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="D352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="E352" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="F352" t="n">
+        <v>3</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-166524.12584521</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="C353" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="E353" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>8130.2222</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-174654.3480452099</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F354" t="n">
+        <v>6.2448</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-174654.3480452099</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F355" t="n">
+        <v>3</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-174654.3480452099</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E356" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F356" t="n">
+        <v>793.237</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-173861.11104521</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1416.0998</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-175277.2108452099</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J357" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="C358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>182.053</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-175095.1578452099</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K358" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>181</v>
-      </c>
-      <c r="C349" t="n">
-        <v>181</v>
-      </c>
-      <c r="D349" t="n">
-        <v>181</v>
-      </c>
-      <c r="E349" t="n">
-        <v>181</v>
-      </c>
-      <c r="F349" t="n">
-        <v>3</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>181</v>
-      </c>
-      <c r="J349" t="n">
-        <v>181</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>181</v>
-      </c>
-      <c r="C350" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="D350" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E350" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="F350" t="n">
-        <v>10869.6085</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-153283.56224521</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>181</v>
-      </c>
-      <c r="J350" t="n">
-        <v>181</v>
-      </c>
-      <c r="K350" t="inlineStr">
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="C359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="E359" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="F359" t="n">
+        <v>663.364</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-175095.1578452099</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="J359" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="K359" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>180.4</v>
-      </c>
-      <c r="C351" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="D351" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E351" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="F351" t="n">
-        <v>13240.5636</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-166524.12584521</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="J351" t="n">
-        <v>181</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="D352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="E352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="F352" t="n">
-        <v>3</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-166524.12584521</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="J352" t="n">
-        <v>181</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="C353" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D353" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="E353" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F353" t="n">
-        <v>8130.2222</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="J353" t="n">
-        <v>181</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F354" t="n">
-        <v>6.2448</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J354" t="n">
-        <v>181</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F355" t="n">
-        <v>3</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J355" t="n">
-        <v>181</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E356" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F356" t="n">
-        <v>793.237</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-173861.11104521</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J356" t="n">
-        <v>181</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E357" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F357" t="n">
-        <v>1416.0998</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-175277.2108452099</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="J357" t="n">
-        <v>181</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="C358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F358" t="n">
-        <v>182.053</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-175095.1578452099</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J358" t="n">
-        <v>181</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="C359" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="D359" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="E359" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="F359" t="n">
-        <v>663.364</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-175095.1578452099</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="J359" t="n">
-        <v>181</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12365,11 +12285,13 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>181.8</v>
+      </c>
       <c r="J360" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12410,7 +12332,7 @@
         <v>181.8</v>
       </c>
       <c r="J361" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12451,7 +12373,7 @@
         <v>182.1</v>
       </c>
       <c r="J362" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12492,7 +12414,7 @@
         <v>182.5</v>
       </c>
       <c r="J363" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12533,7 +12455,7 @@
         <v>181.8</v>
       </c>
       <c r="J364" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12568,13 +12490,11 @@
         <v>-169707.6895452099</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
         <v>181.8</v>
-      </c>
-      <c r="J365" t="n">
-        <v>181</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12613,7 +12533,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12652,7 +12572,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12691,7 +12611,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12726,13 +12646,11 @@
         <v>-190148.8557452099</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>183.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12771,7 +12689,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12810,7 +12728,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12849,7 +12767,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12888,7 +12806,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12927,7 +12845,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12966,7 +12884,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>181</v>
+        <v>181.8</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>

--- a/BackTest/2020-01-21 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-21 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:L375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>250</v>
       </c>
       <c r="G2" t="n">
-        <v>-5085.018428029995</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8152.265</v>
       </c>
       <c r="G3" t="n">
-        <v>3067.246571970006</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>167.615</v>
       </c>
       <c r="G4" t="n">
-        <v>3234.861571970006</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>291.94</v>
       </c>
       <c r="G5" t="n">
-        <v>2942.921571970006</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>997.6659</v>
       </c>
       <c r="G6" t="n">
-        <v>3940.587471970005</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5.9079</v>
       </c>
       <c r="G7" t="n">
-        <v>3934.679571970005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>138.9377</v>
       </c>
       <c r="G8" t="n">
-        <v>3934.679571970005</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6.6305</v>
       </c>
       <c r="G9" t="n">
-        <v>3928.049071970005</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3.3152</v>
       </c>
       <c r="G10" t="n">
-        <v>3928.049071970005</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3.3173</v>
       </c>
       <c r="G11" t="n">
-        <v>3924.731771970005</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>150.5072</v>
       </c>
       <c r="G12" t="n">
-        <v>3774.224571970005</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4888.5269</v>
       </c>
       <c r="G13" t="n">
-        <v>-1114.302328029995</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>19520.73</v>
       </c>
       <c r="G14" t="n">
-        <v>18406.42767197001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2281.677</v>
       </c>
       <c r="G15" t="n">
-        <v>18406.42767197001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2763.315</v>
       </c>
       <c r="G16" t="n">
-        <v>15643.11267197001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1053.575</v>
       </c>
       <c r="G17" t="n">
-        <v>14589.53767197001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3696.708</v>
       </c>
       <c r="G18" t="n">
-        <v>14589.53767197001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>670.4085</v>
       </c>
       <c r="G19" t="n">
-        <v>14589.53767197001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1029.2987</v>
       </c>
       <c r="G20" t="n">
-        <v>13560.23897197001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>6639.4542</v>
       </c>
       <c r="G21" t="n">
-        <v>6920.784771970006</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>18046.5075</v>
       </c>
       <c r="G22" t="n">
-        <v>-11125.72272802999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1125</v>
       </c>
       <c r="G23" t="n">
-        <v>-11125.72272802999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>45448.3394</v>
       </c>
       <c r="G24" t="n">
-        <v>34322.61667197</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>130</v>
       </c>
       <c r="G25" t="n">
-        <v>34452.61667197</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>8015.1005</v>
       </c>
       <c r="G26" t="n">
-        <v>26437.51617197</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>8191.682</v>
       </c>
       <c r="G27" t="n">
-        <v>26437.51617197</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>5795.811</v>
       </c>
       <c r="G28" t="n">
-        <v>20641.70517197</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>20651.70517197</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3523.3957</v>
       </c>
       <c r="G30" t="n">
-        <v>20651.70517197</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>176</v>
       </c>
       <c r="G31" t="n">
-        <v>20827.70517197</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>817</v>
       </c>
       <c r="G32" t="n">
-        <v>21644.70517197</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>840.9484</v>
       </c>
       <c r="G33" t="n">
-        <v>22485.65357197</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>0.0004</v>
       </c>
       <c r="G34" t="n">
-        <v>22485.65357197</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>108.499</v>
       </c>
       <c r="G35" t="n">
-        <v>22377.15457197</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>105.9826</v>
       </c>
       <c r="G36" t="n">
-        <v>22483.13717197</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>54.0222</v>
       </c>
       <c r="G37" t="n">
-        <v>22429.11497197</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>159.4663</v>
       </c>
       <c r="G38" t="n">
-        <v>22429.11497197</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>75.5094</v>
       </c>
       <c r="G39" t="n">
-        <v>22429.11497197</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>76.1611</v>
       </c>
       <c r="G40" t="n">
-        <v>22505.27607197001</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>93.70829999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>22598.98437197</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>230.7456</v>
       </c>
       <c r="G42" t="n">
-        <v>22368.23877197001</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>59.0575</v>
       </c>
       <c r="G43" t="n">
-        <v>22427.29627197</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>163.1518</v>
       </c>
       <c r="G44" t="n">
-        <v>22427.29627197</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>210.6765</v>
       </c>
       <c r="G45" t="n">
-        <v>22216.61977197</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>12584.0133</v>
       </c>
       <c r="G46" t="n">
-        <v>9632.606471970003</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1760</v>
       </c>
       <c r="G47" t="n">
-        <v>9632.606471970003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>155.986</v>
       </c>
       <c r="G48" t="n">
-        <v>9632.606471970003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>5515.8465</v>
       </c>
       <c r="G49" t="n">
-        <v>4116.759971970003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>8.571099999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>4125.331071970003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>194.2884</v>
       </c>
       <c r="G51" t="n">
-        <v>3931.042671970003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>39.7122</v>
       </c>
       <c r="G52" t="n">
-        <v>3931.042671970003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1800.2205</v>
       </c>
       <c r="G53" t="n">
-        <v>2130.822171970003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>154.7584</v>
       </c>
       <c r="G54" t="n">
-        <v>1976.063771970003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>47</v>
       </c>
       <c r="G55" t="n">
-        <v>1976.063771970003</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>0.633</v>
       </c>
       <c r="G56" t="n">
-        <v>1976.063771970003</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>1979.063771970003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2.9604</v>
       </c>
       <c r="G58" t="n">
-        <v>1982.024171970003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>210.8485</v>
       </c>
       <c r="G59" t="n">
-        <v>1771.175671970003</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>424.3764</v>
       </c>
       <c r="G60" t="n">
-        <v>2195.552071970003</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>242.0007</v>
       </c>
       <c r="G61" t="n">
-        <v>2437.552771970003</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>154.8475</v>
       </c>
       <c r="G62" t="n">
-        <v>2437.552771970003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>694.5709000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>3132.123671970003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>66</v>
       </c>
       <c r="G64" t="n">
-        <v>3198.123671970003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>233.9933</v>
       </c>
       <c r="G65" t="n">
-        <v>2964.130371970003</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>182.9933</v>
       </c>
       <c r="G66" t="n">
-        <v>3147.123671970003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>55.6799</v>
       </c>
       <c r="G67" t="n">
-        <v>3147.123671970003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>186</v>
       </c>
       <c r="G68" t="n">
-        <v>3147.123671970003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>178.726</v>
       </c>
       <c r="G69" t="n">
-        <v>2968.397671970003</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>315.726</v>
       </c>
       <c r="G70" t="n">
-        <v>2968.397671970003</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>675.8737</v>
       </c>
       <c r="G71" t="n">
-        <v>2968.397671970003</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>7180.153</v>
       </c>
       <c r="G72" t="n">
-        <v>10148.55067197</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>422.126</v>
       </c>
       <c r="G73" t="n">
-        <v>10148.55067197</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>179.2872</v>
       </c>
       <c r="G74" t="n">
-        <v>9969.263471970002</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>349.7007</v>
       </c>
       <c r="G75" t="n">
-        <v>9969.263471970002</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>220</v>
       </c>
       <c r="G76" t="n">
-        <v>9969.263471970002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>785.999</v>
       </c>
       <c r="G77" t="n">
-        <v>9969.263471970002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>13309.4899</v>
       </c>
       <c r="G78" t="n">
-        <v>9969.263471970002</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>5979.9535</v>
       </c>
       <c r="G79" t="n">
-        <v>15949.21697197</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>527.852</v>
       </c>
       <c r="G80" t="n">
-        <v>16477.06897197</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>513.696</v>
       </c>
       <c r="G81" t="n">
-        <v>15963.37297197</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>365.752</v>
       </c>
       <c r="G82" t="n">
-        <v>16329.12497197</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>835.622</v>
       </c>
       <c r="G83" t="n">
-        <v>15493.50297197</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>5070.105</v>
       </c>
       <c r="G84" t="n">
-        <v>15493.50297197</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>9</v>
       </c>
       <c r="G85" t="n">
-        <v>15502.50297197</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>170.57</v>
       </c>
       <c r="G86" t="n">
-        <v>15331.93297197</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>15334.93297197</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>281</v>
       </c>
       <c r="G88" t="n">
-        <v>15053.93297197</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>101.988</v>
       </c>
       <c r="G89" t="n">
-        <v>15155.92097197</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>161.635</v>
       </c>
       <c r="G90" t="n">
-        <v>14994.28597197</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>558.127</v>
       </c>
       <c r="G91" t="n">
-        <v>14436.15897197</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>6179.2067</v>
       </c>
       <c r="G92" t="n">
-        <v>8256.952271970003</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>9455</v>
       </c>
       <c r="G93" t="n">
-        <v>-1198.047728029997</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>-1192.047728029997</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>2722.3309</v>
       </c>
       <c r="G95" t="n">
-        <v>-3914.378628029996</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1263.5926</v>
       </c>
       <c r="G96" t="n">
-        <v>-5177.971228029996</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>-5174.971228029996</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>180.3627</v>
       </c>
       <c r="G98" t="n">
-        <v>-5355.333928029996</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>-5352.333928029996</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>231.9263</v>
       </c>
       <c r="G100" t="n">
-        <v>-5584.260228029996</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>-5581.260228029996</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>911.9272999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-6493.187528029996</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>10000</v>
       </c>
       <c r="G103" t="n">
-        <v>-16493.18752803</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>266</v>
       </c>
       <c r="G104" t="n">
-        <v>-16227.18752803</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>906.999</v>
       </c>
       <c r="G105" t="n">
-        <v>-17134.18652803</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1965.9941</v>
       </c>
       <c r="G106" t="n">
-        <v>-17134.18652803</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>367</v>
       </c>
       <c r="G107" t="n">
-        <v>-17134.18652803</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>2250.541</v>
       </c>
       <c r="G108" t="n">
-        <v>-17134.18652803</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>5096.386</v>
       </c>
       <c r="G109" t="n">
-        <v>-22230.57252803</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>111.2221</v>
       </c>
       <c r="G110" t="n">
-        <v>-22341.79462802999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2368.184</v>
       </c>
       <c r="G111" t="n">
-        <v>-24709.97862803</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>11.2277</v>
       </c>
       <c r="G112" t="n">
-        <v>-24698.75092803</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>10.7164</v>
       </c>
       <c r="G113" t="n">
-        <v>-24709.46732803</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>201.5167</v>
       </c>
       <c r="G114" t="n">
-        <v>-24910.98402803</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>14.2734</v>
       </c>
       <c r="G115" t="n">
-        <v>-24910.98402803</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>70.4689</v>
       </c>
       <c r="G116" t="n">
-        <v>-24840.51512803</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>3746.9744</v>
       </c>
       <c r="G117" t="n">
-        <v>-28587.48952803</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>-28584.48952803</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>2623.4938</v>
       </c>
       <c r="G119" t="n">
-        <v>-28584.48952803</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>9232.8074</v>
       </c>
       <c r="G120" t="n">
-        <v>-37817.29692802999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>2828.7476</v>
       </c>
       <c r="G121" t="n">
-        <v>-34988.54932802999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>5657.495</v>
       </c>
       <c r="G122" t="n">
-        <v>-40646.04432803</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>2828.7468</v>
       </c>
       <c r="G123" t="n">
-        <v>-43474.79112803</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>0.0009</v>
       </c>
       <c r="G124" t="n">
-        <v>-43474.79112803</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>9730.641</v>
       </c>
       <c r="G125" t="n">
-        <v>-33744.15012803</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>0.0003</v>
       </c>
       <c r="G126" t="n">
-        <v>-33744.15012803</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>656.9529</v>
       </c>
       <c r="G127" t="n">
-        <v>-33744.15012803</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>168.05</v>
       </c>
       <c r="G128" t="n">
-        <v>-33576.10012803</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2445.6469</v>
       </c>
       <c r="G129" t="n">
-        <v>-33576.10012803</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>169.204</v>
       </c>
       <c r="G130" t="n">
-        <v>-33406.89612803</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>482.107</v>
       </c>
       <c r="G131" t="n">
-        <v>-33406.89612803</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>4786.4182</v>
       </c>
       <c r="G132" t="n">
-        <v>-38193.31432803</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>943.282</v>
       </c>
       <c r="G133" t="n">
-        <v>-37250.03232803</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2400</v>
       </c>
       <c r="G134" t="n">
-        <v>-37250.03232803</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>4562.5636</v>
       </c>
       <c r="G135" t="n">
-        <v>-41812.59592803</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>-41809.59592803</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2823.654</v>
       </c>
       <c r="G137" t="n">
-        <v>-44633.24992803</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>5761.375</v>
       </c>
       <c r="G138" t="n">
-        <v>-38871.87492803</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>-38861.87492803</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>326.4297</v>
       </c>
       <c r="G140" t="n">
-        <v>-38861.87492803</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>9.1624</v>
       </c>
       <c r="G141" t="n">
-        <v>-38861.87492803</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>5106.012</v>
       </c>
       <c r="G142" t="n">
-        <v>-43967.88692803001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>4054.7265</v>
       </c>
       <c r="G143" t="n">
-        <v>-43967.88692803001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>8649.0309</v>
       </c>
       <c r="G144" t="n">
-        <v>-52616.91782803</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>501.7076</v>
       </c>
       <c r="G145" t="n">
-        <v>-53118.62542803001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>-53118.62542803001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>15</v>
       </c>
       <c r="G147" t="n">
-        <v>-53118.62542803001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>1445.2799</v>
       </c>
       <c r="G148" t="n">
-        <v>-53118.62542803001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>-53121.62542803001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>6179.618</v>
       </c>
       <c r="G150" t="n">
-        <v>-46942.00742803</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>30</v>
       </c>
       <c r="G151" t="n">
-        <v>-46972.00742803</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>30</v>
       </c>
       <c r="G152" t="n">
-        <v>-46972.00742803</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>255.4838</v>
       </c>
       <c r="G153" t="n">
-        <v>-47227.49122803001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>2772.89703584</v>
       </c>
       <c r="G154" t="n">
-        <v>-44454.59419219001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>9.99</v>
       </c>
       <c r="G155" t="n">
-        <v>-44454.59419219001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>116.0614</v>
       </c>
       <c r="G156" t="n">
-        <v>-44570.65559219001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>4512.7266</v>
       </c>
       <c r="G157" t="n">
-        <v>-40057.92899219001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>128</v>
       </c>
       <c r="G158" t="n">
-        <v>-39929.92899219001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>93</v>
       </c>
       <c r="G159" t="n">
-        <v>-39836.92899219001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>703.2486</v>
       </c>
       <c r="G160" t="n">
-        <v>-39133.68039219001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>30</v>
       </c>
       <c r="G161" t="n">
-        <v>-39133.68039219001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>42</v>
       </c>
       <c r="G162" t="n">
-        <v>-39175.68039219001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>890.0343</v>
       </c>
       <c r="G163" t="n">
-        <v>-40065.71469219001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>92.209</v>
       </c>
       <c r="G164" t="n">
-        <v>-39973.50569219</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>3688.1438576</v>
       </c>
       <c r="G165" t="n">
-        <v>-36285.36183459</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>311</v>
       </c>
       <c r="G166" t="n">
-        <v>-35974.36183459</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>100.3572</v>
       </c>
       <c r="G167" t="n">
-        <v>-36074.71903459</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>39.8203</v>
       </c>
       <c r="G168" t="n">
-        <v>-36034.89873459</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>1768.83533096</v>
       </c>
       <c r="G169" t="n">
-        <v>-34266.06340363</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>91.6901</v>
       </c>
       <c r="G170" t="n">
-        <v>-34357.75350363</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>3</v>
       </c>
       <c r="G171" t="n">
-        <v>-34354.75350363</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>3.4</v>
       </c>
       <c r="G172" t="n">
-        <v>-34354.75350363</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>103.3356</v>
       </c>
       <c r="G173" t="n">
-        <v>-34251.41790363</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>5</v>
       </c>
       <c r="G174" t="n">
-        <v>-34256.41790363</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>6</v>
       </c>
       <c r="G175" t="n">
-        <v>-34256.41790363</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>4621.40038952</v>
       </c>
       <c r="G176" t="n">
-        <v>-29635.01751411</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>103</v>
       </c>
       <c r="G177" t="n">
-        <v>-29532.01751411</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>279.2319</v>
       </c>
       <c r="G178" t="n">
-        <v>-29532.01751411</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>164.4896</v>
       </c>
       <c r="G179" t="n">
-        <v>-29532.01751411</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>4724.637</v>
       </c>
       <c r="G180" t="n">
-        <v>-34256.65451411001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>36.53444676</v>
       </c>
       <c r="G181" t="n">
-        <v>-34220.12006735001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>318.7902</v>
       </c>
       <c r="G182" t="n">
-        <v>-34538.91026735001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>7302.75</v>
       </c>
       <c r="G183" t="n">
-        <v>-27236.16026735001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>1418.2181</v>
       </c>
       <c r="G184" t="n">
-        <v>-27236.16026735001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>1347</v>
       </c>
       <c r="G185" t="n">
-        <v>-27236.16026735001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>183.1513</v>
       </c>
       <c r="G186" t="n">
-        <v>-27236.16026735001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>5180.4076</v>
       </c>
       <c r="G187" t="n">
-        <v>-32416.56786735001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>60.7179</v>
       </c>
       <c r="G188" t="n">
-        <v>-32355.84996735001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>193.387</v>
       </c>
       <c r="G189" t="n">
-        <v>-32355.84996735001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>4289.9207</v>
       </c>
       <c r="G190" t="n">
-        <v>-32355.84996735001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>-32352.84996735001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>7256.6748</v>
       </c>
       <c r="G192" t="n">
-        <v>-32352.84996735001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>7003</v>
       </c>
       <c r="G193" t="n">
-        <v>-25349.84996735001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>2.7</v>
       </c>
       <c r="G194" t="n">
-        <v>-25347.14996735001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>83.179</v>
       </c>
       <c r="G195" t="n">
-        <v>-25263.97096735001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>157.5455</v>
       </c>
       <c r="G196" t="n">
-        <v>-25421.51646735001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>6.7</v>
       </c>
       <c r="G197" t="n">
-        <v>-25414.81646735001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>30.7139</v>
       </c>
       <c r="G198" t="n">
-        <v>-25445.53036735001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>3</v>
       </c>
       <c r="G199" t="n">
-        <v>-25442.53036735001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>326.4297</v>
       </c>
       <c r="G200" t="n">
-        <v>-25768.96006735001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>2.7</v>
       </c>
       <c r="G201" t="n">
-        <v>-25766.26006735001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>299.7486</v>
       </c>
       <c r="G202" t="n">
-        <v>-26066.00866735</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>8191.5841</v>
       </c>
       <c r="G203" t="n">
-        <v>-34257.59276735</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>492.945</v>
       </c>
       <c r="G204" t="n">
-        <v>-34257.59276735</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>1050</v>
       </c>
       <c r="G205" t="n">
-        <v>-35307.59276735</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>9.975</v>
       </c>
       <c r="G206" t="n">
-        <v>-35317.56776735</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>22.7002</v>
       </c>
       <c r="G207" t="n">
-        <v>-35294.86756735</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>4075.948</v>
       </c>
       <c r="G208" t="n">
-        <v>-39370.81556735</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>1705.36254564</v>
       </c>
       <c r="G209" t="n">
-        <v>-41076.17811299</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>124</v>
       </c>
       <c r="G210" t="n">
-        <v>-41076.17811299</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>500</v>
       </c>
       <c r="G211" t="n">
-        <v>-41076.17811299</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>360</v>
       </c>
       <c r="G212" t="n">
-        <v>-41076.17811299</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>31.29890453</v>
       </c>
       <c r="G213" t="n">
-        <v>-41076.17811299</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>83.6195</v>
       </c>
       <c r="G214" t="n">
-        <v>-41159.79761299</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>12108.5399</v>
       </c>
       <c r="G215" t="n">
-        <v>-53268.33751298999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>7270.1748</v>
       </c>
       <c r="G216" t="n">
-        <v>-60538.51231298999</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>40000</v>
       </c>
       <c r="G217" t="n">
-        <v>-100538.51231299</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>4817.1067</v>
       </c>
       <c r="G218" t="n">
-        <v>-95721.40561299</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>973.331</v>
       </c>
       <c r="G219" t="n">
-        <v>-95721.40561299</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>304.6756</v>
       </c>
       <c r="G220" t="n">
-        <v>-96026.08121299</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>281.084</v>
       </c>
       <c r="G221" t="n">
-        <v>-95744.99721299</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>2424.2938</v>
       </c>
       <c r="G222" t="n">
-        <v>-98169.29101299</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>375</v>
       </c>
       <c r="G223" t="n">
-        <v>-97794.29101299</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>571.133</v>
       </c>
       <c r="G224" t="n">
-        <v>-97794.29101299</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>2192.657</v>
       </c>
       <c r="G225" t="n">
-        <v>-97794.29101299</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>473.536</v>
       </c>
       <c r="G226" t="n">
-        <v>-97794.29101299</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>275</v>
       </c>
       <c r="G227" t="n">
-        <v>-97794.29101299</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>32522.1155</v>
       </c>
       <c r="G228" t="n">
-        <v>-130316.40651299</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>145.1455</v>
       </c>
       <c r="G229" t="n">
-        <v>-130316.40651299</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>498.587</v>
       </c>
       <c r="G230" t="n">
-        <v>-129817.81951299</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>490.131</v>
       </c>
       <c r="G231" t="n">
-        <v>-129817.81951299</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>6041.3404</v>
       </c>
       <c r="G232" t="n">
-        <v>-135859.15991299</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>5938.7505</v>
       </c>
       <c r="G233" t="n">
-        <v>-135859.15991299</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>2344</v>
       </c>
       <c r="G234" t="n">
-        <v>-133515.15991299</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>455.8979</v>
       </c>
       <c r="G235" t="n">
-        <v>-133971.05781299</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>5982.3206</v>
       </c>
       <c r="G236" t="n">
-        <v>-133971.05781299</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>7288</v>
       </c>
       <c r="G237" t="n">
-        <v>-126683.05781299</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>15980</v>
       </c>
       <c r="G238" t="n">
-        <v>-126683.05781299</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>215.9781</v>
       </c>
       <c r="G239" t="n">
-        <v>-126899.03591299</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>1628.294</v>
       </c>
       <c r="G240" t="n">
-        <v>-125270.74191299</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>85.3125</v>
       </c>
       <c r="G241" t="n">
-        <v>-125356.05441299</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>4337.561</v>
       </c>
       <c r="G242" t="n">
-        <v>-121018.49341299</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>4688</v>
       </c>
       <c r="G243" t="n">
-        <v>-116330.49341299</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>239.6235</v>
       </c>
       <c r="G244" t="n">
-        <v>-116570.11691299</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>2344</v>
       </c>
       <c r="G245" t="n">
-        <v>-114226.11691299</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>1047.12041884</v>
       </c>
       <c r="G246" t="n">
-        <v>-113178.99649415</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>247.6166</v>
       </c>
       <c r="G247" t="n">
-        <v>-113426.61309415</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>622.8212</v>
       </c>
       <c r="G248" t="n">
-        <v>-113426.61309415</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>158.8516</v>
       </c>
       <c r="G249" t="n">
-        <v>-113426.61309415</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>2249.5181</v>
       </c>
       <c r="G250" t="n">
-        <v>-111177.09499415</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>1500</v>
       </c>
       <c r="G251" t="n">
-        <v>-112677.09499415</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>6.2448</v>
       </c>
       <c r="G252" t="n">
-        <v>-112670.85019415</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>2179.155</v>
       </c>
       <c r="G253" t="n">
-        <v>-112670.85019415</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>519.155</v>
       </c>
       <c r="G254" t="n">
-        <v>-112670.85019415</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>726.667</v>
       </c>
       <c r="G255" t="n">
-        <v>-112670.85019415</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>2019.624</v>
       </c>
       <c r="G256" t="n">
-        <v>-112670.85019415</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>436.9144</v>
       </c>
       <c r="G257" t="n">
-        <v>-113107.76459415</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>2820</v>
       </c>
       <c r="G258" t="n">
-        <v>-110287.76459415</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>38049.917</v>
       </c>
       <c r="G259" t="n">
-        <v>-72237.84759414999</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>191.8261</v>
       </c>
       <c r="G260" t="n">
-        <v>-72429.67369415</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>705.1950000000001</v>
       </c>
       <c r="G261" t="n">
-        <v>-72429.67369415</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>6902</v>
       </c>
       <c r="G262" t="n">
-        <v>-72429.67369415</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>867.1351</v>
       </c>
       <c r="G263" t="n">
-        <v>-73296.80879415</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>5.25210084</v>
       </c>
       <c r="G264" t="n">
-        <v>-73291.55669330999</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>16334.5453</v>
       </c>
       <c r="G265" t="n">
-        <v>-89626.10199330999</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>30317.5882</v>
       </c>
       <c r="G266" t="n">
-        <v>-89626.10199330999</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>4592.9937</v>
       </c>
       <c r="G267" t="n">
-        <v>-89626.10199330999</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>10.52631578</v>
       </c>
       <c r="G268" t="n">
-        <v>-89615.57567753</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>3153.436</v>
       </c>
       <c r="G269" t="n">
-        <v>-86462.13967752999</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>625.3909</v>
       </c>
       <c r="G270" t="n">
-        <v>-87087.53057752999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>47.8887</v>
       </c>
       <c r="G271" t="n">
-        <v>-87039.64187753</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>2709.3713</v>
       </c>
       <c r="G272" t="n">
-        <v>-87039.64187753</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>6</v>
       </c>
       <c r="G273" t="n">
-        <v>-87033.64187753</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>125</v>
       </c>
       <c r="G274" t="n">
-        <v>-87158.64187753</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>4242.8801</v>
       </c>
       <c r="G275" t="n">
-        <v>-91401.52197752999</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>145.5211</v>
       </c>
       <c r="G276" t="n">
-        <v>-91401.52197752999</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>145.3719</v>
       </c>
       <c r="G277" t="n">
-        <v>-91401.52197752999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>5520</v>
       </c>
       <c r="G278" t="n">
-        <v>-96921.52197752999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>1646.5907</v>
       </c>
       <c r="G279" t="n">
-        <v>-95274.93127752999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>20465.96</v>
       </c>
       <c r="G280" t="n">
-        <v>-115740.89127753</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>8335.6036</v>
       </c>
       <c r="G281" t="n">
-        <v>-107405.28767753</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>1860.147</v>
       </c>
       <c r="G282" t="n">
-        <v>-109265.43467753</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>1302.058</v>
       </c>
       <c r="G283" t="n">
-        <v>-110567.49267753</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>3</v>
       </c>
       <c r="G284" t="n">
-        <v>-110564.49267753</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>2357.8</v>
       </c>
       <c r="G285" t="n">
-        <v>-112922.29267753</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>316.271</v>
       </c>
       <c r="G286" t="n">
-        <v>-112606.02167753</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>111.8769</v>
       </c>
       <c r="G287" t="n">
-        <v>-112606.02167753</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>2344</v>
       </c>
       <c r="G288" t="n">
-        <v>-110262.02167753</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>3776.443</v>
       </c>
       <c r="G289" t="n">
-        <v>-110262.02167753</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>3000</v>
       </c>
       <c r="G290" t="n">
-        <v>-107262.02167753</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>1197.947</v>
       </c>
       <c r="G291" t="n">
-        <v>-107262.02167753</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>5278.715</v>
       </c>
       <c r="G292" t="n">
-        <v>-107262.02167753</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>8241.9</v>
       </c>
       <c r="G293" t="n">
-        <v>-115503.92167753</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>8465.712</v>
       </c>
       <c r="G294" t="n">
-        <v>-107038.20967753</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>80.0005</v>
       </c>
       <c r="G295" t="n">
-        <v>-106958.20917753</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>100</v>
       </c>
       <c r="G296" t="n">
-        <v>-107058.20917753</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>3480.7905</v>
       </c>
       <c r="G297" t="n">
-        <v>-110538.99967753</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>4234.3055</v>
       </c>
       <c r="G298" t="n">
-        <v>-110538.99967753</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>3.2733</v>
       </c>
       <c r="G299" t="n">
-        <v>-110535.72637753</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>3.2155</v>
       </c>
       <c r="G300" t="n">
-        <v>-110532.51087753</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>3706.7642</v>
       </c>
       <c r="G301" t="n">
-        <v>-114239.27507753</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>9734.0273</v>
       </c>
       <c r="G302" t="n">
-        <v>-104505.24777753</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G303" t="n">
-        <v>-104505.24777753</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>1500</v>
       </c>
       <c r="G304" t="n">
-        <v>-106005.24777753</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,15 @@
         <v>514.4629</v>
       </c>
       <c r="G305" t="n">
-        <v>-106005.24777753</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9563,15 @@
         <v>193.1305</v>
       </c>
       <c r="G306" t="n">
-        <v>-106005.24777753</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9593,15 @@
         <v>43.8981</v>
       </c>
       <c r="G307" t="n">
-        <v>-105961.34967753</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9623,15 @@
         <v>7620</v>
       </c>
       <c r="G308" t="n">
-        <v>-105961.34967753</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9653,15 @@
         <v>1236</v>
       </c>
       <c r="G309" t="n">
-        <v>-105961.34967753</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9683,15 @@
         <v>2.7</v>
       </c>
       <c r="G310" t="n">
-        <v>-105958.64967753</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9713,15 @@
         <v>10.8827</v>
       </c>
       <c r="G311" t="n">
-        <v>-105958.64967753</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9743,15 @@
         <v>7236.9207</v>
       </c>
       <c r="G312" t="n">
-        <v>-113195.57037753</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9773,15 @@
         <v>53050.713</v>
       </c>
       <c r="G313" t="n">
-        <v>-166246.28337753</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9803,15 @@
         <v>20444.8797</v>
       </c>
       <c r="G314" t="n">
-        <v>-145801.40367753</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9833,15 @@
         <v>2547.4262</v>
       </c>
       <c r="G315" t="n">
-        <v>-148348.82987753</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9863,15 @@
         <v>8362.9488</v>
       </c>
       <c r="G316" t="n">
-        <v>-156711.77867753</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9893,15 @@
         <v>2993.8878</v>
       </c>
       <c r="G317" t="n">
-        <v>-153717.89087753</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9923,15 @@
         <v>576.8537</v>
       </c>
       <c r="G318" t="n">
-        <v>-153141.03717753</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9953,15 @@
         <v>2993.8878</v>
       </c>
       <c r="G319" t="n">
-        <v>-156134.92497753</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +9983,15 @@
         <v>3436.0212</v>
       </c>
       <c r="G320" t="n">
-        <v>-156134.92497753</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10013,15 @@
         <v>2937.031</v>
       </c>
       <c r="G321" t="n">
-        <v>-159071.95597753</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10043,15 @@
         <v>19731.0444</v>
       </c>
       <c r="G322" t="n">
-        <v>-159071.95597753</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10073,15 @@
         <v>34.8206</v>
       </c>
       <c r="G323" t="n">
-        <v>-159071.95597753</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10103,15 @@
         <v>165.8237</v>
       </c>
       <c r="G324" t="n">
-        <v>-159237.77967753</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10133,15 @@
         <v>7838.1067</v>
       </c>
       <c r="G325" t="n">
-        <v>-159237.77967753</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10163,15 @@
         <v>691.2954</v>
       </c>
       <c r="G326" t="n">
-        <v>-158546.48427753</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10193,15 @@
         <v>650.0915</v>
       </c>
       <c r="G327" t="n">
-        <v>-158546.48427753</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10223,15 @@
         <v>446.5121</v>
       </c>
       <c r="G328" t="n">
-        <v>-158099.97217753</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10253,15 @@
         <v>1897</v>
       </c>
       <c r="G329" t="n">
-        <v>-159996.97217753</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10283,15 @@
         <v>10215.823</v>
       </c>
       <c r="G330" t="n">
-        <v>-149781.14917753</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10313,15 @@
         <v>81</v>
       </c>
       <c r="G331" t="n">
-        <v>-149862.14917753</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10343,15 @@
         <v>2343.6052</v>
       </c>
       <c r="G332" t="n">
-        <v>-147518.54397753</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,18 +10373,15 @@
         <v>3491.5897</v>
       </c>
       <c r="G333" t="n">
-        <v>-151010.13367753</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11404,18 +10403,15 @@
         <v>150.9233</v>
       </c>
       <c r="G334" t="n">
-        <v>-151161.05697753</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11437,18 +10433,15 @@
         <v>1182.9939</v>
       </c>
       <c r="G335" t="n">
-        <v>-151161.05697753</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11470,18 +10463,15 @@
         <v>6079.028</v>
       </c>
       <c r="G336" t="n">
-        <v>-157240.08497753</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11503,18 +10493,15 @@
         <v>755</v>
       </c>
       <c r="G337" t="n">
-        <v>-156485.08497753</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11536,18 +10523,15 @@
         <v>1877.7319</v>
       </c>
       <c r="G338" t="n">
-        <v>-154607.35307753</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11569,18 +10553,15 @@
         <v>48.96626768</v>
       </c>
       <c r="G339" t="n">
-        <v>-154656.31934521</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11602,18 +10583,15 @@
         <v>1868.1121</v>
       </c>
       <c r="G340" t="n">
-        <v>-156524.43144521</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11635,18 +10613,15 @@
         <v>239.6235</v>
       </c>
       <c r="G341" t="n">
-        <v>-156524.43144521</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11668,18 +10643,15 @@
         <v>2338.4878</v>
       </c>
       <c r="G342" t="n">
-        <v>-156524.43144521</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11701,18 +10673,15 @@
         <v>3986.7393</v>
       </c>
       <c r="G343" t="n">
-        <v>-160511.17074521</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11734,18 +10703,15 @@
         <v>8.45553737</v>
       </c>
       <c r="G344" t="n">
-        <v>-160511.17074521</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11767,18 +10733,15 @@
         <v>1200</v>
       </c>
       <c r="G345" t="n">
-        <v>-160511.17074521</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11800,18 +10763,15 @@
         <v>3642</v>
       </c>
       <c r="G346" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11833,18 +10793,15 @@
         <v>3</v>
       </c>
       <c r="G347" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11866,18 +10823,15 @@
         <v>10</v>
       </c>
       <c r="G348" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11899,18 +10853,15 @@
         <v>3</v>
       </c>
       <c r="G349" t="n">
-        <v>-164153.17074521</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11932,18 +10883,15 @@
         <v>10869.6085</v>
       </c>
       <c r="G350" t="n">
-        <v>-153283.56224521</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11965,18 +10913,15 @@
         <v>13240.5636</v>
       </c>
       <c r="G351" t="n">
-        <v>-166524.12584521</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11998,18 +10943,15 @@
         <v>3</v>
       </c>
       <c r="G352" t="n">
-        <v>-166524.12584521</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12031,18 +10973,21 @@
         <v>8130.2222</v>
       </c>
       <c r="G353" t="n">
-        <v>-174654.3480452099</v>
+        <v>1</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>180.3</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12064,18 +11009,19 @@
         <v>6.2448</v>
       </c>
       <c r="G354" t="n">
-        <v>-174654.3480452099</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K354" t="n">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12097,18 +11043,21 @@
         <v>3</v>
       </c>
       <c r="G355" t="n">
-        <v>-174654.3480452099</v>
+        <v>1</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12130,18 +11079,21 @@
         <v>793.237</v>
       </c>
       <c r="G356" t="n">
-        <v>-173861.11104521</v>
+        <v>1</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
+      <c r="L356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12163,22 +11115,21 @@
         <v>1416.0998</v>
       </c>
       <c r="G357" t="n">
-        <v>-175277.2108452099</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
         <v>181.8</v>
       </c>
-      <c r="J357" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K357" t="n">
+        <v>1</v>
+      </c>
+      <c r="L357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12200,26 +11151,21 @@
         <v>182.053</v>
       </c>
       <c r="G358" t="n">
-        <v>-175095.1578452099</v>
+        <v>1</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
         <v>180.2</v>
       </c>
-      <c r="J358" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K358" t="inlineStr">
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>1</v>
+      </c>
+      <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12241,26 +11187,21 @@
         <v>663.364</v>
       </c>
       <c r="G359" t="n">
-        <v>-175095.1578452099</v>
+        <v>1</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
         <v>181.8</v>
       </c>
-      <c r="J359" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K359" t="inlineStr">
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>1</v>
+      </c>
+      <c r="L359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12282,26 +11223,21 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G360" t="n">
-        <v>-175095.1578452099</v>
+        <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
         <v>181.8</v>
       </c>
-      <c r="J360" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K360" t="inlineStr">
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12323,26 +11259,21 @@
         <v>898.681</v>
       </c>
       <c r="G361" t="n">
-        <v>-174196.4768452099</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
         <v>181.8</v>
       </c>
-      <c r="J361" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K361" t="inlineStr">
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12364,26 +11295,21 @@
         <v>2669.8716</v>
       </c>
       <c r="G362" t="n">
-        <v>-171526.6052452099</v>
+        <v>1</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
         <v>182.1</v>
       </c>
-      <c r="J362" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K362" t="inlineStr">
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -12405,26 +11331,21 @@
         <v>1526.3783</v>
       </c>
       <c r="G363" t="n">
-        <v>-173052.9835452099</v>
+        <v>1</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
         <v>182.5</v>
       </c>
-      <c r="J363" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K363" t="inlineStr">
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -12446,26 +11367,19 @@
         <v>2385.3018</v>
       </c>
       <c r="G364" t="n">
-        <v>-173052.9835452099</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="J364" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K364" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>1</v>
+      </c>
+      <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -12487,24 +11401,19 @@
         <v>3345.294</v>
       </c>
       <c r="G365" t="n">
-        <v>-169707.6895452099</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K365" t="inlineStr">
+      <c r="J365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>1</v>
+      </c>
+      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12526,24 +11435,19 @@
         <v>27576.384</v>
       </c>
       <c r="G366" t="n">
-        <v>-197284.0735452099</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K366" t="inlineStr">
+      <c r="J366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>1</v>
+      </c>
+      <c r="L366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -12565,24 +11469,19 @@
         <v>17940.8404</v>
       </c>
       <c r="G367" t="n">
-        <v>-197284.0735452099</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K367" t="inlineStr">
+      <c r="J367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
+      <c r="L367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -12604,24 +11503,19 @@
         <v>7087.2178</v>
       </c>
       <c r="G368" t="n">
-        <v>-190196.8557452099</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K368" t="inlineStr">
+      <c r="J368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -12643,24 +11537,19 @@
         <v>48</v>
       </c>
       <c r="G369" t="n">
-        <v>-190148.8557452099</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K369" t="inlineStr">
+      <c r="J369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -12682,24 +11571,19 @@
         <v>215.823</v>
       </c>
       <c r="G370" t="n">
-        <v>-189933.0327452099</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K370" t="inlineStr">
+      <c r="J370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>1</v>
+      </c>
+      <c r="L370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -12721,24 +11605,19 @@
         <v>0.1251</v>
       </c>
       <c r="G371" t="n">
-        <v>-189933.0327452099</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K371" t="inlineStr">
+      <c r="J371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>1</v>
+      </c>
+      <c r="L371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -12760,24 +11639,19 @@
         <v>4401.9549</v>
       </c>
       <c r="G372" t="n">
-        <v>-194334.9876452099</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K372" t="inlineStr">
+      <c r="J372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>1</v>
+      </c>
+      <c r="L372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -12799,24 +11673,19 @@
         <v>203</v>
       </c>
       <c r="G373" t="n">
-        <v>-194131.9876452099</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K373" t="inlineStr">
+      <c r="J373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
+      <c r="L373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -12838,24 +11707,19 @@
         <v>273.3688</v>
       </c>
       <c r="G374" t="n">
-        <v>-194405.3564452099</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K374" t="inlineStr">
+      <c r="J374" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
+      <c r="L374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -12877,24 +11741,19 @@
         <v>196</v>
       </c>
       <c r="G375" t="n">
-        <v>-194601.3564452099</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="K375" t="inlineStr">
+      <c r="J375" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
+      <c r="L375" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
